--- a/多人讨论-区分付费/58天区分付费统计结果.xlsx
+++ b/多人讨论-区分付费/58天区分付费统计结果.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="205">
   <si>
     <t>日期</t>
   </si>
@@ -415,6 +415,12 @@
     <t>分享加入人数</t>
   </si>
   <si>
+    <t>分享率</t>
+  </si>
+  <si>
+    <t>分享拉人围观转化率</t>
+  </si>
+  <si>
     <t>自媒体时代，我们普通人如何打造个人超级IP?</t>
   </si>
   <si>
@@ -503,6 +509,129 @@
   </si>
   <si>
     <t>全国</t>
+  </si>
+  <si>
+    <t>4.72%</t>
+  </si>
+  <si>
+    <t>7.90%</t>
+  </si>
+  <si>
+    <t>6.13%</t>
+  </si>
+  <si>
+    <t>6.08%</t>
+  </si>
+  <si>
+    <t>2.46%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>3.79%</t>
+  </si>
+  <si>
+    <t>4.56%</t>
+  </si>
+  <si>
+    <t>3.42%</t>
+  </si>
+  <si>
+    <t>6.60%</t>
+  </si>
+  <si>
+    <t>3.91%</t>
+  </si>
+  <si>
+    <t>5.10%</t>
+  </si>
+  <si>
+    <t>2.81%</t>
+  </si>
+  <si>
+    <t>3.84%</t>
+  </si>
+  <si>
+    <t>1.80%</t>
+  </si>
+  <si>
+    <t>5.19%</t>
+  </si>
+  <si>
+    <t>6.41%</t>
+  </si>
+  <si>
+    <t>3.54%</t>
+  </si>
+  <si>
+    <t>3.95%</t>
+  </si>
+  <si>
+    <t>4.07%</t>
+  </si>
+  <si>
+    <t>5.53%</t>
+  </si>
+  <si>
+    <t>2.18%</t>
+  </si>
+  <si>
+    <t>3.32%</t>
+  </si>
+  <si>
+    <t>1.61%</t>
+  </si>
+  <si>
+    <t>4.44%</t>
+  </si>
+  <si>
+    <t>4.97%</t>
+  </si>
+  <si>
+    <t>3.31%</t>
+  </si>
+  <si>
+    <t>1.56%</t>
+  </si>
+  <si>
+    <t>0.07</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>0.17</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.13</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.11</t>
   </si>
 </sst>
 </file>
@@ -5919,13 +6048,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5965,8 +6094,14 @@
       <c r="N1" s="1" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -5974,10 +6109,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E2">
         <v>5808</v>
@@ -6009,8 +6144,14 @@
       <c r="N2">
         <v>434</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6018,10 +6159,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E3">
         <v>5342</v>
@@ -6053,8 +6194,14 @@
       <c r="N3">
         <v>362</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>165</v>
+      </c>
+      <c r="P3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6062,10 +6209,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E4">
         <v>5840</v>
@@ -6097,8 +6244,14 @@
       <c r="N4">
         <v>1066</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6106,10 +6259,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E5">
         <v>5771</v>
@@ -6141,8 +6294,14 @@
       <c r="N5">
         <v>402</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="s">
+        <v>167</v>
+      </c>
+      <c r="P5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6150,10 +6309,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E6">
         <v>4098</v>
@@ -6185,8 +6344,14 @@
       <c r="N6">
         <v>90</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>168</v>
+      </c>
+      <c r="P6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6194,10 +6359,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E7">
         <v>5349</v>
@@ -6229,8 +6394,14 @@
       <c r="N7">
         <v>352</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6238,10 +6409,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E8">
         <v>5304</v>
@@ -6273,8 +6444,14 @@
       <c r="N8">
         <v>364</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>170</v>
+      </c>
+      <c r="P8" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6282,10 +6459,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D9" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E9">
         <v>3790</v>
@@ -6317,8 +6494,14 @@
       <c r="N9">
         <v>200</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>171</v>
+      </c>
+      <c r="P9" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6326,10 +6509,10 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D10" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E10">
         <v>3982</v>
@@ -6361,8 +6544,14 @@
       <c r="N10">
         <v>164</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>172</v>
+      </c>
+      <c r="P10" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6370,10 +6559,10 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E11">
         <v>7497</v>
@@ -6405,8 +6594,14 @@
       <c r="N11">
         <v>1240</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="s">
+        <v>173</v>
+      </c>
+      <c r="P11" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6414,10 +6609,10 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E12">
         <v>5502</v>
@@ -6449,8 +6644,14 @@
       <c r="N12">
         <v>323</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="s">
+        <v>174</v>
+      </c>
+      <c r="P12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6458,10 +6659,10 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E13">
         <v>3335</v>
@@ -6493,8 +6694,14 @@
       <c r="N13">
         <v>260</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6502,10 +6709,10 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D14" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E14">
         <v>3950</v>
@@ -6537,8 +6744,14 @@
       <c r="N14">
         <v>84</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="s">
+        <v>176</v>
+      </c>
+      <c r="P14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6546,10 +6759,10 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E15">
         <v>2685</v>
@@ -6581,8 +6794,14 @@
       <c r="N15">
         <v>162</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" t="s">
+        <v>177</v>
+      </c>
+      <c r="P15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6590,10 +6809,10 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E16">
         <v>3391</v>
@@ -6625,8 +6844,14 @@
       <c r="N16">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -6634,10 +6859,10 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E17">
         <v>5265</v>
@@ -6669,8 +6894,14 @@
       <c r="N17">
         <v>669</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" t="s">
+        <v>179</v>
+      </c>
+      <c r="P17" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -6678,10 +6909,10 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E18">
         <v>5461</v>
@@ -6713,8 +6944,14 @@
       <c r="N18">
         <v>569</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" t="s">
+        <v>180</v>
+      </c>
+      <c r="P18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -6722,10 +6959,10 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D19" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E19">
         <v>3472</v>
@@ -6757,8 +6994,14 @@
       <c r="N19">
         <v>75</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" t="s">
+        <v>181</v>
+      </c>
+      <c r="P19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -6766,10 +7009,10 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D20" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E20">
         <v>3624</v>
@@ -6801,8 +7044,14 @@
       <c r="N20">
         <v>96</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" t="s">
+        <v>182</v>
+      </c>
+      <c r="P20" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -6810,10 +7059,10 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E21">
         <v>3981</v>
@@ -6845,8 +7094,14 @@
       <c r="N21">
         <v>113</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" t="s">
+        <v>183</v>
+      </c>
+      <c r="P21" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -6854,10 +7109,10 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D22" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E22">
         <v>3994</v>
@@ -6889,8 +7144,14 @@
       <c r="N22">
         <v>232</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" t="s">
+        <v>184</v>
+      </c>
+      <c r="P22" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -6898,10 +7159,10 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D23" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E23">
         <v>2247</v>
@@ -6933,8 +7194,14 @@
       <c r="N23">
         <v>26</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" t="s">
+        <v>185</v>
+      </c>
+      <c r="P23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -6942,10 +7209,10 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E24">
         <v>4973</v>
@@ -6977,8 +7244,14 @@
       <c r="N24">
         <v>548</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" t="s">
+        <v>171</v>
+      </c>
+      <c r="P24" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -6986,10 +7259,10 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D25" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E25">
         <v>3342</v>
@@ -7021,8 +7294,14 @@
       <c r="N25">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" t="s">
+        <v>186</v>
+      </c>
+      <c r="P25" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7030,10 +7309,10 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E26">
         <v>2608</v>
@@ -7065,8 +7344,14 @@
       <c r="N26">
         <v>52</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" t="s">
+        <v>187</v>
+      </c>
+      <c r="P26" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -7074,10 +7359,10 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E27">
         <v>4369</v>
@@ -7109,8 +7394,14 @@
       <c r="N27">
         <v>446</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" t="s">
+        <v>188</v>
+      </c>
+      <c r="P27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -7118,10 +7409,10 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E28">
         <v>2172</v>
@@ -7153,8 +7444,14 @@
       <c r="N28">
         <v>101</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" t="s">
+        <v>189</v>
+      </c>
+      <c r="P28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -7162,10 +7459,10 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E29">
         <v>2750</v>
@@ -7197,8 +7494,14 @@
       <c r="N29">
         <v>60</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" t="s">
+        <v>190</v>
+      </c>
+      <c r="P29" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -7206,10 +7509,10 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E30">
         <v>2826</v>
@@ -7240,6 +7543,12 @@
       </c>
       <c r="N30">
         <v>74</v>
+      </c>
+      <c r="O30" t="s">
+        <v>191</v>
+      </c>
+      <c r="P30" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/多人讨论-区分付费/58天区分付费统计结果.xlsx
+++ b/多人讨论-区分付费/58天区分付费统计结果.xlsx
@@ -361,7 +361,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2239,46 +2239,136 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>【58天互动学习场】95后成为消费主力，品牌如何“取悦”年轻人？</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>3514</v>
+      </c>
+      <c r="D42" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E42" t="n">
+        <v>946</v>
+      </c>
+      <c r="F42" t="n">
+        <v>572</v>
+      </c>
+      <c r="G42" t="n">
+        <v>41.78</v>
+      </c>
+      <c r="H42" t="n">
+        <v>41.16</v>
+      </c>
+      <c r="I42" t="n">
+        <v>42.99</v>
+      </c>
+      <c r="J42" t="n">
+        <v>41.96</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>0</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>2020-03-14</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>【58天互动学习场】裁还是不裁，疫情考验组织优化能力，企业如何应答？</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="C43" t="n">
         <v>5394</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D43" t="n">
         <v>4111</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E43" t="n">
         <v>877</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F43" t="n">
         <v>406</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G43" t="n">
         <v>29.85</v>
       </c>
-      <c r="H42" t="n">
+      <c r="H43" t="n">
         <v>30.02</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I43" t="n">
         <v>30.56</v>
       </c>
-      <c r="J42" t="n">
+      <c r="J43" t="n">
         <v>26.67</v>
       </c>
-      <c r="K42" t="n">
+      <c r="K43" t="n">
         <v>222</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L43" t="n">
         <v>66</v>
       </c>
-      <c r="M42" t="n">
+      <c r="M43" t="n">
         <v>156</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>【58天】新基建兴起，制造业如何抓住信息化转型机会，借势腾飞？</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1859</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1290</v>
+      </c>
+      <c r="E44" t="n">
+        <v>353</v>
+      </c>
+      <c r="F44" t="n">
+        <v>216</v>
+      </c>
+      <c r="G44" t="n">
+        <v>54.19</v>
+      </c>
+      <c r="H44" t="n">
+        <v>51.17</v>
+      </c>
+      <c r="I44" t="n">
+        <v>56.77</v>
+      </c>
+      <c r="J44" t="n">
+        <v>68.04000000000001</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2292,7 +2382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AD42"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6215,95 +6305,283 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2020-03-14</t>
+          <t>2020-03-12</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>5394</v>
+        <v>3514</v>
       </c>
       <c r="C42" t="n">
-        <v>2290</v>
+        <v>1284</v>
       </c>
       <c r="D42" t="n">
-        <v>1091</v>
+        <v>794</v>
       </c>
       <c r="E42" t="n">
-        <v>417</v>
+        <v>288</v>
       </c>
       <c r="F42" t="n">
-        <v>452</v>
+        <v>321</v>
       </c>
       <c r="G42" t="n">
-        <v>267</v>
+        <v>170</v>
       </c>
       <c r="H42" t="n">
-        <v>443</v>
+        <v>259</v>
       </c>
       <c r="I42" t="n">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="J42" t="n">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="K42" t="n">
-        <v>3381</v>
+        <v>2078</v>
       </c>
       <c r="L42" t="n">
-        <v>877</v>
+        <v>657</v>
       </c>
       <c r="M42" t="n">
-        <v>434</v>
+        <v>398</v>
       </c>
       <c r="N42" t="n">
-        <v>0.6268075639599555</v>
+        <v>0.591348890153671</v>
       </c>
       <c r="O42" t="n">
-        <v>0.7041156840934372</v>
+        <v>0.6733067729083665</v>
       </c>
       <c r="P42" t="n">
-        <v>0.1625880608083055</v>
+        <v>0.1869664200341491</v>
       </c>
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="S42" t="n">
+        <v>1996</v>
+      </c>
+      <c r="T42" t="n">
+        <v>752</v>
+      </c>
+      <c r="U42" t="n">
+        <v>418</v>
+      </c>
+      <c r="V42" t="n">
+        <v>169</v>
+      </c>
+      <c r="W42" t="n">
+        <v>191</v>
+      </c>
+      <c r="X42" t="n">
+        <v>97</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>135</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>112</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>122</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>0.5861723446893787</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>0.6708416833667334</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>0.1848697394789579</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>2020-03-14</t>
         </is>
       </c>
-      <c r="S42" t="n">
+      <c r="B43" t="n">
+        <v>5394</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2290</v>
+      </c>
+      <c r="D43" t="n">
+        <v>1091</v>
+      </c>
+      <c r="E43" t="n">
+        <v>417</v>
+      </c>
+      <c r="F43" t="n">
+        <v>452</v>
+      </c>
+      <c r="G43" t="n">
+        <v>267</v>
+      </c>
+      <c r="H43" t="n">
+        <v>443</v>
+      </c>
+      <c r="I43" t="n">
+        <v>204</v>
+      </c>
+      <c r="J43" t="n">
+        <v>230</v>
+      </c>
+      <c r="K43" t="n">
+        <v>3381</v>
+      </c>
+      <c r="L43" t="n">
+        <v>877</v>
+      </c>
+      <c r="M43" t="n">
+        <v>434</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.6268075639599555</v>
+      </c>
+      <c r="O43" t="n">
+        <v>0.7041156840934372</v>
+      </c>
+      <c r="P43" t="n">
+        <v>0.1625880608083055</v>
+      </c>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>2020-03-14</t>
+        </is>
+      </c>
+      <c r="S43" t="n">
         <v>4111</v>
       </c>
-      <c r="T42" t="n">
+      <c r="T43" t="n">
         <v>1772</v>
       </c>
-      <c r="U42" t="n">
+      <c r="U43" t="n">
         <v>820</v>
       </c>
-      <c r="V42" t="n">
+      <c r="V43" t="n">
         <v>317</v>
       </c>
-      <c r="W42" t="n">
+      <c r="W43" t="n">
         <v>343</v>
       </c>
-      <c r="X42" t="n">
+      <c r="X43" t="n">
         <v>196</v>
       </c>
-      <c r="Y42" t="n">
+      <c r="Y43" t="n">
         <v>331</v>
       </c>
-      <c r="Z42" t="n">
+      <c r="Z43" t="n">
         <v>156</v>
       </c>
-      <c r="AA42" t="n">
+      <c r="AA43" t="n">
         <v>176</v>
       </c>
-      <c r="AB42" t="n">
+      <c r="AB43" t="n">
         <v>0.6305035271223547</v>
       </c>
-      <c r="AC42" t="n">
+      <c r="AC43" t="n">
         <v>0.7076137192897105</v>
       </c>
-      <c r="AD42" t="n">
+      <c r="AD43" t="n">
         <v>0.1612746290440282</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>1859</v>
+      </c>
+      <c r="C44" t="n">
+        <v>445</v>
+      </c>
+      <c r="D44" t="n">
+        <v>321</v>
+      </c>
+      <c r="E44" t="n">
+        <v>161</v>
+      </c>
+      <c r="F44" t="n">
+        <v>177</v>
+      </c>
+      <c r="G44" t="n">
+        <v>135</v>
+      </c>
+      <c r="H44" t="n">
+        <v>331</v>
+      </c>
+      <c r="I44" t="n">
+        <v>83</v>
+      </c>
+      <c r="J44" t="n">
+        <v>206</v>
+      </c>
+      <c r="K44" t="n">
+        <v>766</v>
+      </c>
+      <c r="L44" t="n">
+        <v>620</v>
+      </c>
+      <c r="M44" t="n">
+        <v>289</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0.4120494889725659</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0.4986551909628832</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0.3335126412049489</v>
+      </c>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
+        </is>
+      </c>
+      <c r="S44" t="n">
+        <v>1290</v>
+      </c>
+      <c r="T44" t="n">
+        <v>283</v>
+      </c>
+      <c r="U44" t="n">
+        <v>204</v>
+      </c>
+      <c r="V44" t="n">
+        <v>108</v>
+      </c>
+      <c r="W44" t="n">
+        <v>124</v>
+      </c>
+      <c r="X44" t="n">
+        <v>98</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>267</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>69</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>137</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>0.3775193798449613</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>0.4612403100775194</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>0.3666666666666666</v>
       </c>
     </row>
   </sheetData>
@@ -6381,19 +6659,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7582</v>
+        <v>7289</v>
       </c>
       <c r="C3" t="n">
-        <v>3000</v>
+        <v>2966</v>
       </c>
       <c r="D3" t="n">
-        <v>917</v>
+        <v>838</v>
       </c>
       <c r="E3" t="n">
-        <v>459</v>
+        <v>435</v>
       </c>
       <c r="F3" t="n">
-        <v>242</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
@@ -6403,19 +6681,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6214754098360655</v>
+        <v>0.6221937686726419</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2459016393442623</v>
+        <v>0.2531796841655997</v>
       </c>
       <c r="D4" t="n">
-        <v>0.07516393442622951</v>
+        <v>0.0715322236448997</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03762295081967213</v>
+        <v>0.03713188220230474</v>
       </c>
       <c r="F4" t="n">
-        <v>0.01983606557377049</v>
+        <v>0.01596244131455399</v>
       </c>
     </row>
   </sheetData>
@@ -6429,7 +6707,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8494,6 +8772,66 @@
         </is>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2020-03-15</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新基建兴起，制造业如何抓住信息化转型机会，借势腾飞？</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>全国</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>1846</v>
+      </c>
+      <c r="F35" t="n">
+        <v>49.94</v>
+      </c>
+      <c r="G35" t="n">
+        <v>871</v>
+      </c>
+      <c r="H35" t="n">
+        <v>765</v>
+      </c>
+      <c r="I35" t="n">
+        <v>1135</v>
+      </c>
+      <c r="J35" t="n">
+        <v>55.35</v>
+      </c>
+      <c r="K35" t="n">
+        <v>711</v>
+      </c>
+      <c r="L35" t="n">
+        <v>41.31</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0.11%</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/多人讨论-区分付费/58天区分付费统计结果.xlsx
+++ b/多人讨论-区分付费/58天区分付费统计结果.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="230">
   <si>
     <t>日期</t>
   </si>
@@ -184,6 +184,9 @@
     <t>2020-03-16</t>
   </si>
   <si>
+    <t>2020-03-17</t>
+  </si>
+  <si>
     <t>【58天互动学习场】疫情对你的工作生活产生了哪些问题和挑战？</t>
   </si>
   <si>
@@ -310,6 +313,9 @@
     <t>【58天】如何通过探索个人使命，获得直面疫情挑战的笃定力量？</t>
   </si>
   <si>
+    <t>【58天互动学习场】危机当前，如何塑造制胜团队？</t>
+  </si>
+  <si>
     <t>1分钟以内</t>
   </si>
   <si>
@@ -412,9 +418,6 @@
     <t>4.0天</t>
   </si>
   <si>
-    <t>5.0天</t>
-  </si>
-  <si>
     <t>分社</t>
   </si>
   <si>
@@ -553,6 +556,9 @@
     <t>如何通过探索个人使命，获得直面疫情挑战的笃定力量？</t>
   </si>
   <si>
+    <t>危机当前，如何塑造制胜团队？</t>
+  </si>
+  <si>
     <t>全国</t>
   </si>
   <si>
@@ -640,10 +646,10 @@
     <t>1.56%</t>
   </si>
   <si>
+    <t>4.10%</t>
+  </si>
+  <si>
     <t>2.01%</t>
-  </si>
-  <si>
-    <t>4.10%</t>
   </si>
   <si>
     <t>4.75%</t>
@@ -1058,7 +1064,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1110,7 +1116,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C2">
         <v>3307</v>
@@ -1151,7 +1157,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>4295</v>
@@ -1192,7 +1198,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>5620</v>
@@ -1233,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C5">
         <v>3504</v>
@@ -1274,7 +1280,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6">
         <v>3895</v>
@@ -1315,7 +1321,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C7">
         <v>3749</v>
@@ -1356,7 +1362,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C8">
         <v>5763</v>
@@ -1397,7 +1403,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9">
         <v>5804</v>
@@ -1438,7 +1444,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>5338</v>
@@ -1479,7 +1485,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>5840</v>
@@ -1520,7 +1526,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C12">
         <v>5770</v>
@@ -1561,7 +1567,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>4098</v>
@@ -1602,7 +1608,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14">
         <v>5349</v>
@@ -1643,7 +1649,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C15">
         <v>5304</v>
@@ -1684,7 +1690,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C16">
         <v>3790</v>
@@ -1725,7 +1731,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>3982</v>
@@ -1766,7 +1772,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C18">
         <v>7497</v>
@@ -1807,7 +1813,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19">
         <v>5502</v>
@@ -1848,7 +1854,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C20">
         <v>3335</v>
@@ -1889,7 +1895,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C21">
         <v>3950</v>
@@ -1930,7 +1936,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22">
         <v>2685</v>
@@ -1971,7 +1977,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C23">
         <v>3391</v>
@@ -2012,7 +2018,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C24">
         <v>3534</v>
@@ -2053,7 +2059,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C25">
         <v>5263</v>
@@ -2094,7 +2100,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C26">
         <v>5420</v>
@@ -2135,7 +2141,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C27">
         <v>3472</v>
@@ -2176,7 +2182,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C28">
         <v>3624</v>
@@ -2217,7 +2223,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C29">
         <v>3981</v>
@@ -2258,7 +2264,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C30">
         <v>3994</v>
@@ -2299,7 +2305,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C31">
         <v>2247</v>
@@ -2340,7 +2346,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>4973</v>
@@ -2381,7 +2387,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C33">
         <v>3342</v>
@@ -2422,7 +2428,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C34">
         <v>2608</v>
@@ -2463,7 +2469,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C35">
         <v>4369</v>
@@ -2504,7 +2510,7 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C36">
         <v>2174</v>
@@ -2545,7 +2551,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C37">
         <v>2751</v>
@@ -2586,7 +2592,7 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C38">
         <v>2828</v>
@@ -2627,7 +2633,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C39">
         <v>4129</v>
@@ -2668,7 +2674,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C40">
         <v>3514</v>
@@ -2709,7 +2715,7 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C41">
         <v>3514</v>
@@ -2750,7 +2756,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C42">
         <v>3514</v>
@@ -2791,7 +2797,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C43">
         <v>3514</v>
@@ -2832,7 +2838,7 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C44">
         <v>5394</v>
@@ -2873,7 +2879,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C45">
         <v>1859</v>
@@ -2914,7 +2920,7 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C46">
         <v>2446</v>
@@ -2947,6 +2953,47 @@
         <v>0</v>
       </c>
       <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47">
+        <v>2642</v>
+      </c>
+      <c r="D47">
+        <v>1544</v>
+      </c>
+      <c r="E47">
+        <v>670</v>
+      </c>
+      <c r="F47">
+        <v>428</v>
+      </c>
+      <c r="G47">
+        <v>41.17</v>
+      </c>
+      <c r="H47">
+        <v>43.16</v>
+      </c>
+      <c r="I47">
+        <v>39.01</v>
+      </c>
+      <c r="J47">
+        <v>37.34</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
         <v>0</v>
       </c>
     </row>
@@ -2957,7 +3004,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD46"/>
+  <dimension ref="A1:AD47"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2971,88 +3018,88 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -7058,6 +7105,95 @@
       </c>
       <c r="AD46">
         <v>0.2833545108005083</v>
+      </c>
+    </row>
+    <row r="47" spans="1:30">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47">
+        <v>2642</v>
+      </c>
+      <c r="C47">
+        <v>833</v>
+      </c>
+      <c r="D47">
+        <v>635</v>
+      </c>
+      <c r="E47">
+        <v>271</v>
+      </c>
+      <c r="F47">
+        <v>294</v>
+      </c>
+      <c r="G47">
+        <v>173</v>
+      </c>
+      <c r="H47">
+        <v>227</v>
+      </c>
+      <c r="I47">
+        <v>85</v>
+      </c>
+      <c r="J47">
+        <v>124</v>
+      </c>
+      <c r="K47">
+        <v>1468</v>
+      </c>
+      <c r="L47">
+        <v>436</v>
+      </c>
+      <c r="M47">
+        <v>209</v>
+      </c>
+      <c r="N47">
+        <v>0.5556396669190008</v>
+      </c>
+      <c r="O47">
+        <v>0.6582134746404239</v>
+      </c>
+      <c r="P47">
+        <v>0.1650264950794852</v>
+      </c>
+      <c r="R47" t="s">
+        <v>55</v>
+      </c>
+      <c r="S47">
+        <v>1544</v>
+      </c>
+      <c r="T47">
+        <v>472</v>
+      </c>
+      <c r="U47">
+        <v>361</v>
+      </c>
+      <c r="V47">
+        <v>176</v>
+      </c>
+      <c r="W47">
+        <v>185</v>
+      </c>
+      <c r="X47">
+        <v>103</v>
+      </c>
+      <c r="Y47">
+        <v>128</v>
+      </c>
+      <c r="Z47">
+        <v>50</v>
+      </c>
+      <c r="AA47">
+        <v>69</v>
+      </c>
+      <c r="AB47">
+        <v>0.5395077720207254</v>
+      </c>
+      <c r="AC47">
+        <v>0.6534974093264249</v>
+      </c>
+      <c r="AD47">
+        <v>0.1599740932642487</v>
       </c>
     </row>
   </sheetData>
@@ -7067,13 +7203,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -7086,68 +7222,56 @@
       <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3">
+        <v>7756</v>
+      </c>
+      <c r="C3">
+        <v>1168</v>
+      </c>
+      <c r="D3">
+        <v>511</v>
+      </c>
+      <c r="E3">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3">
-        <v>6296</v>
-      </c>
-      <c r="C3">
-        <v>2924</v>
-      </c>
-      <c r="D3">
-        <v>793</v>
-      </c>
-      <c r="E3">
-        <v>341</v>
-      </c>
-      <c r="F3">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="B4">
-        <v>0.598365329785212</v>
+        <v>0.8067401705845642</v>
       </c>
       <c r="C4">
-        <v>0.2778939365139707</v>
+        <v>0.1214894944872062</v>
       </c>
       <c r="D4">
-        <v>0.07536590001900779</v>
+        <v>0.05315165383815269</v>
       </c>
       <c r="E4">
-        <v>0.03240828739783311</v>
-      </c>
-      <c r="F4">
-        <v>0.01596654628397643</v>
+        <v>0.01861868109007697</v>
       </c>
     </row>
   </sheetData>
@@ -7157,7 +7281,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7171,43 +7295,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -7218,10 +7342,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E2">
         <v>5808</v>
@@ -7254,10 +7378,10 @@
         <v>434</v>
       </c>
       <c r="O2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="P2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -7268,10 +7392,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E3">
         <v>5342</v>
@@ -7304,10 +7428,10 @@
         <v>362</v>
       </c>
       <c r="O3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7318,10 +7442,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E4">
         <v>5840</v>
@@ -7354,10 +7478,10 @@
         <v>1066</v>
       </c>
       <c r="O4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P4" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7368,10 +7492,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E5">
         <v>5771</v>
@@ -7404,10 +7528,10 @@
         <v>402</v>
       </c>
       <c r="O5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7418,10 +7542,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E6">
         <v>4098</v>
@@ -7454,10 +7578,10 @@
         <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7468,10 +7592,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E7">
         <v>5349</v>
@@ -7504,10 +7628,10 @@
         <v>352</v>
       </c>
       <c r="O7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7518,10 +7642,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E8">
         <v>5304</v>
@@ -7554,10 +7678,10 @@
         <v>364</v>
       </c>
       <c r="O8" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7568,10 +7692,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E9">
         <v>3790</v>
@@ -7604,10 +7728,10 @@
         <v>200</v>
       </c>
       <c r="O9" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7618,10 +7742,10 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E10">
         <v>3982</v>
@@ -7654,10 +7778,10 @@
         <v>164</v>
       </c>
       <c r="O10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P10" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7668,10 +7792,10 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E11">
         <v>7497</v>
@@ -7704,10 +7828,10 @@
         <v>1240</v>
       </c>
       <c r="O11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7718,10 +7842,10 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E12">
         <v>5502</v>
@@ -7754,10 +7878,10 @@
         <v>323</v>
       </c>
       <c r="O12" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="P12" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7768,10 +7892,10 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D13" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E13">
         <v>3335</v>
@@ -7804,10 +7928,10 @@
         <v>260</v>
       </c>
       <c r="O13" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="P13" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7818,10 +7942,10 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <v>3950</v>
@@ -7854,10 +7978,10 @@
         <v>84</v>
       </c>
       <c r="O14" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="P14" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7868,10 +7992,10 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E15">
         <v>2685</v>
@@ -7904,10 +8028,10 @@
         <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -7918,10 +8042,10 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E16">
         <v>3391</v>
@@ -7954,10 +8078,10 @@
         <v>42</v>
       </c>
       <c r="O16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P16" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -7968,10 +8092,10 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E17">
         <v>5265</v>
@@ -8004,10 +8128,10 @@
         <v>669</v>
       </c>
       <c r="O17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P17" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -8018,10 +8142,10 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D18" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E18">
         <v>5461</v>
@@ -8054,10 +8178,10 @@
         <v>569</v>
       </c>
       <c r="O18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P18" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -8068,10 +8192,10 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D19" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E19">
         <v>3472</v>
@@ -8104,10 +8228,10 @@
         <v>75</v>
       </c>
       <c r="O19" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="P19" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -8118,10 +8242,10 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E20">
         <v>3624</v>
@@ -8154,10 +8278,10 @@
         <v>96</v>
       </c>
       <c r="O20" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P20" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -8168,10 +8292,10 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D21" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E21">
         <v>3981</v>
@@ -8204,10 +8328,10 @@
         <v>113</v>
       </c>
       <c r="O21" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P21" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -8218,10 +8342,10 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D22" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E22">
         <v>3994</v>
@@ -8254,10 +8378,10 @@
         <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P22" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -8268,10 +8392,10 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D23" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E23">
         <v>2247</v>
@@ -8304,10 +8428,10 @@
         <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="P23" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -8318,10 +8442,10 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E24">
         <v>4973</v>
@@ -8354,10 +8478,10 @@
         <v>548</v>
       </c>
       <c r="O24" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P24" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -8368,10 +8492,10 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E25">
         <v>3342</v>
@@ -8404,10 +8528,10 @@
         <v>105</v>
       </c>
       <c r="O25" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="P25" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -8418,10 +8542,10 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E26">
         <v>2608</v>
@@ -8454,10 +8578,10 @@
         <v>52</v>
       </c>
       <c r="O26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="P26" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -8468,10 +8592,10 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E27">
         <v>4369</v>
@@ -8504,10 +8628,10 @@
         <v>446</v>
       </c>
       <c r="O27" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P27" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -8518,10 +8642,10 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D28" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E28">
         <v>2172</v>
@@ -8554,10 +8678,10 @@
         <v>101</v>
       </c>
       <c r="O28" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P28" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -8568,10 +8692,10 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D29" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E29">
         <v>2750</v>
@@ -8604,10 +8728,10 @@
         <v>60</v>
       </c>
       <c r="O29" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="P29" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -8618,10 +8742,10 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D30" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E30">
         <v>2826</v>
@@ -8654,10 +8778,10 @@
         <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P30" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -8668,46 +8792,46 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="D31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E31">
-        <v>399</v>
+        <v>4121</v>
       </c>
       <c r="F31">
-        <v>11.27</v>
+        <v>41.95</v>
       </c>
       <c r="G31">
-        <v>182</v>
+        <v>1959</v>
       </c>
       <c r="H31">
-        <v>156</v>
+        <v>1791</v>
       </c>
       <c r="I31">
-        <v>239</v>
+        <v>2655</v>
       </c>
       <c r="J31">
-        <v>12.12</v>
+        <v>44.42</v>
       </c>
       <c r="K31">
-        <v>160</v>
+        <v>1466</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>37.47</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="N31">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="O31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -8718,46 +8842,46 @@
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E32">
-        <v>4121</v>
+        <v>399</v>
       </c>
       <c r="F32">
-        <v>41.95</v>
+        <v>11.27</v>
       </c>
       <c r="G32">
-        <v>1959</v>
+        <v>182</v>
       </c>
       <c r="H32">
-        <v>1791</v>
+        <v>156</v>
       </c>
       <c r="I32">
-        <v>2655</v>
+        <v>239</v>
       </c>
       <c r="J32">
-        <v>44.42</v>
+        <v>12.12</v>
       </c>
       <c r="K32">
-        <v>1466</v>
+        <v>160</v>
       </c>
       <c r="L32">
-        <v>37.47</v>
+        <v>10</v>
       </c>
       <c r="M32">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="N32">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="O32" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P32" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -8768,10 +8892,10 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D33" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E33">
         <v>3513</v>
@@ -8804,10 +8928,10 @@
         <v>426</v>
       </c>
       <c r="O33" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="P33" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -8818,10 +8942,10 @@
         <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D34" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E34">
         <v>5391</v>
@@ -8854,10 +8978,10 @@
         <v>368</v>
       </c>
       <c r="O34" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -8868,10 +8992,10 @@
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D35" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E35">
         <v>1846</v>
@@ -8904,10 +9028,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P35" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -8918,10 +9042,10 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D36" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E36">
         <v>2439</v>
@@ -8954,10 +9078,60 @@
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P36" t="s">
-        <v>227</v>
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37" t="s">
+        <v>179</v>
+      </c>
+      <c r="D37" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37">
+        <v>2616</v>
+      </c>
+      <c r="F37">
+        <v>35.1</v>
+      </c>
+      <c r="G37">
+        <v>1111</v>
+      </c>
+      <c r="H37">
+        <v>972</v>
+      </c>
+      <c r="I37">
+        <v>1450</v>
+      </c>
+      <c r="J37">
+        <v>37.03</v>
+      </c>
+      <c r="K37">
+        <v>1166</v>
+      </c>
+      <c r="L37">
+        <v>32.7</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0</v>
+      </c>
+      <c r="O37" t="s">
+        <v>214</v>
+      </c>
+      <c r="P37" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/多人讨论-区分付费/58天区分付费统计结果.xlsx
+++ b/多人讨论-区分付费/58天区分付费统计结果.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="238">
   <si>
     <t>日期</t>
   </si>
@@ -187,6 +187,12 @@
     <t>2020-03-17</t>
   </si>
   <si>
+    <t>2020-03-18</t>
+  </si>
+  <si>
+    <t>2020-03-19</t>
+  </si>
+  <si>
     <t>【58天互动学习场】疫情对你的工作生活产生了哪些问题和挑战？</t>
   </si>
   <si>
@@ -316,6 +322,12 @@
     <t>【58天互动学习场】危机当前，如何塑造制胜团队？</t>
   </si>
   <si>
+    <t>【58天互动学习场】行业头部涌现，如何找到适合自己的细分赛道？</t>
+  </si>
+  <si>
+    <t>【58天互动学习场】如何建立升级与成长思维，打造不一样的你？</t>
+  </si>
+  <si>
     <t>1分钟以内</t>
   </si>
   <si>
@@ -418,6 +430,9 @@
     <t>4.0天</t>
   </si>
   <si>
+    <t>5.0天</t>
+  </si>
+  <si>
     <t>分社</t>
   </si>
   <si>
@@ -559,6 +574,12 @@
     <t>危机当前，如何塑造制胜团队？</t>
   </si>
   <si>
+    <t>行业头部涌现，如何找到适合自己的细分赛道？</t>
+  </si>
+  <si>
+    <t>如何建立升级与成长思维，打造不一样的你？</t>
+  </si>
+  <si>
     <t>全国</t>
   </si>
   <si>
@@ -646,12 +667,12 @@
     <t>1.56%</t>
   </si>
   <si>
+    <t>2.01%</t>
+  </si>
+  <si>
     <t>4.10%</t>
   </si>
   <si>
-    <t>2.01%</t>
-  </si>
-  <si>
     <t>4.75%</t>
   </si>
   <si>
@@ -662,6 +683,9 @@
   </si>
   <si>
     <t>0.00%</t>
+  </si>
+  <si>
+    <t>3.78%</t>
   </si>
   <si>
     <t>0.07</t>
@@ -1064,7 +1088,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1116,7 +1140,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>3307</v>
@@ -1157,7 +1181,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C3">
         <v>4295</v>
@@ -1198,7 +1222,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C4">
         <v>5620</v>
@@ -1239,7 +1263,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C5">
         <v>3504</v>
@@ -1280,7 +1304,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>3895</v>
@@ -1321,7 +1345,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C7">
         <v>3749</v>
@@ -1362,7 +1386,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8">
         <v>5763</v>
@@ -1403,7 +1427,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9">
         <v>5804</v>
@@ -1444,7 +1468,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10">
         <v>5338</v>
@@ -1485,7 +1509,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11">
         <v>5840</v>
@@ -1526,7 +1550,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12">
         <v>5770</v>
@@ -1567,7 +1591,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13">
         <v>4098</v>
@@ -1608,7 +1632,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>5349</v>
@@ -1649,7 +1673,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C15">
         <v>5304</v>
@@ -1690,7 +1714,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C16">
         <v>3790</v>
@@ -1731,7 +1755,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C17">
         <v>3982</v>
@@ -1772,7 +1796,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C18">
         <v>7497</v>
@@ -1813,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C19">
         <v>5502</v>
@@ -1854,7 +1878,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C20">
         <v>3335</v>
@@ -1895,7 +1919,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C21">
         <v>3950</v>
@@ -1936,7 +1960,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>2685</v>
@@ -1977,7 +2001,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C23">
         <v>3391</v>
@@ -2018,7 +2042,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C24">
         <v>3534</v>
@@ -2059,7 +2083,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C25">
         <v>5263</v>
@@ -2100,7 +2124,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C26">
         <v>5420</v>
@@ -2141,7 +2165,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>3472</v>
@@ -2182,7 +2206,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C28">
         <v>3624</v>
@@ -2223,7 +2247,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C29">
         <v>3981</v>
@@ -2264,7 +2288,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>3994</v>
@@ -2305,7 +2329,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C31">
         <v>2247</v>
@@ -2346,7 +2370,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C32">
         <v>4973</v>
@@ -2387,7 +2411,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C33">
         <v>3342</v>
@@ -2428,7 +2452,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C34">
         <v>2608</v>
@@ -2469,7 +2493,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C35">
         <v>4369</v>
@@ -2510,7 +2534,7 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C36">
         <v>2174</v>
@@ -2551,7 +2575,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C37">
         <v>2751</v>
@@ -2592,7 +2616,7 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C38">
         <v>2828</v>
@@ -2633,7 +2657,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C39">
         <v>4129</v>
@@ -2674,7 +2698,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C40">
         <v>3514</v>
@@ -2715,7 +2739,7 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C41">
         <v>3514</v>
@@ -2756,7 +2780,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C42">
         <v>3514</v>
@@ -2797,7 +2821,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C43">
         <v>3514</v>
@@ -2838,7 +2862,7 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C44">
         <v>5394</v>
@@ -2879,7 +2903,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C45">
         <v>1859</v>
@@ -2920,7 +2944,7 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C46">
         <v>2446</v>
@@ -2961,7 +2985,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C47">
         <v>2642</v>
@@ -2994,6 +3018,88 @@
         <v>0</v>
       </c>
       <c r="M47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48">
+        <v>3847</v>
+      </c>
+      <c r="D48">
+        <v>2286</v>
+      </c>
+      <c r="E48">
+        <v>1006</v>
+      </c>
+      <c r="F48">
+        <v>555</v>
+      </c>
+      <c r="G48">
+        <v>44.77</v>
+      </c>
+      <c r="H48">
+        <v>43.48</v>
+      </c>
+      <c r="I48">
+        <v>45.27</v>
+      </c>
+      <c r="J48">
+        <v>49.19</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49">
+        <v>2492</v>
+      </c>
+      <c r="D49">
+        <v>1381</v>
+      </c>
+      <c r="E49">
+        <v>666</v>
+      </c>
+      <c r="F49">
+        <v>445</v>
+      </c>
+      <c r="G49">
+        <v>47.55</v>
+      </c>
+      <c r="H49">
+        <v>49.21</v>
+      </c>
+      <c r="I49">
+        <v>45.65</v>
+      </c>
+      <c r="J49">
+        <v>45.25</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
         <v>0</v>
       </c>
     </row>
@@ -3004,7 +3110,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD47"/>
+  <dimension ref="A1:AD49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3018,88 +3124,88 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -7194,6 +7300,184 @@
       </c>
       <c r="AD47">
         <v>0.1599740932642487</v>
+      </c>
+    </row>
+    <row r="48" spans="1:30">
+      <c r="A48" t="s">
+        <v>56</v>
+      </c>
+      <c r="B48">
+        <v>3847</v>
+      </c>
+      <c r="C48">
+        <v>1530</v>
+      </c>
+      <c r="D48">
+        <v>827</v>
+      </c>
+      <c r="E48">
+        <v>328</v>
+      </c>
+      <c r="F48">
+        <v>334</v>
+      </c>
+      <c r="G48">
+        <v>175</v>
+      </c>
+      <c r="H48">
+        <v>250</v>
+      </c>
+      <c r="I48">
+        <v>178</v>
+      </c>
+      <c r="J48">
+        <v>225</v>
+      </c>
+      <c r="K48">
+        <v>2357</v>
+      </c>
+      <c r="L48">
+        <v>653</v>
+      </c>
+      <c r="M48">
+        <v>403</v>
+      </c>
+      <c r="N48">
+        <v>0.6126852092539641</v>
+      </c>
+      <c r="O48">
+        <v>0.6979464517806082</v>
+      </c>
+      <c r="P48">
+        <v>0.1697426566155446</v>
+      </c>
+      <c r="R48" t="s">
+        <v>56</v>
+      </c>
+      <c r="S48">
+        <v>2286</v>
+      </c>
+      <c r="T48">
+        <v>886</v>
+      </c>
+      <c r="U48">
+        <v>453</v>
+      </c>
+      <c r="V48">
+        <v>182</v>
+      </c>
+      <c r="W48">
+        <v>219</v>
+      </c>
+      <c r="X48">
+        <v>118</v>
+      </c>
+      <c r="Y48">
+        <v>167</v>
+      </c>
+      <c r="Z48">
+        <v>123</v>
+      </c>
+      <c r="AA48">
+        <v>138</v>
+      </c>
+      <c r="AB48">
+        <v>0.5857392825896763</v>
+      </c>
+      <c r="AC48">
+        <v>0.6653543307086615</v>
+      </c>
+      <c r="AD48">
+        <v>0.1872265966754156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:30">
+      <c r="A49" t="s">
+        <v>57</v>
+      </c>
+      <c r="B49">
+        <v>2492</v>
+      </c>
+      <c r="C49">
+        <v>887</v>
+      </c>
+      <c r="D49">
+        <v>561</v>
+      </c>
+      <c r="E49">
+        <v>214</v>
+      </c>
+      <c r="F49">
+        <v>235</v>
+      </c>
+      <c r="G49">
+        <v>106</v>
+      </c>
+      <c r="H49">
+        <v>180</v>
+      </c>
+      <c r="I49">
+        <v>121</v>
+      </c>
+      <c r="J49">
+        <v>188</v>
+      </c>
+      <c r="K49">
+        <v>1448</v>
+      </c>
+      <c r="L49">
+        <v>489</v>
+      </c>
+      <c r="M49">
+        <v>309</v>
+      </c>
+      <c r="N49">
+        <v>0.5810593900481541</v>
+      </c>
+      <c r="O49">
+        <v>0.6669341894060995</v>
+      </c>
+      <c r="P49">
+        <v>0.1962279293739968</v>
+      </c>
+      <c r="R49" t="s">
+        <v>57</v>
+      </c>
+      <c r="S49">
+        <v>1381</v>
+      </c>
+      <c r="T49">
+        <v>474</v>
+      </c>
+      <c r="U49">
+        <v>278</v>
+      </c>
+      <c r="V49">
+        <v>108</v>
+      </c>
+      <c r="W49">
+        <v>135</v>
+      </c>
+      <c r="X49">
+        <v>72</v>
+      </c>
+      <c r="Y49">
+        <v>119</v>
+      </c>
+      <c r="Z49">
+        <v>85</v>
+      </c>
+      <c r="AA49">
+        <v>110</v>
+      </c>
+      <c r="AB49">
+        <v>0.5445329471397538</v>
+      </c>
+      <c r="AC49">
+        <v>0.6227371469949312</v>
+      </c>
+      <c r="AD49">
+        <v>0.2273714699493121</v>
       </c>
     </row>
   </sheetData>
@@ -7203,13 +7487,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -7222,56 +7506,68 @@
       <c r="E1" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B3">
+        <v>6479</v>
+      </c>
+      <c r="C3">
+        <v>1288</v>
+      </c>
+      <c r="D3">
+        <v>570</v>
+      </c>
+      <c r="E3">
+        <v>344</v>
+      </c>
+      <c r="F3">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B3">
-        <v>7756</v>
-      </c>
-      <c r="C3">
-        <v>1168</v>
-      </c>
-      <c r="D3">
-        <v>511</v>
-      </c>
-      <c r="E3">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="B4">
-        <v>0.8067401705845642</v>
+        <v>0.7271604938271605</v>
       </c>
       <c r="C4">
-        <v>0.1214894944872062</v>
+        <v>0.1445566778900112</v>
       </c>
       <c r="D4">
-        <v>0.05315165383815269</v>
+        <v>0.06397306397306397</v>
       </c>
       <c r="E4">
-        <v>0.01861868109007697</v>
+        <v>0.03860830527497194</v>
+      </c>
+      <c r="F4">
+        <v>0.02570145903479237</v>
       </c>
     </row>
   </sheetData>
@@ -7281,7 +7577,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P37"/>
+  <dimension ref="A1:P39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7295,43 +7591,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -7342,10 +7638,10 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E2">
         <v>5808</v>
@@ -7378,10 +7674,10 @@
         <v>434</v>
       </c>
       <c r="O2" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="P2" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -7392,10 +7688,10 @@
         <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E3">
         <v>5342</v>
@@ -7428,10 +7724,10 @@
         <v>362</v>
       </c>
       <c r="O3" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P3" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -7442,10 +7738,10 @@
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E4">
         <v>5840</v>
@@ -7478,10 +7774,10 @@
         <v>1066</v>
       </c>
       <c r="O4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P4" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -7492,10 +7788,10 @@
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E5">
         <v>5771</v>
@@ -7528,10 +7824,10 @@
         <v>402</v>
       </c>
       <c r="O5" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="P5" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -7542,10 +7838,10 @@
         <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E6">
         <v>4098</v>
@@ -7578,10 +7874,10 @@
         <v>90</v>
       </c>
       <c r="O6" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="P6" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -7592,10 +7888,10 @@
         <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="D7" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E7">
         <v>5349</v>
@@ -7628,10 +7924,10 @@
         <v>352</v>
       </c>
       <c r="O7" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="P7" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -7642,10 +7938,10 @@
         <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E8">
         <v>5304</v>
@@ -7678,10 +7974,10 @@
         <v>364</v>
       </c>
       <c r="O8" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="P8" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -7692,10 +7988,10 @@
         <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="D9" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E9">
         <v>3790</v>
@@ -7728,10 +8024,10 @@
         <v>200</v>
       </c>
       <c r="O9" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P9" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -7742,10 +8038,10 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="D10" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E10">
         <v>3982</v>
@@ -7778,10 +8074,10 @@
         <v>164</v>
       </c>
       <c r="O10" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="P10" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -7792,10 +8088,10 @@
         <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D11" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E11">
         <v>7497</v>
@@ -7828,10 +8124,10 @@
         <v>1240</v>
       </c>
       <c r="O11" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="P11" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -7842,10 +8138,10 @@
         <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="D12" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E12">
         <v>5502</v>
@@ -7878,10 +8174,10 @@
         <v>323</v>
       </c>
       <c r="O12" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="P12" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -7892,10 +8188,10 @@
         <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E13">
         <v>3335</v>
@@ -7928,10 +8224,10 @@
         <v>260</v>
       </c>
       <c r="O13" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="P13" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -7942,10 +8238,10 @@
         <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E14">
         <v>3950</v>
@@ -7978,10 +8274,10 @@
         <v>84</v>
       </c>
       <c r="O14" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="P14" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -7992,10 +8288,10 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E15">
         <v>2685</v>
@@ -8028,10 +8324,10 @@
         <v>162</v>
       </c>
       <c r="O15" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="P15" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -8042,10 +8338,10 @@
         <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D16" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E16">
         <v>3391</v>
@@ -8078,10 +8374,10 @@
         <v>42</v>
       </c>
       <c r="O16" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="P16" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -8092,10 +8388,10 @@
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="D17" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E17">
         <v>5265</v>
@@ -8128,10 +8424,10 @@
         <v>669</v>
       </c>
       <c r="O17" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="P17" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -8142,10 +8438,10 @@
         <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="D18" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E18">
         <v>5461</v>
@@ -8178,10 +8474,10 @@
         <v>569</v>
       </c>
       <c r="O18" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="P18" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -8192,10 +8488,10 @@
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E19">
         <v>3472</v>
@@ -8228,10 +8524,10 @@
         <v>75</v>
       </c>
       <c r="O19" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="P19" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -8242,10 +8538,10 @@
         <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E20">
         <v>3624</v>
@@ -8278,10 +8574,10 @@
         <v>96</v>
       </c>
       <c r="O20" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="P20" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -8292,10 +8588,10 @@
         <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="D21" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E21">
         <v>3981</v>
@@ -8328,10 +8624,10 @@
         <v>113</v>
       </c>
       <c r="O21" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="P21" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -8342,10 +8638,10 @@
         <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D22" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E22">
         <v>3994</v>
@@ -8378,10 +8674,10 @@
         <v>232</v>
       </c>
       <c r="O22" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="P22" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -8392,10 +8688,10 @@
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="D23" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E23">
         <v>2247</v>
@@ -8428,10 +8724,10 @@
         <v>26</v>
       </c>
       <c r="O23" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="P23" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -8442,10 +8738,10 @@
         <v>43</v>
       </c>
       <c r="C24" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="D24" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E24">
         <v>4973</v>
@@ -8478,10 +8774,10 @@
         <v>548</v>
       </c>
       <c r="O24" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="P24" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -8492,10 +8788,10 @@
         <v>44</v>
       </c>
       <c r="C25" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="D25" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E25">
         <v>3342</v>
@@ -8528,10 +8824,10 @@
         <v>105</v>
       </c>
       <c r="O25" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="P25" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -8542,10 +8838,10 @@
         <v>45</v>
       </c>
       <c r="C26" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="D26" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E26">
         <v>2608</v>
@@ -8578,10 +8874,10 @@
         <v>52</v>
       </c>
       <c r="O26" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="P26" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -8592,10 +8888,10 @@
         <v>46</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="D27" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E27">
         <v>4369</v>
@@ -8628,10 +8924,10 @@
         <v>446</v>
       </c>
       <c r="O27" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="P27" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -8642,10 +8938,10 @@
         <v>47</v>
       </c>
       <c r="C28" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="D28" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E28">
         <v>2172</v>
@@ -8678,10 +8974,10 @@
         <v>101</v>
       </c>
       <c r="O28" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="P28" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -8692,10 +8988,10 @@
         <v>48</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D29" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E29">
         <v>2750</v>
@@ -8728,10 +9024,10 @@
         <v>60</v>
       </c>
       <c r="O29" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="P29" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -8742,10 +9038,10 @@
         <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="D30" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E30">
         <v>2826</v>
@@ -8778,10 +9074,10 @@
         <v>74</v>
       </c>
       <c r="O30" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="P30" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -8792,46 +9088,46 @@
         <v>50</v>
       </c>
       <c r="C31" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D31" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E31">
-        <v>4121</v>
+        <v>399</v>
       </c>
       <c r="F31">
-        <v>41.95</v>
+        <v>11.27</v>
       </c>
       <c r="G31">
-        <v>1959</v>
+        <v>182</v>
       </c>
       <c r="H31">
-        <v>1791</v>
+        <v>156</v>
       </c>
       <c r="I31">
-        <v>2655</v>
+        <v>239</v>
       </c>
       <c r="J31">
-        <v>44.42</v>
+        <v>12.12</v>
       </c>
       <c r="K31">
-        <v>1466</v>
+        <v>160</v>
       </c>
       <c r="L31">
-        <v>37.47</v>
+        <v>10</v>
       </c>
       <c r="M31">
-        <v>169</v>
+        <v>8</v>
       </c>
       <c r="N31">
-        <v>334</v>
+        <v>20</v>
       </c>
       <c r="O31" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P31" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -8842,46 +9138,46 @@
         <v>50</v>
       </c>
       <c r="C32" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="D32" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E32">
-        <v>399</v>
+        <v>4121</v>
       </c>
       <c r="F32">
-        <v>11.27</v>
+        <v>41.95</v>
       </c>
       <c r="G32">
-        <v>182</v>
+        <v>1959</v>
       </c>
       <c r="H32">
-        <v>156</v>
+        <v>1791</v>
       </c>
       <c r="I32">
-        <v>239</v>
+        <v>2655</v>
       </c>
       <c r="J32">
-        <v>12.12</v>
+        <v>44.42</v>
       </c>
       <c r="K32">
-        <v>160</v>
+        <v>1466</v>
       </c>
       <c r="L32">
-        <v>10</v>
+        <v>37.47</v>
       </c>
       <c r="M32">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="N32">
-        <v>20</v>
+        <v>334</v>
       </c>
       <c r="O32" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="P32" t="s">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -8892,10 +9188,10 @@
         <v>51</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="D33" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E33">
         <v>3513</v>
@@ -8928,10 +9224,10 @@
         <v>426</v>
       </c>
       <c r="O33" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="P33" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -8942,10 +9238,10 @@
         <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="D34" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E34">
         <v>5391</v>
@@ -8978,10 +9274,10 @@
         <v>368</v>
       </c>
       <c r="O34" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -8992,10 +9288,10 @@
         <v>53</v>
       </c>
       <c r="C35" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="D35" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E35">
         <v>1846</v>
@@ -9028,10 +9324,10 @@
         <v>0</v>
       </c>
       <c r="O35" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="P35" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -9042,10 +9338,10 @@
         <v>54</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D36" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E36">
         <v>2439</v>
@@ -9078,10 +9374,10 @@
         <v>0</v>
       </c>
       <c r="O36" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P36" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -9092,10 +9388,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D37" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E37">
         <v>2616</v>
@@ -9128,10 +9424,110 @@
         <v>0</v>
       </c>
       <c r="O37" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="P37" t="s">
-        <v>229</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>185</v>
+      </c>
+      <c r="D38" t="s">
+        <v>187</v>
+      </c>
+      <c r="E38">
+        <v>3837</v>
+      </c>
+      <c r="F38">
+        <v>43.47</v>
+      </c>
+      <c r="G38">
+        <v>1713</v>
+      </c>
+      <c r="H38">
+        <v>1519</v>
+      </c>
+      <c r="I38">
+        <v>2263</v>
+      </c>
+      <c r="J38">
+        <v>47.33</v>
+      </c>
+      <c r="K38">
+        <v>1574</v>
+      </c>
+      <c r="L38">
+        <v>37.93</v>
+      </c>
+      <c r="M38">
+        <v>145</v>
+      </c>
+      <c r="N38">
+        <v>455</v>
+      </c>
+      <c r="O38" t="s">
+        <v>222</v>
+      </c>
+      <c r="P38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>186</v>
+      </c>
+      <c r="D39" t="s">
+        <v>187</v>
+      </c>
+      <c r="E39">
+        <v>2475</v>
+      </c>
+      <c r="F39">
+        <v>43.32</v>
+      </c>
+      <c r="G39">
+        <v>971</v>
+      </c>
+      <c r="H39">
+        <v>812</v>
+      </c>
+      <c r="I39">
+        <v>1251</v>
+      </c>
+      <c r="J39">
+        <v>48.08</v>
+      </c>
+      <c r="K39">
+        <v>1224</v>
+      </c>
+      <c r="L39">
+        <v>38.46</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39" t="s">
+        <v>221</v>
+      </c>
+      <c r="P39" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/多人讨论-区分付费/58天区分付费统计结果.xlsx
+++ b/多人讨论-区分付费/58天区分付费统计结果.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="269">
   <si>
     <t>日期</t>
   </si>
@@ -202,6 +202,12 @@
     <t>2020-03-22</t>
   </si>
   <si>
+    <t>2020-03-23</t>
+  </si>
+  <si>
+    <t>2020-03-24</t>
+  </si>
+  <si>
     <t>【58天互动学习场】疫情对你的工作生活产生了哪些问题和挑战？</t>
   </si>
   <si>
@@ -346,6 +352,12 @@
     <t>【58天互动学习场】一切都是文娱业—文娱行业如何改变商业</t>
   </si>
   <si>
+    <t>【58天互动学习场】经济危机离我们普通人有多远？ 该如何应对？</t>
+  </si>
+  <si>
+    <t>【58天互动学习场】保持安全距离成为居民基本素养，我如何搭上非接触商业的顺风车？</t>
+  </si>
+  <si>
     <t>1分钟以内</t>
   </si>
   <si>
@@ -487,6 +499,30 @@
     <t>分享拉人围观转化率</t>
   </si>
   <si>
+    <t>2020-02-02</t>
+  </si>
+  <si>
+    <t>疫情对你的工作生活产生了哪些问题和挑战？</t>
+  </si>
+  <si>
+    <t>疫情期间，我该如何合理规划开工节奏？</t>
+  </si>
+  <si>
+    <t>实体受困，如何单点破局实现业务转型？</t>
+  </si>
+  <si>
+    <t>哪些有意义的事情，让你打破了对疫情的焦虑？</t>
+  </si>
+  <si>
+    <t>零售等实体生意越来越难做，该怎么经营下去？</t>
+  </si>
+  <si>
+    <t>单点破局 | 疫情之后，职场人该如何提升核心能力？</t>
+  </si>
+  <si>
+    <t>困难时期，作为管理者的我，最应该做哪几件事？</t>
+  </si>
+  <si>
     <t>自媒体时代，我们普通人如何打造个人超级IP?</t>
   </si>
   <si>
@@ -589,9 +625,6 @@
     <t>如何通过探索个人使命，获得直面疫情挑战的笃定力量？</t>
   </si>
   <si>
-    <t>危机当前，如何塑造制胜团队？</t>
-  </si>
-  <si>
     <t>行业头部涌现，如何找到适合自己的细分赛道？</t>
   </si>
   <si>
@@ -601,12 +634,39 @@
     <t>vuca时代，如何“活着”—聊聊化解财富管理风险</t>
   </si>
   <si>
-    <t>一切都是文娱业—文娱行业如何改变商业</t>
+    <t>经济危机离我们普通人有多远？ 该如何应对？</t>
+  </si>
+  <si>
+    <t>保持安全距离成为居民基本素养，我如何搭上非接触商业的顺风车？</t>
   </si>
   <si>
     <t>全国</t>
   </si>
   <si>
+    <t>12.12%</t>
+  </si>
+  <si>
+    <t>3.57%</t>
+  </si>
+  <si>
+    <t>3.61%</t>
+  </si>
+  <si>
+    <t>4.27%</t>
+  </si>
+  <si>
+    <t>4.28%</t>
+  </si>
+  <si>
+    <t>6.68%</t>
+  </si>
+  <si>
+    <t>4.85%</t>
+  </si>
+  <si>
+    <t>4.91%</t>
+  </si>
+  <si>
     <t>4.72%</t>
   </si>
   <si>
@@ -616,19 +676,19 @@
     <t>6.13%</t>
   </si>
   <si>
-    <t>6.08%</t>
-  </si>
-  <si>
-    <t>2.46%</t>
-  </si>
-  <si>
-    <t>3.57%</t>
-  </si>
-  <si>
-    <t>3.79%</t>
-  </si>
-  <si>
-    <t>4.56%</t>
+    <t>6.15%</t>
+  </si>
+  <si>
+    <t>2.54%</t>
+  </si>
+  <si>
+    <t>3.65%</t>
+  </si>
+  <si>
+    <t>3.81%</t>
+  </si>
+  <si>
+    <t>4.75%</t>
   </si>
   <si>
     <t>3.42%</t>
@@ -637,34 +697,34 @@
     <t>6.60%</t>
   </si>
   <si>
-    <t>3.91%</t>
+    <t>4.03%</t>
   </si>
   <si>
     <t>5.10%</t>
   </si>
   <si>
-    <t>2.81%</t>
+    <t>2.86%</t>
   </si>
   <si>
     <t>3.84%</t>
   </si>
   <si>
-    <t>1.80%</t>
-  </si>
-  <si>
-    <t>5.19%</t>
-  </si>
-  <si>
-    <t>6.41%</t>
+    <t>1.83%</t>
+  </si>
+  <si>
+    <t>5.24%</t>
+  </si>
+  <si>
+    <t>6.56%</t>
   </si>
   <si>
     <t>3.54%</t>
   </si>
   <si>
-    <t>3.95%</t>
-  </si>
-  <si>
-    <t>4.07%</t>
+    <t>4.14%</t>
+  </si>
+  <si>
+    <t>4.19%</t>
   </si>
   <si>
     <t>5.53%</t>
@@ -673,6 +733,9 @@
     <t>2.18%</t>
   </si>
   <si>
+    <t>4.58%</t>
+  </si>
+  <si>
     <t>3.32%</t>
   </si>
   <si>
@@ -685,22 +748,19 @@
     <t>4.97%</t>
   </si>
   <si>
-    <t>3.31%</t>
+    <t>3.34%</t>
   </si>
   <si>
     <t>1.56%</t>
   </si>
   <si>
-    <t>2.01%</t>
-  </si>
-  <si>
-    <t>4.10%</t>
-  </si>
-  <si>
-    <t>4.75%</t>
-  </si>
-  <si>
-    <t>3.86%</t>
+    <t>2.00%</t>
+  </si>
+  <si>
+    <t>4.16%</t>
+  </si>
+  <si>
+    <t>3.87%</t>
   </si>
   <si>
     <t>0.11%</t>
@@ -709,46 +769,55 @@
     <t>0.00%</t>
   </si>
   <si>
-    <t>3.78%</t>
+    <t>3.98%</t>
+  </si>
+  <si>
+    <t>2.31%</t>
+  </si>
+  <si>
+    <t>1.94%</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.08</t>
   </si>
   <si>
     <t>0.07</t>
   </si>
   <si>
+    <t>0.04</t>
+  </si>
+  <si>
     <t>0.18</t>
   </si>
   <si>
     <t>0.02</t>
   </si>
   <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
     <t>0.17</t>
   </si>
   <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
     <t>0.01</t>
   </si>
   <si>
     <t>0.13</t>
   </si>
   <si>
+    <t>0.11</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
     <t>0.10</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.11</t>
   </si>
   <si>
     <t>0.12</t>
@@ -1112,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1164,7 +1233,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>3307</v>
@@ -1205,7 +1274,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>4295</v>
@@ -1246,7 +1315,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4">
         <v>5620</v>
@@ -1287,7 +1356,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C5">
         <v>3504</v>
@@ -1328,7 +1397,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>3895</v>
@@ -1369,7 +1438,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7">
         <v>3749</v>
@@ -1410,7 +1479,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C8">
         <v>5763</v>
@@ -1451,7 +1520,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C9">
         <v>5804</v>
@@ -1492,7 +1561,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C10">
         <v>5338</v>
@@ -1533,7 +1602,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C11">
         <v>5840</v>
@@ -1574,7 +1643,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C12">
         <v>5770</v>
@@ -1615,7 +1684,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C13">
         <v>4098</v>
@@ -1656,7 +1725,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C14">
         <v>5349</v>
@@ -1697,7 +1766,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>5304</v>
@@ -1738,7 +1807,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C16">
         <v>3790</v>
@@ -1779,7 +1848,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C17">
         <v>3982</v>
@@ -1820,7 +1889,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C18">
         <v>7497</v>
@@ -1861,7 +1930,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C19">
         <v>5502</v>
@@ -1902,7 +1971,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C20">
         <v>3335</v>
@@ -1943,7 +2012,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C21">
         <v>3950</v>
@@ -1984,7 +2053,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C22">
         <v>2685</v>
@@ -2025,7 +2094,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C23">
         <v>3391</v>
@@ -2066,7 +2135,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C24">
         <v>3534</v>
@@ -2107,7 +2176,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C25">
         <v>5263</v>
@@ -2148,7 +2217,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C26">
         <v>5420</v>
@@ -2189,7 +2258,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C27">
         <v>3472</v>
@@ -2230,7 +2299,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C28">
         <v>3624</v>
@@ -2271,7 +2340,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C29">
         <v>3981</v>
@@ -2312,7 +2381,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C30">
         <v>3994</v>
@@ -2353,7 +2422,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31">
         <v>2247</v>
@@ -2394,7 +2463,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C32">
         <v>4973</v>
@@ -2435,7 +2504,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C33">
         <v>3342</v>
@@ -2476,7 +2545,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C34">
         <v>2608</v>
@@ -2517,7 +2586,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C35">
         <v>4369</v>
@@ -2558,7 +2627,7 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C36">
         <v>2174</v>
@@ -2599,7 +2668,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C37">
         <v>2751</v>
@@ -2640,7 +2709,7 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C38">
         <v>2828</v>
@@ -2681,7 +2750,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C39">
         <v>4129</v>
@@ -2722,7 +2791,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C40">
         <v>3514</v>
@@ -2763,7 +2832,7 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C41">
         <v>3514</v>
@@ -2790,13 +2859,13 @@
         <v>41.96</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2804,7 +2873,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C42">
         <v>3514</v>
@@ -2831,13 +2900,13 @@
         <v>41.96</v>
       </c>
       <c r="K42">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="L42">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2845,7 +2914,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C43">
         <v>3514</v>
@@ -2886,7 +2955,7 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C44">
         <v>5394</v>
@@ -2927,7 +2996,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C45">
         <v>1859</v>
@@ -2968,7 +3037,7 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C46">
         <v>2446</v>
@@ -3009,7 +3078,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C47">
         <v>2642</v>
@@ -3050,7 +3119,7 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C48">
         <v>3847</v>
@@ -3091,7 +3160,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C49">
         <v>2492</v>
@@ -3132,7 +3201,7 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C50">
         <v>2215</v>
@@ -3173,7 +3242,7 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C51">
         <v>2508</v>
@@ -3214,7 +3283,7 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C52">
         <v>1440</v>
@@ -3247,6 +3316,88 @@
         <v>0</v>
       </c>
       <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53">
+        <v>1948</v>
+      </c>
+      <c r="D53">
+        <v>1140</v>
+      </c>
+      <c r="E53">
+        <v>513</v>
+      </c>
+      <c r="F53">
+        <v>295</v>
+      </c>
+      <c r="G53">
+        <v>47.14</v>
+      </c>
+      <c r="H53">
+        <v>46.73</v>
+      </c>
+      <c r="I53">
+        <v>46.15</v>
+      </c>
+      <c r="J53">
+        <v>50.41</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>1239</v>
+      </c>
+      <c r="D54">
+        <v>659</v>
+      </c>
+      <c r="E54">
+        <v>334</v>
+      </c>
+      <c r="F54">
+        <v>246</v>
+      </c>
+      <c r="G54">
+        <v>38.37</v>
+      </c>
+      <c r="H54">
+        <v>38.35</v>
+      </c>
+      <c r="I54">
+        <v>39.86</v>
+      </c>
+      <c r="J54">
+        <v>36.39</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
         <v>0</v>
       </c>
     </row>
@@ -3257,7 +3408,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AD54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3271,88 +3422,88 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -7892,6 +8043,184 @@
       </c>
       <c r="AD52">
         <v>0.1541019955654102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
+      <c r="A53" t="s">
+        <v>61</v>
+      </c>
+      <c r="B53">
+        <v>1948</v>
+      </c>
+      <c r="C53">
+        <v>640</v>
+      </c>
+      <c r="D53">
+        <v>400</v>
+      </c>
+      <c r="E53">
+        <v>171</v>
+      </c>
+      <c r="F53">
+        <v>203</v>
+      </c>
+      <c r="G53">
+        <v>97</v>
+      </c>
+      <c r="H53">
+        <v>162</v>
+      </c>
+      <c r="I53">
+        <v>95</v>
+      </c>
+      <c r="J53">
+        <v>180</v>
+      </c>
+      <c r="K53">
+        <v>1040</v>
+      </c>
+      <c r="L53">
+        <v>437</v>
+      </c>
+      <c r="M53">
+        <v>275</v>
+      </c>
+      <c r="N53">
+        <v>0.5338809034907598</v>
+      </c>
+      <c r="O53">
+        <v>0.6216632443531828</v>
+      </c>
+      <c r="P53">
+        <v>0.2243326488706366</v>
+      </c>
+      <c r="R53" t="s">
+        <v>61</v>
+      </c>
+      <c r="S53">
+        <v>1140</v>
+      </c>
+      <c r="T53">
+        <v>366</v>
+      </c>
+      <c r="U53">
+        <v>215</v>
+      </c>
+      <c r="V53">
+        <v>110</v>
+      </c>
+      <c r="W53">
+        <v>132</v>
+      </c>
+      <c r="X53">
+        <v>59</v>
+      </c>
+      <c r="Y53">
+        <v>95</v>
+      </c>
+      <c r="Z53">
+        <v>58</v>
+      </c>
+      <c r="AA53">
+        <v>105</v>
+      </c>
+      <c r="AB53">
+        <v>0.5096491228070176</v>
+      </c>
+      <c r="AC53">
+        <v>0.606140350877193</v>
+      </c>
+      <c r="AD53">
+        <v>0.2263157894736842</v>
+      </c>
+    </row>
+    <row r="54" spans="1:30">
+      <c r="A54" t="s">
+        <v>62</v>
+      </c>
+      <c r="B54">
+        <v>1239</v>
+      </c>
+      <c r="C54">
+        <v>419</v>
+      </c>
+      <c r="D54">
+        <v>248</v>
+      </c>
+      <c r="E54">
+        <v>89</v>
+      </c>
+      <c r="F54">
+        <v>96</v>
+      </c>
+      <c r="G54">
+        <v>60</v>
+      </c>
+      <c r="H54">
+        <v>118</v>
+      </c>
+      <c r="I54">
+        <v>95</v>
+      </c>
+      <c r="J54">
+        <v>114</v>
+      </c>
+      <c r="K54">
+        <v>667</v>
+      </c>
+      <c r="L54">
+        <v>327</v>
+      </c>
+      <c r="M54">
+        <v>209</v>
+      </c>
+      <c r="N54">
+        <v>0.5383373688458434</v>
+      </c>
+      <c r="O54">
+        <v>0.6101694915254238</v>
+      </c>
+      <c r="P54">
+        <v>0.2639225181598063</v>
+      </c>
+      <c r="R54" t="s">
+        <v>62</v>
+      </c>
+      <c r="S54">
+        <v>659</v>
+      </c>
+      <c r="T54">
+        <v>226</v>
+      </c>
+      <c r="U54">
+        <v>128</v>
+      </c>
+      <c r="V54">
+        <v>52</v>
+      </c>
+      <c r="W54">
+        <v>52</v>
+      </c>
+      <c r="X54">
+        <v>40</v>
+      </c>
+      <c r="Y54">
+        <v>65</v>
+      </c>
+      <c r="Z54">
+        <v>46</v>
+      </c>
+      <c r="AA54">
+        <v>50</v>
+      </c>
+      <c r="AB54">
+        <v>0.5371775417298937</v>
+      </c>
+      <c r="AC54">
+        <v>0.6160849772382397</v>
+      </c>
+      <c r="AD54">
+        <v>0.244309559939302</v>
       </c>
     </row>
   </sheetData>
@@ -7926,62 +8255,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B3">
-        <v>6648</v>
+        <v>5138</v>
       </c>
       <c r="C3">
-        <v>1223</v>
+        <v>879</v>
       </c>
       <c r="D3">
-        <v>487</v>
+        <v>315</v>
       </c>
       <c r="E3">
-        <v>308</v>
+        <v>226</v>
       </c>
       <c r="F3">
-        <v>143</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B4">
-        <v>0.7546827108638892</v>
+        <v>0.7692768378499776</v>
       </c>
       <c r="C4">
-        <v>0.1388352820978545</v>
+        <v>0.1316065279233418</v>
       </c>
       <c r="D4">
-        <v>0.05528436825973436</v>
+        <v>0.04716274891450816</v>
       </c>
       <c r="E4">
-        <v>0.03496424111703939</v>
+        <v>0.03383740080850427</v>
       </c>
       <c r="F4">
-        <v>0.01623339766148257</v>
+        <v>0.01811648450366821</v>
       </c>
     </row>
   </sheetData>
@@ -7991,7 +8320,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P41"/>
+  <dimension ref="A1:P49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8005,43 +8334,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -8049,49 +8378,49 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="C2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E2">
-        <v>5808</v>
+        <v>33</v>
       </c>
       <c r="F2">
-        <v>28.14</v>
+        <v>14.16</v>
       </c>
       <c r="G2">
-        <v>2303</v>
+        <v>23</v>
       </c>
       <c r="H2">
-        <v>1763</v>
+        <v>14</v>
       </c>
       <c r="I2">
-        <v>2996</v>
+        <v>28</v>
       </c>
       <c r="J2">
-        <v>31.49</v>
+        <v>15.88</v>
       </c>
       <c r="K2">
-        <v>2813</v>
+        <v>5</v>
       </c>
       <c r="L2">
-        <v>24.57</v>
+        <v>4.49</v>
       </c>
       <c r="M2">
-        <v>274</v>
+        <v>4</v>
       </c>
       <c r="N2">
-        <v>434</v>
+        <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="P2" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -8099,49 +8428,49 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E3">
+        <v>3307</v>
+      </c>
+      <c r="F3">
+        <v>17.3</v>
+      </c>
+      <c r="G3">
+        <v>1564</v>
+      </c>
+      <c r="H3">
+        <v>1218</v>
+      </c>
+      <c r="I3">
+        <v>2018</v>
+      </c>
+      <c r="J3">
+        <v>18.42</v>
+      </c>
+      <c r="K3">
+        <v>1289</v>
+      </c>
+      <c r="L3">
+        <v>15.54</v>
+      </c>
+      <c r="M3">
+        <v>118</v>
+      </c>
+      <c r="N3">
         <v>195</v>
       </c>
-      <c r="E3">
-        <v>5342</v>
-      </c>
-      <c r="F3">
-        <v>31.1</v>
-      </c>
-      <c r="G3">
-        <v>2403</v>
-      </c>
-      <c r="H3">
-        <v>1868</v>
-      </c>
-      <c r="I3">
-        <v>3123</v>
-      </c>
-      <c r="J3">
-        <v>34.48</v>
-      </c>
-      <c r="K3">
-        <v>2222</v>
-      </c>
-      <c r="L3">
-        <v>26.31</v>
-      </c>
-      <c r="M3">
-        <v>422</v>
-      </c>
-      <c r="N3">
-        <v>362</v>
-      </c>
       <c r="O3" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="P3" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -8149,49 +8478,49 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E4">
-        <v>5840</v>
+        <v>4295</v>
       </c>
       <c r="F4">
-        <v>30.41</v>
+        <v>14.15</v>
       </c>
       <c r="G4">
-        <v>2838</v>
+        <v>1794</v>
       </c>
       <c r="H4">
-        <v>2363</v>
+        <v>1307</v>
       </c>
       <c r="I4">
-        <v>3685</v>
+        <v>2335</v>
       </c>
       <c r="J4">
-        <v>33.15</v>
+        <v>16.07</v>
       </c>
       <c r="K4">
-        <v>2158</v>
+        <v>1960</v>
       </c>
       <c r="L4">
-        <v>25.69</v>
+        <v>11.86</v>
       </c>
       <c r="M4">
-        <v>358</v>
+        <v>155</v>
       </c>
       <c r="N4">
-        <v>1066</v>
+        <v>246</v>
       </c>
       <c r="O4" t="s">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="P4" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -8199,49 +8528,49 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E5">
-        <v>5771</v>
+        <v>5625</v>
       </c>
       <c r="F5">
-        <v>29.71</v>
+        <v>21.76</v>
       </c>
       <c r="G5">
-        <v>2393</v>
+        <v>2500</v>
       </c>
       <c r="H5">
-        <v>1867</v>
+        <v>2260</v>
       </c>
       <c r="I5">
-        <v>3104</v>
+        <v>3501</v>
       </c>
       <c r="J5">
-        <v>31.69</v>
+        <v>24.1</v>
       </c>
       <c r="K5">
-        <v>2669</v>
+        <v>2126</v>
       </c>
       <c r="L5">
-        <v>27.39</v>
+        <v>17.88</v>
       </c>
       <c r="M5">
-        <v>351</v>
+        <v>240</v>
       </c>
       <c r="N5">
-        <v>402</v>
+        <v>265</v>
       </c>
       <c r="O5" t="s">
-        <v>199</v>
+        <v>211</v>
       </c>
       <c r="P5" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8249,49 +8578,49 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E6">
-        <v>4098</v>
+        <v>3550</v>
       </c>
       <c r="F6">
-        <v>25.03</v>
+        <v>23.3</v>
       </c>
       <c r="G6">
-        <v>1841</v>
+        <v>1650</v>
       </c>
       <c r="H6">
-        <v>1442</v>
+        <v>1311</v>
       </c>
       <c r="I6">
-        <v>2336</v>
+        <v>2153</v>
       </c>
       <c r="J6">
-        <v>28.02</v>
+        <v>26.63</v>
       </c>
       <c r="K6">
-        <v>1763</v>
+        <v>1397</v>
       </c>
       <c r="L6">
-        <v>21.05</v>
+        <v>18.16</v>
       </c>
       <c r="M6">
-        <v>101</v>
+        <v>152</v>
       </c>
       <c r="N6">
-        <v>90</v>
+        <v>192</v>
       </c>
       <c r="O6" t="s">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="P6" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -8299,49 +8628,49 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E7">
-        <v>5349</v>
+        <v>3895</v>
       </c>
       <c r="F7">
-        <v>32.59</v>
+        <v>27.02</v>
       </c>
       <c r="G7">
-        <v>2463</v>
+        <v>1777</v>
       </c>
       <c r="H7">
-        <v>2019</v>
+        <v>1409</v>
       </c>
       <c r="I7">
-        <v>3158</v>
+        <v>2338</v>
       </c>
       <c r="J7">
-        <v>35.73</v>
+        <v>29.71</v>
       </c>
       <c r="K7">
-        <v>2191</v>
+        <v>1558</v>
       </c>
       <c r="L7">
-        <v>28.06</v>
+        <v>22.97</v>
       </c>
       <c r="M7">
-        <v>191</v>
+        <v>260</v>
       </c>
       <c r="N7">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="O7" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="P7" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -8349,49 +8678,49 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E8">
-        <v>5304</v>
+        <v>3749</v>
       </c>
       <c r="F8">
-        <v>33.4</v>
+        <v>31.29</v>
       </c>
       <c r="G8">
-        <v>2324</v>
+        <v>1749</v>
       </c>
       <c r="H8">
-        <v>1812</v>
+        <v>1422</v>
       </c>
       <c r="I8">
-        <v>2979</v>
+        <v>2282</v>
       </c>
       <c r="J8">
-        <v>35.92</v>
+        <v>33.5</v>
       </c>
       <c r="K8">
-        <v>2327</v>
+        <v>1468</v>
       </c>
       <c r="L8">
-        <v>30.15</v>
+        <v>27.84</v>
       </c>
       <c r="M8">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="N8">
-        <v>364</v>
+        <v>266</v>
       </c>
       <c r="O8" t="s">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="P8" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -8399,49 +8728,49 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E9">
-        <v>3790</v>
+        <v>5763</v>
       </c>
       <c r="F9">
-        <v>35.56</v>
+        <v>27.47</v>
       </c>
       <c r="G9">
-        <v>1740</v>
+        <v>2437</v>
       </c>
       <c r="H9">
-        <v>1336</v>
+        <v>1813</v>
       </c>
       <c r="I9">
-        <v>2201</v>
+        <v>3139</v>
       </c>
       <c r="J9">
-        <v>35.2</v>
+        <v>30.53</v>
       </c>
       <c r="K9">
-        <v>1592</v>
+        <v>2626</v>
       </c>
       <c r="L9">
-        <v>35.98</v>
+        <v>23.79</v>
       </c>
       <c r="M9">
-        <v>173</v>
+        <v>283</v>
       </c>
       <c r="N9">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="O9" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="P9" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -8449,49 +8778,49 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E10">
-        <v>3982</v>
+        <v>5808</v>
       </c>
       <c r="F10">
-        <v>26.78</v>
+        <v>28.14</v>
       </c>
       <c r="G10">
-        <v>1769</v>
+        <v>2320</v>
       </c>
       <c r="H10">
-        <v>1391</v>
+        <v>1773</v>
       </c>
       <c r="I10">
-        <v>2258</v>
+        <v>3008</v>
       </c>
       <c r="J10">
-        <v>28.31</v>
+        <v>31.45</v>
       </c>
       <c r="K10">
-        <v>1724</v>
+        <v>2801</v>
       </c>
       <c r="L10">
-        <v>24.78</v>
+        <v>24.57</v>
       </c>
       <c r="M10">
-        <v>136</v>
+        <v>274</v>
       </c>
       <c r="N10">
-        <v>164</v>
+        <v>441</v>
       </c>
       <c r="O10" t="s">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="P10" t="s">
-        <v>235</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -8499,49 +8828,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E11">
-        <v>7497</v>
+        <v>5342</v>
       </c>
       <c r="F11">
-        <v>48.2</v>
+        <v>31.1</v>
       </c>
       <c r="G11">
-        <v>3491</v>
+        <v>2420</v>
       </c>
       <c r="H11">
-        <v>3031</v>
+        <v>1880</v>
       </c>
       <c r="I11">
-        <v>4664</v>
+        <v>3137</v>
       </c>
       <c r="J11">
-        <v>51.7</v>
+        <v>34.51</v>
       </c>
       <c r="K11">
-        <v>2834</v>
+        <v>2207</v>
       </c>
       <c r="L11">
-        <v>42.43</v>
+        <v>26.23</v>
       </c>
       <c r="M11">
-        <v>495</v>
+        <v>422</v>
       </c>
       <c r="N11">
-        <v>1240</v>
+        <v>367</v>
       </c>
       <c r="O11" t="s">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="P11" t="s">
-        <v>236</v>
+        <v>257</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -8549,49 +8878,49 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E12">
-        <v>5502</v>
+        <v>5840</v>
       </c>
       <c r="F12">
-        <v>36.79</v>
+        <v>30.41</v>
       </c>
       <c r="G12">
-        <v>2319</v>
+        <v>2862</v>
       </c>
       <c r="H12">
-        <v>1782</v>
+        <v>2381</v>
       </c>
       <c r="I12">
-        <v>3016</v>
+        <v>3697</v>
       </c>
       <c r="J12">
-        <v>40.33</v>
+        <v>33.15</v>
       </c>
       <c r="K12">
-        <v>2487</v>
+        <v>2146</v>
       </c>
       <c r="L12">
-        <v>32.48</v>
+        <v>25.65</v>
       </c>
       <c r="M12">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="N12">
-        <v>323</v>
+        <v>1069</v>
       </c>
       <c r="O12" t="s">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="P12" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -8599,49 +8928,49 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E13">
-        <v>3335</v>
+        <v>5721</v>
       </c>
       <c r="F13">
-        <v>35.85</v>
+        <v>28.54</v>
       </c>
       <c r="G13">
-        <v>1429</v>
+        <v>2391</v>
       </c>
       <c r="H13">
-        <v>1151</v>
+        <v>1869</v>
       </c>
       <c r="I13">
-        <v>1838</v>
+        <v>3092</v>
       </c>
       <c r="J13">
-        <v>38.16</v>
+        <v>30.85</v>
       </c>
       <c r="K13">
-        <v>1497</v>
+        <v>2630</v>
       </c>
       <c r="L13">
-        <v>33.02</v>
+        <v>25.82</v>
       </c>
       <c r="M13">
-        <v>170</v>
+        <v>352</v>
       </c>
       <c r="N13">
-        <v>260</v>
+        <v>419</v>
       </c>
       <c r="O13" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="P13" t="s">
-        <v>238</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -8649,49 +8978,49 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E14">
-        <v>3950</v>
+        <v>4098</v>
       </c>
       <c r="F14">
-        <v>35.82</v>
+        <v>25.03</v>
       </c>
       <c r="G14">
-        <v>1716</v>
+        <v>1849</v>
       </c>
       <c r="H14">
-        <v>1468</v>
+        <v>1454</v>
       </c>
       <c r="I14">
-        <v>2271</v>
+        <v>2343</v>
       </c>
       <c r="J14">
-        <v>38.35</v>
+        <v>28.05</v>
       </c>
       <c r="K14">
-        <v>1681</v>
+        <v>1756</v>
       </c>
       <c r="L14">
-        <v>32.36</v>
+        <v>20.98</v>
       </c>
       <c r="M14">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="N14">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="O14" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="P14" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -8699,49 +9028,49 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E15">
+        <v>5349</v>
+      </c>
+      <c r="F15">
+        <v>32.59</v>
+      </c>
+      <c r="G15">
+        <v>2486</v>
+      </c>
+      <c r="H15">
+        <v>2035</v>
+      </c>
+      <c r="I15">
+        <v>3168</v>
+      </c>
+      <c r="J15">
+        <v>35.69</v>
+      </c>
+      <c r="K15">
+        <v>2181</v>
+      </c>
+      <c r="L15">
+        <v>28.08</v>
+      </c>
+      <c r="M15">
         <v>195</v>
       </c>
-      <c r="E15">
-        <v>2685</v>
-      </c>
-      <c r="F15">
-        <v>36.36</v>
-      </c>
-      <c r="G15">
-        <v>1212</v>
-      </c>
-      <c r="H15">
-        <v>946</v>
-      </c>
-      <c r="I15">
-        <v>1567</v>
-      </c>
-      <c r="J15">
-        <v>38.71</v>
-      </c>
-      <c r="K15">
-        <v>1118</v>
-      </c>
-      <c r="L15">
-        <v>33.08</v>
-      </c>
-      <c r="M15">
-        <v>103</v>
-      </c>
       <c r="N15">
-        <v>162</v>
+        <v>360</v>
       </c>
       <c r="O15" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="P15" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -8749,49 +9078,49 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E16">
-        <v>3391</v>
+        <v>5304</v>
       </c>
       <c r="F16">
-        <v>27.89</v>
+        <v>33.4</v>
       </c>
       <c r="G16">
-        <v>1475</v>
+        <v>2340</v>
       </c>
       <c r="H16">
-        <v>1188</v>
+        <v>1832</v>
       </c>
       <c r="I16">
-        <v>1883</v>
+        <v>2991</v>
       </c>
       <c r="J16">
-        <v>30.17</v>
+        <v>35.93</v>
       </c>
       <c r="K16">
-        <v>1508</v>
+        <v>2315</v>
       </c>
       <c r="L16">
-        <v>25.04</v>
+        <v>30.11</v>
       </c>
       <c r="M16">
-        <v>61</v>
+        <v>202</v>
       </c>
       <c r="N16">
-        <v>42</v>
+        <v>369</v>
       </c>
       <c r="O16" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="P16" t="s">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -8799,49 +9128,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E17">
-        <v>5265</v>
+        <v>3790</v>
       </c>
       <c r="F17">
-        <v>42.95</v>
+        <v>35.56</v>
       </c>
       <c r="G17">
-        <v>2402</v>
+        <v>1758</v>
       </c>
       <c r="H17">
-        <v>2108</v>
+        <v>1349</v>
       </c>
       <c r="I17">
-        <v>3198</v>
+        <v>2214</v>
       </c>
       <c r="J17">
-        <v>47.68</v>
+        <v>35.24</v>
       </c>
       <c r="K17">
-        <v>2067</v>
+        <v>1579</v>
       </c>
       <c r="L17">
-        <v>35.63</v>
+        <v>35.94</v>
       </c>
       <c r="M17">
-        <v>273</v>
+        <v>180</v>
       </c>
       <c r="N17">
-        <v>669</v>
+        <v>205</v>
       </c>
       <c r="O17" t="s">
-        <v>211</v>
+        <v>223</v>
       </c>
       <c r="P17" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -8849,49 +9178,49 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E18">
-        <v>5461</v>
+        <v>3982</v>
       </c>
       <c r="F18">
-        <v>41.04</v>
+        <v>26.78</v>
       </c>
       <c r="G18">
-        <v>1975</v>
+        <v>1794</v>
       </c>
       <c r="H18">
-        <v>1519</v>
+        <v>1409</v>
       </c>
       <c r="I18">
-        <v>2610</v>
+        <v>2274</v>
       </c>
       <c r="J18">
-        <v>41.59</v>
+        <v>28.23</v>
       </c>
       <c r="K18">
-        <v>2851</v>
+        <v>1708</v>
       </c>
       <c r="L18">
-        <v>40.54</v>
+        <v>24.85</v>
       </c>
       <c r="M18">
-        <v>350</v>
+        <v>136</v>
       </c>
       <c r="N18">
-        <v>569</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="P18" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -8899,49 +9228,49 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E19">
-        <v>3472</v>
+        <v>7497</v>
       </c>
       <c r="F19">
-        <v>35.97</v>
+        <v>48.2</v>
       </c>
       <c r="G19">
-        <v>1402</v>
+        <v>3540</v>
       </c>
       <c r="H19">
-        <v>1065</v>
+        <v>3070</v>
       </c>
       <c r="I19">
-        <v>1773</v>
+        <v>4689</v>
       </c>
       <c r="J19">
-        <v>39.48</v>
+        <v>51.65</v>
       </c>
       <c r="K19">
-        <v>1699</v>
+        <v>2809</v>
       </c>
       <c r="L19">
-        <v>32.31</v>
+        <v>42.43</v>
       </c>
       <c r="M19">
-        <v>123</v>
+        <v>495</v>
       </c>
       <c r="N19">
-        <v>75</v>
+        <v>1250</v>
       </c>
       <c r="O19" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="P19" t="s">
-        <v>233</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -8949,49 +9278,49 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E20">
-        <v>3624</v>
+        <v>5502</v>
       </c>
       <c r="F20">
-        <v>36.23</v>
+        <v>36.79</v>
       </c>
       <c r="G20">
-        <v>1448</v>
+        <v>2345</v>
       </c>
       <c r="H20">
-        <v>1126</v>
+        <v>1799</v>
       </c>
       <c r="I20">
-        <v>1882</v>
+        <v>3026</v>
       </c>
       <c r="J20">
-        <v>39.38</v>
+        <v>40.3</v>
       </c>
       <c r="K20">
-        <v>1743</v>
+        <v>2477</v>
       </c>
       <c r="L20">
-        <v>32.81</v>
+        <v>32.49</v>
       </c>
       <c r="M20">
-        <v>143</v>
+        <v>222</v>
       </c>
       <c r="N20">
-        <v>96</v>
+        <v>337</v>
       </c>
       <c r="O20" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="P20" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -8999,49 +9328,49 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E21">
-        <v>3981</v>
+        <v>3335</v>
       </c>
       <c r="F21">
-        <v>44.67</v>
+        <v>35.85</v>
       </c>
       <c r="G21">
-        <v>1587</v>
+        <v>1453</v>
       </c>
       <c r="H21">
-        <v>1249</v>
+        <v>1170</v>
       </c>
       <c r="I21">
-        <v>2090</v>
+        <v>1858</v>
       </c>
       <c r="J21">
-        <v>47.58</v>
+        <v>38.24</v>
       </c>
       <c r="K21">
-        <v>1892</v>
+        <v>1478</v>
       </c>
       <c r="L21">
-        <v>41.44</v>
+        <v>32.83</v>
       </c>
       <c r="M21">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="N21">
-        <v>113</v>
+        <v>260</v>
       </c>
       <c r="O21" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="P21" t="s">
-        <v>242</v>
+        <v>256</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -9049,49 +9378,49 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E22">
-        <v>3994</v>
+        <v>3950</v>
       </c>
       <c r="F22">
-        <v>40.66</v>
+        <v>35.82</v>
       </c>
       <c r="G22">
-        <v>1567</v>
+        <v>1740</v>
       </c>
       <c r="H22">
-        <v>1220</v>
+        <v>1492</v>
       </c>
       <c r="I22">
-        <v>2030</v>
+        <v>2290</v>
       </c>
       <c r="J22">
-        <v>42.71</v>
+        <v>38.53</v>
       </c>
       <c r="K22">
-        <v>1964</v>
+        <v>1662</v>
       </c>
       <c r="L22">
-        <v>38.55</v>
+        <v>32.04</v>
       </c>
       <c r="M22">
-        <v>221</v>
+        <v>113</v>
       </c>
       <c r="N22">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="O22" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="P22" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -9099,49 +9428,49 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E23">
-        <v>2247</v>
+        <v>2685</v>
       </c>
       <c r="F23">
-        <v>32.13</v>
+        <v>36.36</v>
       </c>
       <c r="G23">
-        <v>944</v>
+        <v>1241</v>
       </c>
       <c r="H23">
-        <v>753</v>
+        <v>964</v>
       </c>
       <c r="I23">
-        <v>1215</v>
+        <v>1590</v>
       </c>
       <c r="J23">
-        <v>35.09</v>
+        <v>38.68</v>
       </c>
       <c r="K23">
-        <v>1032</v>
+        <v>1095</v>
       </c>
       <c r="L23">
-        <v>28.65</v>
+        <v>33</v>
       </c>
       <c r="M23">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="N23">
-        <v>26</v>
+        <v>162</v>
       </c>
       <c r="O23" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="P23" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -9149,49 +9478,49 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E24">
-        <v>4973</v>
+        <v>3391</v>
       </c>
       <c r="F24">
-        <v>43.63</v>
+        <v>27.89</v>
       </c>
       <c r="G24">
-        <v>2352</v>
+        <v>1503</v>
       </c>
       <c r="H24">
-        <v>2053</v>
+        <v>1216</v>
       </c>
       <c r="I24">
-        <v>3109</v>
+        <v>1909</v>
       </c>
       <c r="J24">
-        <v>47.18</v>
+        <v>30.04</v>
       </c>
       <c r="K24">
-        <v>1864</v>
+        <v>1482</v>
       </c>
       <c r="L24">
-        <v>37.69</v>
+        <v>25.12</v>
       </c>
       <c r="M24">
-        <v>227</v>
+        <v>62</v>
       </c>
       <c r="N24">
-        <v>548</v>
+        <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="P24" t="s">
-        <v>243</v>
+        <v>262</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -9199,49 +9528,49 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E25">
-        <v>3342</v>
+        <v>5265</v>
       </c>
       <c r="F25">
-        <v>30.61</v>
+        <v>42.95</v>
       </c>
       <c r="G25">
-        <v>1303</v>
+        <v>2443</v>
       </c>
       <c r="H25">
-        <v>1013</v>
+        <v>2158</v>
       </c>
       <c r="I25">
-        <v>1696</v>
+        <v>3240</v>
       </c>
       <c r="J25">
-        <v>31.69</v>
+        <v>47.69</v>
       </c>
       <c r="K25">
-        <v>1646</v>
+        <v>2025</v>
       </c>
       <c r="L25">
-        <v>29.5</v>
+        <v>35.36</v>
       </c>
       <c r="M25">
-        <v>111</v>
+        <v>276</v>
       </c>
       <c r="N25">
-        <v>105</v>
+        <v>674</v>
       </c>
       <c r="O25" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="P25" t="s">
-        <v>242</v>
+        <v>263</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -9249,49 +9578,49 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E26">
-        <v>2608</v>
+        <v>5461</v>
       </c>
       <c r="F26">
-        <v>35.21</v>
+        <v>41.04</v>
       </c>
       <c r="G26">
-        <v>1098</v>
+        <v>2001</v>
       </c>
       <c r="H26">
-        <v>898</v>
+        <v>1553</v>
       </c>
       <c r="I26">
-        <v>1414</v>
+        <v>2642</v>
       </c>
       <c r="J26">
-        <v>37.29</v>
+        <v>41.66</v>
       </c>
       <c r="K26">
-        <v>1194</v>
+        <v>2819</v>
       </c>
       <c r="L26">
-        <v>32.74</v>
+        <v>40.46</v>
       </c>
       <c r="M26">
-        <v>42</v>
+        <v>358</v>
       </c>
       <c r="N26">
-        <v>52</v>
+        <v>574</v>
       </c>
       <c r="O26" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="P26" t="s">
-        <v>233</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -9299,49 +9628,49 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E27">
-        <v>4369</v>
+        <v>3472</v>
       </c>
       <c r="F27">
-        <v>41.84</v>
+        <v>35.97</v>
       </c>
       <c r="G27">
-        <v>2545</v>
+        <v>1423</v>
       </c>
       <c r="H27">
-        <v>1780</v>
+        <v>1091</v>
       </c>
       <c r="I27">
-        <v>3082</v>
+        <v>1793</v>
       </c>
       <c r="J27">
-        <v>43.87</v>
+        <v>39.65</v>
       </c>
       <c r="K27">
-        <v>1287</v>
+        <v>1679</v>
       </c>
       <c r="L27">
-        <v>36.97</v>
+        <v>32.04</v>
       </c>
       <c r="M27">
-        <v>194</v>
+        <v>123</v>
       </c>
       <c r="N27">
-        <v>446</v>
+        <v>76</v>
       </c>
       <c r="O27" t="s">
-        <v>220</v>
+        <v>233</v>
       </c>
       <c r="P27" t="s">
-        <v>241</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -9349,49 +9678,49 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E28">
-        <v>2172</v>
+        <v>3624</v>
       </c>
       <c r="F28">
-        <v>43.49</v>
+        <v>36.23</v>
       </c>
       <c r="G28">
-        <v>897</v>
+        <v>1462</v>
       </c>
       <c r="H28">
-        <v>675</v>
+        <v>1142</v>
       </c>
       <c r="I28">
-        <v>1153</v>
+        <v>1896</v>
       </c>
       <c r="J28">
-        <v>46.82</v>
+        <v>39.44</v>
       </c>
       <c r="K28">
-        <v>1019</v>
+        <v>1729</v>
       </c>
       <c r="L28">
-        <v>39.73</v>
+        <v>32.68</v>
       </c>
       <c r="M28">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="N28">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="O28" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="P28" t="s">
-        <v>234</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -9399,49 +9728,49 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E29">
-        <v>2750</v>
+        <v>3981</v>
       </c>
       <c r="F29">
-        <v>37.37</v>
+        <v>44.67</v>
       </c>
       <c r="G29">
-        <v>1195</v>
+        <v>1599</v>
       </c>
       <c r="H29">
-        <v>966</v>
+        <v>1257</v>
       </c>
       <c r="I29">
-        <v>1559</v>
+        <v>2102</v>
       </c>
       <c r="J29">
-        <v>36.78</v>
+        <v>47.68</v>
       </c>
       <c r="K29">
-        <v>1191</v>
+        <v>1880</v>
       </c>
       <c r="L29">
-        <v>38.14</v>
+        <v>41.28</v>
       </c>
       <c r="M29">
-        <v>91</v>
+        <v>167</v>
       </c>
       <c r="N29">
-        <v>60</v>
+        <v>115</v>
       </c>
       <c r="O29" t="s">
-        <v>222</v>
+        <v>235</v>
       </c>
       <c r="P29" t="s">
-        <v>233</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -9449,49 +9778,49 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E30">
-        <v>2826</v>
+        <v>3994</v>
       </c>
       <c r="F30">
-        <v>28.85</v>
+        <v>40.66</v>
       </c>
       <c r="G30">
-        <v>1295</v>
+        <v>1574</v>
       </c>
       <c r="H30">
-        <v>1037</v>
+        <v>1225</v>
       </c>
       <c r="I30">
-        <v>1629</v>
+        <v>2036</v>
       </c>
       <c r="J30">
-        <v>30.23</v>
+        <v>42.63</v>
       </c>
       <c r="K30">
-        <v>1197</v>
+        <v>1958</v>
       </c>
       <c r="L30">
-        <v>26.97</v>
+        <v>38.62</v>
       </c>
       <c r="M30">
-        <v>44</v>
+        <v>221</v>
       </c>
       <c r="N30">
-        <v>74</v>
+        <v>233</v>
       </c>
       <c r="O30" t="s">
-        <v>223</v>
+        <v>236</v>
       </c>
       <c r="P30" t="s">
-        <v>242</v>
+        <v>254</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -9499,49 +9828,49 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E31">
-        <v>399</v>
+        <v>2247</v>
       </c>
       <c r="F31">
-        <v>11.27</v>
+        <v>32.13</v>
       </c>
       <c r="G31">
-        <v>182</v>
+        <v>945</v>
       </c>
       <c r="H31">
-        <v>156</v>
+        <v>753</v>
       </c>
       <c r="I31">
-        <v>239</v>
+        <v>1215</v>
       </c>
       <c r="J31">
-        <v>12.12</v>
+        <v>35.09</v>
       </c>
       <c r="K31">
-        <v>160</v>
+        <v>1032</v>
       </c>
       <c r="L31">
-        <v>10</v>
+        <v>28.65</v>
       </c>
       <c r="M31">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="N31">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>224</v>
+        <v>237</v>
       </c>
       <c r="P31" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -9549,49 +9878,49 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E32">
-        <v>4121</v>
+        <v>4975</v>
       </c>
       <c r="F32">
-        <v>41.95</v>
+        <v>43.61</v>
       </c>
       <c r="G32">
-        <v>1959</v>
+        <v>2352</v>
       </c>
       <c r="H32">
-        <v>1791</v>
+        <v>2053</v>
       </c>
       <c r="I32">
-        <v>2655</v>
+        <v>3109</v>
       </c>
       <c r="J32">
-        <v>44.42</v>
+        <v>47.18</v>
       </c>
       <c r="K32">
-        <v>1466</v>
+        <v>1866</v>
       </c>
       <c r="L32">
-        <v>37.47</v>
+        <v>37.66</v>
       </c>
       <c r="M32">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="N32">
-        <v>334</v>
+        <v>554</v>
       </c>
       <c r="O32" t="s">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="P32" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -9599,49 +9928,49 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E33">
-        <v>3513</v>
+        <v>3343</v>
       </c>
       <c r="F33">
-        <v>41.78</v>
+        <v>30.61</v>
       </c>
       <c r="G33">
-        <v>1433</v>
+        <v>1303</v>
       </c>
       <c r="H33">
-        <v>1111</v>
+        <v>1013</v>
       </c>
       <c r="I33">
-        <v>1847</v>
+        <v>1696</v>
       </c>
       <c r="J33">
-        <v>45.14</v>
+        <v>31.69</v>
       </c>
       <c r="K33">
-        <v>1666</v>
+        <v>1647</v>
       </c>
       <c r="L33">
-        <v>38.05</v>
+        <v>29.48</v>
       </c>
       <c r="M33">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="N33">
-        <v>426</v>
+        <v>107</v>
       </c>
       <c r="O33" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="P33" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -9649,49 +9978,49 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" t="s">
+        <v>192</v>
+      </c>
+      <c r="D34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E34">
+        <v>2609</v>
+      </c>
+      <c r="F34">
+        <v>35.22</v>
+      </c>
+      <c r="G34">
+        <v>1098</v>
+      </c>
+      <c r="H34">
+        <v>898</v>
+      </c>
+      <c r="I34">
+        <v>1414</v>
+      </c>
+      <c r="J34">
+        <v>37.33</v>
+      </c>
+      <c r="K34">
+        <v>1195</v>
+      </c>
+      <c r="L34">
+        <v>32.72</v>
+      </c>
+      <c r="M34">
+        <v>42</v>
+      </c>
+      <c r="N34">
         <v>52</v>
       </c>
-      <c r="C34" t="s">
-        <v>187</v>
-      </c>
-      <c r="D34" t="s">
-        <v>195</v>
-      </c>
-      <c r="E34">
-        <v>5391</v>
-      </c>
-      <c r="F34">
-        <v>29.85</v>
-      </c>
-      <c r="G34">
-        <v>3334</v>
-      </c>
-      <c r="H34">
-        <v>2123</v>
-      </c>
-      <c r="I34">
-        <v>3960</v>
-      </c>
-      <c r="J34">
-        <v>30.42</v>
-      </c>
-      <c r="K34">
-        <v>1431</v>
-      </c>
-      <c r="L34">
-        <v>28.27</v>
-      </c>
-      <c r="M34">
-        <v>208</v>
-      </c>
-      <c r="N34">
-        <v>368</v>
-      </c>
       <c r="O34" t="s">
-        <v>227</v>
+        <v>240</v>
       </c>
       <c r="P34" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -9699,49 +10028,49 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E35">
-        <v>1846</v>
+        <v>4369</v>
       </c>
       <c r="F35">
-        <v>49.94</v>
+        <v>41.84</v>
       </c>
       <c r="G35">
-        <v>871</v>
+        <v>2545</v>
       </c>
       <c r="H35">
-        <v>765</v>
+        <v>1786</v>
       </c>
       <c r="I35">
-        <v>1135</v>
+        <v>3084</v>
       </c>
       <c r="J35">
-        <v>55.35</v>
+        <v>43.86</v>
       </c>
       <c r="K35">
-        <v>711</v>
+        <v>1285</v>
       </c>
       <c r="L35">
-        <v>41.31</v>
+        <v>37</v>
       </c>
       <c r="M35">
-        <v>2</v>
+        <v>194</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="O35" t="s">
-        <v>228</v>
+        <v>241</v>
       </c>
       <c r="P35" t="s">
-        <v>245</v>
+        <v>266</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -9749,49 +10078,49 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D36" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E36">
-        <v>2439</v>
+        <v>2174</v>
       </c>
       <c r="F36">
-        <v>36.61</v>
+        <v>43.46</v>
       </c>
       <c r="G36">
-        <v>1215</v>
+        <v>897</v>
       </c>
       <c r="H36">
-        <v>1072</v>
+        <v>676</v>
       </c>
       <c r="I36">
-        <v>1529</v>
+        <v>1154</v>
       </c>
       <c r="J36">
-        <v>40.37</v>
+        <v>46.82</v>
       </c>
       <c r="K36">
-        <v>910</v>
+        <v>1020</v>
       </c>
       <c r="L36">
-        <v>30.29</v>
+        <v>39.65</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="O36" t="s">
-        <v>229</v>
+        <v>242</v>
       </c>
       <c r="P36" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -9799,49 +10128,49 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E37">
-        <v>2616</v>
+        <v>2751</v>
       </c>
       <c r="F37">
-        <v>35.1</v>
+        <v>37.36</v>
       </c>
       <c r="G37">
-        <v>1111</v>
+        <v>1195</v>
       </c>
       <c r="H37">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="I37">
-        <v>1450</v>
+        <v>1559</v>
       </c>
       <c r="J37">
-        <v>37.03</v>
+        <v>36.78</v>
       </c>
       <c r="K37">
-        <v>1166</v>
+        <v>1192</v>
       </c>
       <c r="L37">
-        <v>32.7</v>
+        <v>38.12</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="P37" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -9849,49 +10178,49 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E38">
-        <v>3837</v>
+        <v>2828</v>
       </c>
       <c r="F38">
-        <v>43.47</v>
+        <v>28.83</v>
       </c>
       <c r="G38">
-        <v>1713</v>
+        <v>1299</v>
       </c>
       <c r="H38">
-        <v>1519</v>
+        <v>1044</v>
       </c>
       <c r="I38">
-        <v>2263</v>
+        <v>1634</v>
       </c>
       <c r="J38">
-        <v>47.33</v>
+        <v>30.22</v>
       </c>
       <c r="K38">
-        <v>1574</v>
+        <v>1194</v>
       </c>
       <c r="L38">
-        <v>37.93</v>
+        <v>26.92</v>
       </c>
       <c r="M38">
-        <v>145</v>
+        <v>44</v>
       </c>
       <c r="N38">
-        <v>455</v>
+        <v>75</v>
       </c>
       <c r="O38" t="s">
-        <v>230</v>
+        <v>244</v>
       </c>
       <c r="P38" t="s">
-        <v>244</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -9899,49 +10228,49 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="D39" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E39">
-        <v>2475</v>
+        <v>400</v>
       </c>
       <c r="F39">
-        <v>43.32</v>
+        <v>11.25</v>
       </c>
       <c r="G39">
-        <v>971</v>
+        <v>182</v>
       </c>
       <c r="H39">
-        <v>812</v>
+        <v>156</v>
       </c>
       <c r="I39">
-        <v>1251</v>
+        <v>239</v>
       </c>
       <c r="J39">
-        <v>48.08</v>
+        <v>12.12</v>
       </c>
       <c r="K39">
-        <v>1224</v>
+        <v>161</v>
       </c>
       <c r="L39">
-        <v>38.46</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O39" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="P39" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -9949,49 +10278,49 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D40" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E40">
-        <v>2206</v>
+        <v>4130</v>
       </c>
       <c r="F40">
-        <v>42.84</v>
+        <v>43.48</v>
       </c>
       <c r="G40">
-        <v>968</v>
+        <v>1964</v>
       </c>
       <c r="H40">
-        <v>788</v>
+        <v>1792</v>
       </c>
       <c r="I40">
-        <v>1232</v>
+        <v>2660</v>
       </c>
       <c r="J40">
-        <v>45.99</v>
+        <v>45.43</v>
       </c>
       <c r="K40">
-        <v>974</v>
+        <v>1470</v>
       </c>
       <c r="L40">
-        <v>38.86</v>
+        <v>39.95</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>338</v>
       </c>
       <c r="O40" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="P40" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -9999,49 +10328,449 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>195</v>
+        <v>207</v>
       </c>
       <c r="E41">
-        <v>1419</v>
+        <v>3514</v>
       </c>
       <c r="F41">
-        <v>42.02</v>
+        <v>41.78</v>
       </c>
       <c r="G41">
-        <v>592</v>
+        <v>1433</v>
       </c>
       <c r="H41">
-        <v>484</v>
+        <v>1111</v>
       </c>
       <c r="I41">
-        <v>743</v>
+        <v>1847</v>
       </c>
       <c r="J41">
-        <v>48.37</v>
+        <v>45.14</v>
       </c>
       <c r="K41">
-        <v>676</v>
+        <v>1667</v>
       </c>
       <c r="L41">
-        <v>35.04</v>
+        <v>38.06</v>
       </c>
       <c r="M41">
+        <v>167</v>
+      </c>
+      <c r="N41">
+        <v>431</v>
+      </c>
+      <c r="O41" t="s">
+        <v>223</v>
+      </c>
+      <c r="P41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" t="s">
+        <v>199</v>
+      </c>
+      <c r="D42" t="s">
+        <v>207</v>
+      </c>
+      <c r="E42">
+        <v>5394</v>
+      </c>
+      <c r="F42">
+        <v>29.85</v>
+      </c>
+      <c r="G42">
+        <v>3334</v>
+      </c>
+      <c r="H42">
+        <v>2119</v>
+      </c>
+      <c r="I42">
+        <v>3958</v>
+      </c>
+      <c r="J42">
+        <v>30.42</v>
+      </c>
+      <c r="K42">
+        <v>1436</v>
+      </c>
+      <c r="L42">
+        <v>28.29</v>
+      </c>
+      <c r="M42">
+        <v>209</v>
+      </c>
+      <c r="N42">
+        <v>368</v>
+      </c>
+      <c r="O42" t="s">
+        <v>247</v>
+      </c>
+      <c r="P42" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" t="s">
+        <v>207</v>
+      </c>
+      <c r="E43">
+        <v>1862</v>
+      </c>
+      <c r="F43">
+        <v>56.35</v>
+      </c>
+      <c r="G43">
+        <v>881</v>
+      </c>
+      <c r="H43">
+        <v>774</v>
+      </c>
+      <c r="I43">
+        <v>1147</v>
+      </c>
+      <c r="J43">
+        <v>62.01</v>
+      </c>
+      <c r="K43">
+        <v>715</v>
+      </c>
+      <c r="L43">
+        <v>47.27</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43">
         <v>0</v>
       </c>
-      <c r="N41">
+      <c r="O43" t="s">
+        <v>248</v>
+      </c>
+      <c r="P43" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" t="s">
+        <v>207</v>
+      </c>
+      <c r="E44">
+        <v>2447</v>
+      </c>
+      <c r="F44">
+        <v>38.99</v>
+      </c>
+      <c r="G44">
+        <v>1219</v>
+      </c>
+      <c r="H44">
+        <v>1076</v>
+      </c>
+      <c r="I44">
+        <v>1533</v>
+      </c>
+      <c r="J44">
+        <v>42.34</v>
+      </c>
+      <c r="K44">
+        <v>914</v>
+      </c>
+      <c r="L44">
+        <v>33.36</v>
+      </c>
+      <c r="M44">
         <v>0</v>
       </c>
-      <c r="O41" t="s">
-        <v>229</v>
-      </c>
-      <c r="P41" t="s">
-        <v>245</v>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>249</v>
+      </c>
+      <c r="P44" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>56</v>
+      </c>
+      <c r="C45" t="s">
+        <v>202</v>
+      </c>
+      <c r="D45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45">
+        <v>3847</v>
+      </c>
+      <c r="F45">
+        <v>44.77</v>
+      </c>
+      <c r="G45">
+        <v>1718</v>
+      </c>
+      <c r="H45">
+        <v>1521</v>
+      </c>
+      <c r="I45">
+        <v>2268</v>
+      </c>
+      <c r="J45">
+        <v>48.77</v>
+      </c>
+      <c r="K45">
+        <v>1579</v>
+      </c>
+      <c r="L45">
+        <v>39.02</v>
+      </c>
+      <c r="M45">
+        <v>153</v>
+      </c>
+      <c r="N45">
+        <v>458</v>
+      </c>
+      <c r="O45" t="s">
+        <v>250</v>
+      </c>
+      <c r="P45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D46" t="s">
+        <v>207</v>
+      </c>
+      <c r="E46">
+        <v>2492</v>
+      </c>
+      <c r="F46">
+        <v>47.55</v>
+      </c>
+      <c r="G46">
+        <v>981</v>
+      </c>
+      <c r="H46">
+        <v>818</v>
+      </c>
+      <c r="I46">
+        <v>1260</v>
+      </c>
+      <c r="J46">
+        <v>52.07</v>
+      </c>
+      <c r="K46">
+        <v>1232</v>
+      </c>
+      <c r="L46">
+        <v>42.93</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0</v>
+      </c>
+      <c r="O46" t="s">
+        <v>249</v>
+      </c>
+      <c r="P46" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s">
+        <v>204</v>
+      </c>
+      <c r="D47" t="s">
+        <v>207</v>
+      </c>
+      <c r="E47">
+        <v>2215</v>
+      </c>
+      <c r="F47">
+        <v>45.13</v>
+      </c>
+      <c r="G47">
+        <v>972</v>
+      </c>
+      <c r="H47">
+        <v>791</v>
+      </c>
+      <c r="I47">
+        <v>1237</v>
+      </c>
+      <c r="J47">
+        <v>48.32</v>
+      </c>
+      <c r="K47">
+        <v>978</v>
+      </c>
+      <c r="L47">
+        <v>41.1</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0</v>
+      </c>
+      <c r="O47" t="s">
+        <v>249</v>
+      </c>
+      <c r="P47" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="C48" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" t="s">
+        <v>207</v>
+      </c>
+      <c r="E48">
+        <v>1948</v>
+      </c>
+      <c r="F48">
+        <v>47.14</v>
+      </c>
+      <c r="G48">
+        <v>774</v>
+      </c>
+      <c r="H48">
+        <v>640</v>
+      </c>
+      <c r="I48">
+        <v>994</v>
+      </c>
+      <c r="J48">
+        <v>49.94</v>
+      </c>
+      <c r="K48">
+        <v>954</v>
+      </c>
+      <c r="L48">
+        <v>44.22</v>
+      </c>
+      <c r="M48">
+        <v>45</v>
+      </c>
+      <c r="N48">
+        <v>21</v>
+      </c>
+      <c r="O48" t="s">
+        <v>251</v>
+      </c>
+      <c r="P48" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C49" t="s">
+        <v>206</v>
+      </c>
+      <c r="D49" t="s">
+        <v>207</v>
+      </c>
+      <c r="E49">
+        <v>1240</v>
+      </c>
+      <c r="F49">
+        <v>38.34</v>
+      </c>
+      <c r="G49">
+        <v>487</v>
+      </c>
+      <c r="H49">
+        <v>412</v>
+      </c>
+      <c r="I49">
+        <v>620</v>
+      </c>
+      <c r="J49">
+        <v>39.12</v>
+      </c>
+      <c r="K49">
+        <v>620</v>
+      </c>
+      <c r="L49">
+        <v>37.56</v>
+      </c>
+      <c r="M49">
+        <v>24</v>
+      </c>
+      <c r="N49">
+        <v>18</v>
+      </c>
+      <c r="O49" t="s">
+        <v>252</v>
+      </c>
+      <c r="P49" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>

--- a/多人讨论-区分付费/58天区分付费统计结果.xlsx
+++ b/多人讨论-区分付费/58天区分付费统计结果.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="274">
   <si>
     <t>日期</t>
   </si>
@@ -208,6 +208,9 @@
     <t>2020-03-24</t>
   </si>
   <si>
+    <t>2020-03-25</t>
+  </si>
+  <si>
     <t>【58天互动学习场】疫情对你的工作生活产生了哪些问题和挑战？</t>
   </si>
   <si>
@@ -358,6 +361,12 @@
     <t>【58天互动学习场】保持安全距离成为居民基本素养，我如何搭上非接触商业的顺风车？</t>
   </si>
   <si>
+    <t>【58天互动学习场】设计力即将成为商业世界下一个关键驱动力</t>
+  </si>
+  <si>
+    <t>【万物生主题互动·01期】《打造成长飞轮》同声翻译女学霸小媛吐露学习术</t>
+  </si>
+  <si>
     <t>1分钟以内</t>
   </si>
   <si>
@@ -640,6 +649,9 @@
     <t>保持安全距离成为居民基本素养，我如何搭上非接触商业的顺风车？</t>
   </si>
   <si>
+    <t>设计力即将成为商业世界下一个关键驱动力</t>
+  </si>
+  <si>
     <t>全国</t>
   </si>
   <si>
@@ -776,6 +788,9 @@
   </si>
   <si>
     <t>1.94%</t>
+  </si>
+  <si>
+    <t>3.09%</t>
   </si>
   <si>
     <t>0.09</t>
@@ -1181,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,7 +1248,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>3307</v>
@@ -1274,7 +1289,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>4295</v>
@@ -1315,7 +1330,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>5620</v>
@@ -1356,7 +1371,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>3504</v>
@@ -1397,7 +1412,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>3895</v>
@@ -1438,7 +1453,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>3749</v>
@@ -1479,7 +1494,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>5763</v>
@@ -1520,7 +1535,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>5804</v>
@@ -1561,7 +1576,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>5338</v>
@@ -1602,7 +1617,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>5840</v>
@@ -1643,7 +1658,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>5770</v>
@@ -1684,7 +1699,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>4098</v>
@@ -1725,7 +1740,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>5349</v>
@@ -1766,7 +1781,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C15">
         <v>5304</v>
@@ -1807,7 +1822,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16">
         <v>3790</v>
@@ -1848,7 +1863,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C17">
         <v>3982</v>
@@ -1889,7 +1904,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C18">
         <v>7497</v>
@@ -1930,7 +1945,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C19">
         <v>5502</v>
@@ -1971,7 +1986,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C20">
         <v>3335</v>
@@ -2012,7 +2027,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C21">
         <v>3950</v>
@@ -2053,7 +2068,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C22">
         <v>2685</v>
@@ -2094,7 +2109,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23">
         <v>3391</v>
@@ -2135,7 +2150,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>3534</v>
@@ -2176,7 +2191,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C25">
         <v>5263</v>
@@ -2217,7 +2232,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C26">
         <v>5420</v>
@@ -2258,7 +2273,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C27">
         <v>3472</v>
@@ -2299,7 +2314,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C28">
         <v>3624</v>
@@ -2340,7 +2355,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C29">
         <v>3981</v>
@@ -2381,7 +2396,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C30">
         <v>3994</v>
@@ -2422,7 +2437,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C31">
         <v>2247</v>
@@ -2463,7 +2478,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C32">
         <v>4973</v>
@@ -2504,7 +2519,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C33">
         <v>3342</v>
@@ -2545,7 +2560,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C34">
         <v>2608</v>
@@ -2586,7 +2601,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C35">
         <v>4369</v>
@@ -2627,7 +2642,7 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36">
         <v>2174</v>
@@ -2668,7 +2683,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C37">
         <v>2751</v>
@@ -2709,7 +2724,7 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C38">
         <v>2828</v>
@@ -2750,7 +2765,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C39">
         <v>4129</v>
@@ -2791,7 +2806,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C40">
         <v>3514</v>
@@ -2832,7 +2847,7 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C41">
         <v>3514</v>
@@ -2859,13 +2874,13 @@
         <v>41.96</v>
       </c>
       <c r="K41">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="L41">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M41">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2873,7 +2888,7 @@
         <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C42">
         <v>3514</v>
@@ -2914,7 +2929,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C43">
         <v>3514</v>
@@ -2941,13 +2956,13 @@
         <v>41.96</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="44" spans="1:13">
@@ -2955,7 +2970,7 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44">
         <v>5394</v>
@@ -2996,7 +3011,7 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45">
         <v>1859</v>
@@ -3037,7 +3052,7 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C46">
         <v>2446</v>
@@ -3078,7 +3093,7 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C47">
         <v>2642</v>
@@ -3119,7 +3134,7 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C48">
         <v>3847</v>
@@ -3160,7 +3175,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C49">
         <v>2492</v>
@@ -3201,7 +3216,7 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C50">
         <v>2215</v>
@@ -3242,7 +3257,7 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C51">
         <v>2508</v>
@@ -3283,7 +3298,7 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C52">
         <v>1440</v>
@@ -3324,7 +3339,7 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C53">
         <v>1948</v>
@@ -3365,7 +3380,7 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C54">
         <v>1239</v>
@@ -3398,6 +3413,88 @@
         <v>0</v>
       </c>
       <c r="M54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55">
+        <v>2847</v>
+      </c>
+      <c r="D55">
+        <v>1657</v>
+      </c>
+      <c r="E55">
+        <v>750</v>
+      </c>
+      <c r="F55">
+        <v>440</v>
+      </c>
+      <c r="G55">
+        <v>47.6</v>
+      </c>
+      <c r="H55">
+        <v>48.05</v>
+      </c>
+      <c r="I55">
+        <v>47.75</v>
+      </c>
+      <c r="J55">
+        <v>45.64</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56">
+        <v>3826</v>
+      </c>
+      <c r="D56">
+        <v>2209</v>
+      </c>
+      <c r="E56">
+        <v>1009</v>
+      </c>
+      <c r="F56">
+        <v>608</v>
+      </c>
+      <c r="G56">
+        <v>42.23</v>
+      </c>
+      <c r="H56">
+        <v>42.52</v>
+      </c>
+      <c r="I56">
+        <v>42.21</v>
+      </c>
+      <c r="J56">
+        <v>41.21</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
         <v>0</v>
       </c>
     </row>
@@ -3408,7 +3505,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD54"/>
+  <dimension ref="A1:AD56"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3422,88 +3519,88 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -8221,6 +8318,184 @@
       </c>
       <c r="AD54">
         <v>0.244309559939302</v>
+      </c>
+    </row>
+    <row r="55" spans="1:30">
+      <c r="A55" t="s">
+        <v>63</v>
+      </c>
+      <c r="B55">
+        <v>2847</v>
+      </c>
+      <c r="C55">
+        <v>1126</v>
+      </c>
+      <c r="D55">
+        <v>585</v>
+      </c>
+      <c r="E55">
+        <v>235</v>
+      </c>
+      <c r="F55">
+        <v>279</v>
+      </c>
+      <c r="G55">
+        <v>124</v>
+      </c>
+      <c r="H55">
+        <v>183</v>
+      </c>
+      <c r="I55">
+        <v>125</v>
+      </c>
+      <c r="J55">
+        <v>190</v>
+      </c>
+      <c r="K55">
+        <v>1711</v>
+      </c>
+      <c r="L55">
+        <v>498</v>
+      </c>
+      <c r="M55">
+        <v>315</v>
+      </c>
+      <c r="N55">
+        <v>0.6009834913944503</v>
+      </c>
+      <c r="O55">
+        <v>0.6835265191429575</v>
+      </c>
+      <c r="P55">
+        <v>0.1749209694415174</v>
+      </c>
+      <c r="R55" t="s">
+        <v>63</v>
+      </c>
+      <c r="S55">
+        <v>1657</v>
+      </c>
+      <c r="T55">
+        <v>643</v>
+      </c>
+      <c r="U55">
+        <v>315</v>
+      </c>
+      <c r="V55">
+        <v>126</v>
+      </c>
+      <c r="W55">
+        <v>171</v>
+      </c>
+      <c r="X55">
+        <v>78</v>
+      </c>
+      <c r="Y55">
+        <v>112</v>
+      </c>
+      <c r="Z55">
+        <v>82</v>
+      </c>
+      <c r="AA55">
+        <v>130</v>
+      </c>
+      <c r="AB55">
+        <v>0.5781532890766445</v>
+      </c>
+      <c r="AC55">
+        <v>0.6541943270971635</v>
+      </c>
+      <c r="AD55">
+        <v>0.1955340977670489</v>
+      </c>
+    </row>
+    <row r="56" spans="1:30">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56">
+        <v>3826</v>
+      </c>
+      <c r="C56">
+        <v>1368</v>
+      </c>
+      <c r="D56">
+        <v>732</v>
+      </c>
+      <c r="E56">
+        <v>301</v>
+      </c>
+      <c r="F56">
+        <v>373</v>
+      </c>
+      <c r="G56">
+        <v>220</v>
+      </c>
+      <c r="H56">
+        <v>362</v>
+      </c>
+      <c r="I56">
+        <v>187</v>
+      </c>
+      <c r="J56">
+        <v>283</v>
+      </c>
+      <c r="K56">
+        <v>2100</v>
+      </c>
+      <c r="L56">
+        <v>832</v>
+      </c>
+      <c r="M56">
+        <v>470</v>
+      </c>
+      <c r="N56">
+        <v>0.5488761108207004</v>
+      </c>
+      <c r="O56">
+        <v>0.6275483533716676</v>
+      </c>
+      <c r="P56">
+        <v>0.2174594877156299</v>
+      </c>
+      <c r="R56" t="s">
+        <v>63</v>
+      </c>
+      <c r="S56">
+        <v>2209</v>
+      </c>
+      <c r="T56">
+        <v>771</v>
+      </c>
+      <c r="U56">
+        <v>372</v>
+      </c>
+      <c r="V56">
+        <v>155</v>
+      </c>
+      <c r="W56">
+        <v>223</v>
+      </c>
+      <c r="X56">
+        <v>143</v>
+      </c>
+      <c r="Y56">
+        <v>228</v>
+      </c>
+      <c r="Z56">
+        <v>121</v>
+      </c>
+      <c r="AA56">
+        <v>196</v>
+      </c>
+      <c r="AB56">
+        <v>0.517428700769579</v>
+      </c>
+      <c r="AC56">
+        <v>0.5875961973743775</v>
+      </c>
+      <c r="AD56">
+        <v>0.2467179719330014</v>
       </c>
     </row>
   </sheetData>
@@ -8255,62 +8530,62 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="F2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B3">
-        <v>5138</v>
+        <v>3109</v>
       </c>
       <c r="C3">
-        <v>879</v>
+        <v>2309</v>
       </c>
       <c r="D3">
-        <v>315</v>
+        <v>486</v>
       </c>
       <c r="E3">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="F3">
-        <v>121</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B4">
-        <v>0.7692768378499776</v>
+        <v>0.4873804671578617</v>
       </c>
       <c r="C4">
-        <v>0.1316065279233418</v>
+        <v>0.3619689606521398</v>
       </c>
       <c r="D4">
-        <v>0.04716274891450816</v>
+        <v>0.07618749020222605</v>
       </c>
       <c r="E4">
-        <v>0.03383740080850427</v>
+        <v>0.04075873961435962</v>
       </c>
       <c r="F4">
-        <v>0.01811648450366821</v>
+        <v>0.03370434237341276</v>
       </c>
     </row>
   </sheetData>
@@ -8320,7 +8595,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8334,43 +8609,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -8378,13 +8653,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -8417,10 +8692,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P2" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -8431,10 +8706,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E3">
         <v>3307</v>
@@ -8467,10 +8742,10 @@
         <v>195</v>
       </c>
       <c r="O3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -8481,10 +8756,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E4">
         <v>4295</v>
@@ -8517,10 +8792,10 @@
         <v>246</v>
       </c>
       <c r="O4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P4" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -8531,10 +8806,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D5" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E5">
         <v>5625</v>
@@ -8567,10 +8842,10 @@
         <v>265</v>
       </c>
       <c r="O5" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P5" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8581,10 +8856,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E6">
         <v>3550</v>
@@ -8617,10 +8892,10 @@
         <v>192</v>
       </c>
       <c r="O6" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P6" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -8631,10 +8906,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E7">
         <v>3895</v>
@@ -8667,10 +8942,10 @@
         <v>312</v>
       </c>
       <c r="O7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="P7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -8681,10 +8956,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E8">
         <v>3749</v>
@@ -8717,10 +8992,10 @@
         <v>266</v>
       </c>
       <c r="O8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="P8" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -8731,10 +9006,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D9" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E9">
         <v>5763</v>
@@ -8767,10 +9042,10 @@
         <v>233</v>
       </c>
       <c r="O9" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="P9" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -8781,10 +9056,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D10" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E10">
         <v>5808</v>
@@ -8817,10 +9092,10 @@
         <v>441</v>
       </c>
       <c r="O10" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="P10" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -8831,10 +9106,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E11">
         <v>5342</v>
@@ -8867,10 +9142,10 @@
         <v>367</v>
       </c>
       <c r="O11" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P11" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -8881,10 +9156,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D12" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E12">
         <v>5840</v>
@@ -8917,10 +9192,10 @@
         <v>1069</v>
       </c>
       <c r="O12" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P12" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -8931,10 +9206,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D13" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E13">
         <v>5721</v>
@@ -8967,10 +9242,10 @@
         <v>419</v>
       </c>
       <c r="O13" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="P13" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -8981,10 +9256,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D14" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E14">
         <v>4098</v>
@@ -9017,10 +9292,10 @@
         <v>98</v>
       </c>
       <c r="O14" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P14" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -9031,10 +9306,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D15" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E15">
         <v>5349</v>
@@ -9067,10 +9342,10 @@
         <v>360</v>
       </c>
       <c r="O15" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="P15" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -9081,10 +9356,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E16">
         <v>5304</v>
@@ -9117,10 +9392,10 @@
         <v>369</v>
       </c>
       <c r="O16" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P16" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -9131,10 +9406,10 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E17">
         <v>3790</v>
@@ -9167,10 +9442,10 @@
         <v>205</v>
       </c>
       <c r="O17" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P17" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -9181,10 +9456,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D18" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E18">
         <v>3982</v>
@@ -9217,10 +9492,10 @@
         <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="P18" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -9231,10 +9506,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D19" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E19">
         <v>7497</v>
@@ -9267,10 +9542,10 @@
         <v>1250</v>
       </c>
       <c r="O19" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="P19" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -9281,10 +9556,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E20">
         <v>5502</v>
@@ -9317,10 +9592,10 @@
         <v>337</v>
       </c>
       <c r="O20" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P20" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -9331,10 +9606,10 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E21">
         <v>3335</v>
@@ -9367,10 +9642,10 @@
         <v>260</v>
       </c>
       <c r="O21" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="P21" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -9381,10 +9656,10 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D22" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E22">
         <v>3950</v>
@@ -9417,10 +9692,10 @@
         <v>89</v>
       </c>
       <c r="O22" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P22" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -9431,10 +9706,10 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D23" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E23">
         <v>2685</v>
@@ -9467,10 +9742,10 @@
         <v>162</v>
       </c>
       <c r="O23" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P23" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -9481,10 +9756,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D24" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E24">
         <v>3391</v>
@@ -9517,10 +9792,10 @@
         <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="P24" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -9531,10 +9806,10 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D25" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E25">
         <v>5265</v>
@@ -9567,10 +9842,10 @@
         <v>674</v>
       </c>
       <c r="O25" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="P25" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -9581,10 +9856,10 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D26" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E26">
         <v>5461</v>
@@ -9617,10 +9892,10 @@
         <v>574</v>
       </c>
       <c r="O26" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="P26" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -9631,10 +9906,10 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D27" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E27">
         <v>3472</v>
@@ -9667,10 +9942,10 @@
         <v>76</v>
       </c>
       <c r="O27" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="P27" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -9681,10 +9956,10 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D28" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E28">
         <v>3624</v>
@@ -9717,10 +9992,10 @@
         <v>119</v>
       </c>
       <c r="O28" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P28" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -9731,10 +10006,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D29" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E29">
         <v>3981</v>
@@ -9767,10 +10042,10 @@
         <v>115</v>
       </c>
       <c r="O29" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="P29" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -9781,10 +10056,10 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="D30" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E30">
         <v>3994</v>
@@ -9817,10 +10092,10 @@
         <v>233</v>
       </c>
       <c r="O30" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P30" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -9831,10 +10106,10 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D31" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E31">
         <v>2247</v>
@@ -9867,10 +10142,10 @@
         <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P31" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -9881,10 +10156,10 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="D32" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E32">
         <v>4975</v>
@@ -9917,10 +10192,10 @@
         <v>554</v>
       </c>
       <c r="O32" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P32" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -9931,10 +10206,10 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D33" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E33">
         <v>3343</v>
@@ -9967,10 +10242,10 @@
         <v>107</v>
       </c>
       <c r="O33" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="P33" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -9981,10 +10256,10 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D34" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E34">
         <v>2609</v>
@@ -10017,10 +10292,10 @@
         <v>52</v>
       </c>
       <c r="O34" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="P34" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -10031,10 +10306,10 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D35" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E35">
         <v>4369</v>
@@ -10067,10 +10342,10 @@
         <v>447</v>
       </c>
       <c r="O35" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P35" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -10081,10 +10356,10 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E36">
         <v>2174</v>
@@ -10117,10 +10392,10 @@
         <v>101</v>
       </c>
       <c r="O36" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P36" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -10131,10 +10406,10 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D37" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E37">
         <v>2751</v>
@@ -10167,10 +10442,10 @@
         <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="P37" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -10181,10 +10456,10 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D38" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E38">
         <v>2828</v>
@@ -10217,10 +10492,10 @@
         <v>75</v>
       </c>
       <c r="O38" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P38" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -10231,10 +10506,10 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D39" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E39">
         <v>400</v>
@@ -10267,10 +10542,10 @@
         <v>20</v>
       </c>
       <c r="O39" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P39" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -10281,10 +10556,10 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E40">
         <v>4130</v>
@@ -10317,10 +10592,10 @@
         <v>338</v>
       </c>
       <c r="O40" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P40" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -10331,10 +10606,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="D41" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E41">
         <v>3514</v>
@@ -10367,10 +10642,10 @@
         <v>431</v>
       </c>
       <c r="O41" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="P41" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -10381,10 +10656,10 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D42" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E42">
         <v>5394</v>
@@ -10417,10 +10692,10 @@
         <v>368</v>
       </c>
       <c r="O42" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P42" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -10431,10 +10706,10 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="D43" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E43">
         <v>1862</v>
@@ -10467,10 +10742,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="P43" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -10481,10 +10756,10 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D44" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E44">
         <v>2447</v>
@@ -10517,10 +10792,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P44" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -10531,10 +10806,10 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D45" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E45">
         <v>3847</v>
@@ -10567,10 +10842,10 @@
         <v>458</v>
       </c>
       <c r="O45" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P45" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -10581,10 +10856,10 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D46" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E46">
         <v>2492</v>
@@ -10617,10 +10892,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P46" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -10631,10 +10906,10 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D47" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E47">
         <v>2215</v>
@@ -10667,10 +10942,10 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P47" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -10681,10 +10956,10 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D48" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E48">
         <v>1948</v>
@@ -10717,10 +10992,10 @@
         <v>21</v>
       </c>
       <c r="O48" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="P48" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -10731,10 +11006,10 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D49" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E49">
         <v>1240</v>
@@ -10767,10 +11042,60 @@
         <v>18</v>
       </c>
       <c r="O49" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="P49" t="s">
-        <v>262</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>63</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" t="s">
+        <v>211</v>
+      </c>
+      <c r="E50">
+        <v>2847</v>
+      </c>
+      <c r="F50">
+        <v>47.6</v>
+      </c>
+      <c r="G50">
+        <v>1239</v>
+      </c>
+      <c r="H50">
+        <v>1083</v>
+      </c>
+      <c r="I50">
+        <v>1618</v>
+      </c>
+      <c r="J50">
+        <v>54.87</v>
+      </c>
+      <c r="K50">
+        <v>1229</v>
+      </c>
+      <c r="L50">
+        <v>38.03</v>
+      </c>
+      <c r="M50">
+        <v>88</v>
+      </c>
+      <c r="N50">
+        <v>169</v>
+      </c>
+      <c r="O50" t="s">
+        <v>257</v>
+      </c>
+      <c r="P50" t="s">
+        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/多人讨论-区分付费/58天区分付费统计结果.xlsx
+++ b/多人讨论-区分付费/58天区分付费统计结果.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="531" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="272">
   <si>
     <t>日期</t>
   </si>
@@ -364,9 +364,6 @@
     <t>【58天互动学习场】设计力即将成为商业世界下一个关键驱动力</t>
   </si>
   <si>
-    <t>【万物生主题互动·01期】《打造成长飞轮》同声翻译女学霸小媛吐露学习术</t>
-  </si>
-  <si>
     <t>1分钟以内</t>
   </si>
   <si>
@@ -467,9 +464,6 @@
   </si>
   <si>
     <t>4.0天</t>
-  </si>
-  <si>
-    <t>5.0天</t>
   </si>
   <si>
     <t>分社</t>
@@ -1196,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M56"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2669,13 +2663,13 @@
         <v>44.97</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2710,13 +2704,13 @@
         <v>40.28</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2751,13 +2745,13 @@
         <v>24.79</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2833,86 +2827,86 @@
         <v>41.96</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41">
-        <v>3514</v>
+        <v>5394</v>
       </c>
       <c r="D41">
-        <v>1996</v>
+        <v>4111</v>
       </c>
       <c r="E41">
-        <v>946</v>
+        <v>877</v>
       </c>
       <c r="F41">
-        <v>572</v>
+        <v>406</v>
       </c>
       <c r="G41">
-        <v>41.78</v>
+        <v>29.85</v>
       </c>
       <c r="H41">
-        <v>41.16</v>
+        <v>30.02</v>
       </c>
       <c r="I41">
-        <v>42.99</v>
+        <v>30.56</v>
       </c>
       <c r="J41">
-        <v>41.96</v>
+        <v>26.67</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C42">
-        <v>3514</v>
+        <v>1859</v>
       </c>
       <c r="D42">
-        <v>1996</v>
+        <v>1290</v>
       </c>
       <c r="E42">
-        <v>946</v>
+        <v>353</v>
       </c>
       <c r="F42">
-        <v>572</v>
+        <v>216</v>
       </c>
       <c r="G42">
-        <v>41.78</v>
+        <v>54.19</v>
       </c>
       <c r="H42">
-        <v>41.16</v>
+        <v>51.17</v>
       </c>
       <c r="I42">
-        <v>42.99</v>
+        <v>56.77</v>
       </c>
       <c r="J42">
-        <v>41.96</v>
+        <v>68.04000000000001</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2926,116 +2920,116 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C43">
-        <v>3514</v>
+        <v>2446</v>
       </c>
       <c r="D43">
-        <v>1996</v>
+        <v>1574</v>
       </c>
       <c r="E43">
-        <v>946</v>
+        <v>561</v>
       </c>
       <c r="F43">
-        <v>572</v>
+        <v>311</v>
       </c>
       <c r="G43">
-        <v>41.78</v>
+        <v>38.64</v>
       </c>
       <c r="H43">
-        <v>41.16</v>
+        <v>38.66</v>
       </c>
       <c r="I43">
-        <v>42.99</v>
+        <v>37.14</v>
       </c>
       <c r="J43">
-        <v>41.96</v>
+        <v>41.22</v>
       </c>
       <c r="K43">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="M43">
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C44">
-        <v>5394</v>
+        <v>2642</v>
       </c>
       <c r="D44">
-        <v>4111</v>
+        <v>1544</v>
       </c>
       <c r="E44">
-        <v>877</v>
+        <v>670</v>
       </c>
       <c r="F44">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="G44">
-        <v>29.85</v>
+        <v>41.17</v>
       </c>
       <c r="H44">
-        <v>30.02</v>
+        <v>43.16</v>
       </c>
       <c r="I44">
-        <v>30.56</v>
+        <v>39.01</v>
       </c>
       <c r="J44">
-        <v>26.67</v>
+        <v>37.34</v>
       </c>
       <c r="K44">
-        <v>222</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="M44">
-        <v>156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C45">
-        <v>1859</v>
+        <v>3847</v>
       </c>
       <c r="D45">
-        <v>1290</v>
+        <v>2286</v>
       </c>
       <c r="E45">
-        <v>353</v>
+        <v>1006</v>
       </c>
       <c r="F45">
-        <v>216</v>
+        <v>555</v>
       </c>
       <c r="G45">
-        <v>54.19</v>
+        <v>44.77</v>
       </c>
       <c r="H45">
-        <v>51.17</v>
+        <v>43.48</v>
       </c>
       <c r="I45">
-        <v>56.77</v>
+        <v>45.27</v>
       </c>
       <c r="J45">
-        <v>68.04000000000001</v>
+        <v>49.19</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3049,34 +3043,34 @@
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C46">
-        <v>2446</v>
+        <v>2492</v>
       </c>
       <c r="D46">
-        <v>1574</v>
+        <v>1381</v>
       </c>
       <c r="E46">
-        <v>561</v>
+        <v>666</v>
       </c>
       <c r="F46">
-        <v>311</v>
+        <v>445</v>
       </c>
       <c r="G46">
-        <v>38.64</v>
+        <v>47.55</v>
       </c>
       <c r="H46">
-        <v>38.66</v>
+        <v>49.21</v>
       </c>
       <c r="I46">
-        <v>37.14</v>
+        <v>45.65</v>
       </c>
       <c r="J46">
-        <v>41.22</v>
+        <v>45.25</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3090,34 +3084,34 @@
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C47">
-        <v>2642</v>
+        <v>2215</v>
       </c>
       <c r="D47">
-        <v>1544</v>
+        <v>1264</v>
       </c>
       <c r="E47">
-        <v>670</v>
+        <v>544</v>
       </c>
       <c r="F47">
-        <v>428</v>
+        <v>407</v>
       </c>
       <c r="G47">
-        <v>41.17</v>
+        <v>45.13</v>
       </c>
       <c r="H47">
-        <v>43.16</v>
+        <v>44.16</v>
       </c>
       <c r="I47">
-        <v>39.01</v>
+        <v>46.31</v>
       </c>
       <c r="J47">
-        <v>37.34</v>
+        <v>46.55</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3131,34 +3125,34 @@
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C48">
-        <v>3847</v>
+        <v>2508</v>
       </c>
       <c r="D48">
-        <v>2286</v>
+        <v>1413</v>
       </c>
       <c r="E48">
-        <v>1006</v>
+        <v>617</v>
       </c>
       <c r="F48">
-        <v>555</v>
+        <v>478</v>
       </c>
       <c r="G48">
-        <v>44.77</v>
+        <v>43.68</v>
       </c>
       <c r="H48">
-        <v>43.48</v>
+        <v>43.65</v>
       </c>
       <c r="I48">
-        <v>45.27</v>
+        <v>43.57</v>
       </c>
       <c r="J48">
-        <v>49.19</v>
+        <v>43.91</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3172,34 +3166,34 @@
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C49">
-        <v>2492</v>
+        <v>1440</v>
       </c>
       <c r="D49">
-        <v>1381</v>
+        <v>902</v>
       </c>
       <c r="E49">
-        <v>666</v>
+        <v>313</v>
       </c>
       <c r="F49">
-        <v>445</v>
+        <v>225</v>
       </c>
       <c r="G49">
-        <v>47.55</v>
+        <v>51.29</v>
       </c>
       <c r="H49">
-        <v>49.21</v>
+        <v>49.39</v>
       </c>
       <c r="I49">
-        <v>45.65</v>
+        <v>59.03</v>
       </c>
       <c r="J49">
-        <v>45.25</v>
+        <v>48.11</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3213,34 +3207,34 @@
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C50">
-        <v>2215</v>
+        <v>1948</v>
       </c>
       <c r="D50">
-        <v>1264</v>
+        <v>1140</v>
       </c>
       <c r="E50">
-        <v>544</v>
+        <v>513</v>
       </c>
       <c r="F50">
-        <v>407</v>
+        <v>295</v>
       </c>
       <c r="G50">
-        <v>45.13</v>
+        <v>47.14</v>
       </c>
       <c r="H50">
-        <v>44.16</v>
+        <v>46.73</v>
       </c>
       <c r="I50">
-        <v>46.31</v>
+        <v>46.15</v>
       </c>
       <c r="J50">
-        <v>46.55</v>
+        <v>50.41</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3254,34 +3248,34 @@
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C51">
-        <v>2508</v>
+        <v>1239</v>
       </c>
       <c r="D51">
-        <v>1413</v>
+        <v>659</v>
       </c>
       <c r="E51">
-        <v>617</v>
+        <v>334</v>
       </c>
       <c r="F51">
-        <v>478</v>
+        <v>246</v>
       </c>
       <c r="G51">
-        <v>43.68</v>
+        <v>38.37</v>
       </c>
       <c r="H51">
-        <v>43.65</v>
+        <v>38.35</v>
       </c>
       <c r="I51">
-        <v>43.57</v>
+        <v>39.86</v>
       </c>
       <c r="J51">
-        <v>43.91</v>
+        <v>36.39</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3295,34 +3289,34 @@
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C52">
-        <v>1440</v>
+        <v>2847</v>
       </c>
       <c r="D52">
-        <v>902</v>
+        <v>1657</v>
       </c>
       <c r="E52">
-        <v>313</v>
+        <v>750</v>
       </c>
       <c r="F52">
-        <v>225</v>
+        <v>440</v>
       </c>
       <c r="G52">
-        <v>51.29</v>
+        <v>47.6</v>
       </c>
       <c r="H52">
-        <v>49.39</v>
+        <v>48.05</v>
       </c>
       <c r="I52">
-        <v>59.03</v>
+        <v>47.75</v>
       </c>
       <c r="J52">
-        <v>48.11</v>
+        <v>45.64</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3331,170 +3325,6 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" t="s">
-        <v>112</v>
-      </c>
-      <c r="C53">
-        <v>1948</v>
-      </c>
-      <c r="D53">
-        <v>1140</v>
-      </c>
-      <c r="E53">
-        <v>513</v>
-      </c>
-      <c r="F53">
-        <v>295</v>
-      </c>
-      <c r="G53">
-        <v>47.14</v>
-      </c>
-      <c r="H53">
-        <v>46.73</v>
-      </c>
-      <c r="I53">
-        <v>46.15</v>
-      </c>
-      <c r="J53">
-        <v>50.41</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
-      <c r="A54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54">
-        <v>1239</v>
-      </c>
-      <c r="D54">
-        <v>659</v>
-      </c>
-      <c r="E54">
-        <v>334</v>
-      </c>
-      <c r="F54">
-        <v>246</v>
-      </c>
-      <c r="G54">
-        <v>38.37</v>
-      </c>
-      <c r="H54">
-        <v>38.35</v>
-      </c>
-      <c r="I54">
-        <v>39.86</v>
-      </c>
-      <c r="J54">
-        <v>36.39</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
-      <c r="A55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
-      <c r="C55">
-        <v>2847</v>
-      </c>
-      <c r="D55">
-        <v>1657</v>
-      </c>
-      <c r="E55">
-        <v>750</v>
-      </c>
-      <c r="F55">
-        <v>440</v>
-      </c>
-      <c r="G55">
-        <v>47.6</v>
-      </c>
-      <c r="H55">
-        <v>48.05</v>
-      </c>
-      <c r="I55">
-        <v>47.75</v>
-      </c>
-      <c r="J55">
-        <v>45.64</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" t="s">
-        <v>115</v>
-      </c>
-      <c r="C56">
-        <v>3826</v>
-      </c>
-      <c r="D56">
-        <v>2209</v>
-      </c>
-      <c r="E56">
-        <v>1009</v>
-      </c>
-      <c r="F56">
-        <v>608</v>
-      </c>
-      <c r="G56">
-        <v>42.23</v>
-      </c>
-      <c r="H56">
-        <v>42.52</v>
-      </c>
-      <c r="I56">
-        <v>42.21</v>
-      </c>
-      <c r="J56">
-        <v>41.21</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
         <v>0</v>
       </c>
     </row>
@@ -3505,7 +3335,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD56"/>
+  <dimension ref="A1:AD52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3519,88 +3349,88 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -3644,10 +3474,10 @@
         <v>71</v>
       </c>
       <c r="N2">
-        <v>0.6924705170849713</v>
+        <v>0.692470517084971</v>
       </c>
       <c r="O2">
-        <v>0.7877230117931661</v>
+        <v>0.787723011793166</v>
       </c>
       <c r="P2">
         <v>0.0683398850922286</v>
@@ -3683,13 +3513,13 @@
         <v>25</v>
       </c>
       <c r="AB2">
-        <v>0.7007695789950203</v>
+        <v>0.70076957899502</v>
       </c>
       <c r="AC2">
-        <v>0.7926663648709823</v>
+        <v>0.792666364870982</v>
       </c>
       <c r="AD2">
-        <v>0.06971480307831598</v>
+        <v>0.069714803078316</v>
       </c>
     </row>
     <row r="3" spans="1:30">
@@ -3733,10 +3563,10 @@
         <v>96</v>
       </c>
       <c r="N3">
-        <v>0.6777648428405122</v>
+        <v>0.677764842840512</v>
       </c>
       <c r="O3">
-        <v>0.7823050058207218</v>
+        <v>0.782305005820722</v>
       </c>
       <c r="P3">
         <v>0.08195576251455181</v>
@@ -3775,10 +3605,10 @@
         <v>0.6604613516794819</v>
       </c>
       <c r="AC3">
-        <v>0.7685147713476326</v>
+        <v>0.768514771347633</v>
       </c>
       <c r="AD3">
-        <v>0.08943747470659652</v>
+        <v>0.08943747470659651</v>
       </c>
     </row>
     <row r="4" spans="1:30">
@@ -3825,10 +3655,10 @@
         <v>0.69644128113879</v>
       </c>
       <c r="O4">
-        <v>0.7734875444839857</v>
+        <v>0.773487544483986</v>
       </c>
       <c r="P4">
-        <v>0.1060498220640569</v>
+        <v>0.106049822064057</v>
       </c>
       <c r="R4" t="s">
         <v>15</v>
@@ -3861,13 +3691,13 @@
         <v>68</v>
       </c>
       <c r="AB4">
-        <v>0.6829594017094017</v>
+        <v>0.6829594017094019</v>
       </c>
       <c r="AC4">
-        <v>0.7604166666666666</v>
+        <v>0.760416666666667</v>
       </c>
       <c r="AD4">
-        <v>0.1132478632478632</v>
+        <v>0.113247863247863</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -3911,13 +3741,13 @@
         <v>257</v>
       </c>
       <c r="N5">
-        <v>0.6386986301369864</v>
+        <v>0.638698630136986</v>
       </c>
       <c r="O5">
-        <v>0.7220319634703196</v>
+        <v>0.7220319634703199</v>
       </c>
       <c r="P5">
-        <v>0.1424086757990868</v>
+        <v>0.142408675799087</v>
       </c>
       <c r="R5" t="s">
         <v>16</v>
@@ -3950,10 +3780,10 @@
         <v>87</v>
       </c>
       <c r="AB5">
-        <v>0.6230389959659346</v>
+        <v>0.623038995965935</v>
       </c>
       <c r="AC5">
-        <v>0.7046167637830569</v>
+        <v>0.704616763783057</v>
       </c>
       <c r="AD5">
         <v>0.16001792917974</v>
@@ -4000,13 +3830,13 @@
         <v>257</v>
       </c>
       <c r="N6">
-        <v>0.6421052631578947</v>
+        <v>0.642105263157895</v>
       </c>
       <c r="O6">
-        <v>0.7183568677792042</v>
+        <v>0.718356867779204</v>
       </c>
       <c r="P6">
-        <v>0.1370988446726573</v>
+        <v>0.137098844672657</v>
       </c>
       <c r="R6" t="s">
         <v>17</v>
@@ -4039,13 +3869,13 @@
         <v>81</v>
       </c>
       <c r="AB6">
-        <v>0.6355833008193523</v>
+        <v>0.635583300819352</v>
       </c>
       <c r="AC6">
-        <v>0.7108856808427624</v>
+        <v>0.710885680842762</v>
       </c>
       <c r="AD6">
-        <v>0.1439719079204058</v>
+        <v>0.143971907920406</v>
       </c>
     </row>
     <row r="7" spans="1:30">
@@ -4089,13 +3919,13 @@
         <v>286</v>
       </c>
       <c r="N7">
-        <v>0.6276340357428648</v>
+        <v>0.627634035742865</v>
       </c>
       <c r="O7">
-        <v>0.7004534542544678</v>
+        <v>0.700453454254468</v>
       </c>
       <c r="P7">
-        <v>0.1493731661776474</v>
+        <v>0.149373166177647</v>
       </c>
       <c r="R7" t="s">
         <v>18</v>
@@ -4128,13 +3958,13 @@
         <v>93</v>
       </c>
       <c r="AB7">
-        <v>0.6204178163184864</v>
+        <v>0.620417816318486</v>
       </c>
       <c r="AC7">
         <v>0.6937327552227039</v>
       </c>
       <c r="AD7">
-        <v>0.1501773748521876</v>
+        <v>0.150177374852188</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -4178,13 +4008,13 @@
         <v>383</v>
       </c>
       <c r="N8">
-        <v>0.6274509803921569</v>
+        <v>0.627450980392157</v>
       </c>
       <c r="O8">
-        <v>0.7173347214992192</v>
+        <v>0.717334721499219</v>
       </c>
       <c r="P8">
-        <v>0.1343050494534097</v>
+        <v>0.13430504945341</v>
       </c>
       <c r="R8" t="s">
         <v>19</v>
@@ -4217,13 +4047,13 @@
         <v>145</v>
       </c>
       <c r="AB8">
-        <v>0.6097183534509439</v>
+        <v>0.6097183534509441</v>
       </c>
       <c r="AC8">
         <v>0.698545341999381</v>
       </c>
       <c r="AD8">
-        <v>0.1504178272980501</v>
+        <v>0.15041782729805</v>
       </c>
     </row>
     <row r="9" spans="1:30">
@@ -4267,13 +4097,13 @@
         <v>488</v>
       </c>
       <c r="N9">
-        <v>0.6169882839421089</v>
+        <v>0.616988283942109</v>
       </c>
       <c r="O9">
-        <v>0.7064093728463129</v>
+        <v>0.706409372846313</v>
       </c>
       <c r="P9">
-        <v>0.1540317022742936</v>
+        <v>0.154031702274294</v>
       </c>
       <c r="R9" t="s">
         <v>20</v>
@@ -4306,13 +4136,13 @@
         <v>158</v>
       </c>
       <c r="AB9">
-        <v>0.6066427873656789</v>
+        <v>0.606642787365679</v>
       </c>
       <c r="AC9">
-        <v>0.6896776294366656</v>
+        <v>0.689677629436666</v>
       </c>
       <c r="AD9">
-        <v>0.1637902963204168</v>
+        <v>0.163790296320417</v>
       </c>
     </row>
     <row r="10" spans="1:30">
@@ -4356,13 +4186,13 @@
         <v>601</v>
       </c>
       <c r="N10">
-        <v>0.6316972648932184</v>
+        <v>0.631697264893218</v>
       </c>
       <c r="O10">
         <v>0.703446983889097</v>
       </c>
       <c r="P10">
-        <v>0.1785312851255152</v>
+        <v>0.178531285125515</v>
       </c>
       <c r="R10" t="s">
         <v>21</v>
@@ -4395,13 +4225,13 @@
         <v>211</v>
       </c>
       <c r="AB10">
-        <v>0.6161197833705001</v>
+        <v>0.6161197833705</v>
       </c>
       <c r="AC10">
-        <v>0.6852500796431985</v>
+        <v>0.685250079643199</v>
       </c>
       <c r="AD10">
-        <v>0.1987894233832431</v>
+        <v>0.198789423383243</v>
       </c>
     </row>
     <row r="11" spans="1:30">
@@ -4445,13 +4275,13 @@
         <v>552</v>
       </c>
       <c r="N11">
-        <v>0.6150684931506849</v>
+        <v>0.615068493150685</v>
       </c>
       <c r="O11">
-        <v>0.6928082191780822</v>
+        <v>0.692808219178082</v>
       </c>
       <c r="P11">
-        <v>0.1758561643835616</v>
+        <v>0.175856164383562</v>
       </c>
       <c r="R11" t="s">
         <v>22</v>
@@ -4484,13 +4314,13 @@
         <v>156</v>
       </c>
       <c r="AB11">
-        <v>0.6143687268885367</v>
+        <v>0.6143687268885371</v>
       </c>
       <c r="AC11">
-        <v>0.6875330163761225</v>
+        <v>0.687533016376123</v>
       </c>
       <c r="AD11">
-        <v>0.1835710512414157</v>
+        <v>0.183571051241416</v>
       </c>
     </row>
     <row r="12" spans="1:30">
@@ -4534,13 +4364,13 @@
         <v>469</v>
       </c>
       <c r="N12">
-        <v>0.5818024263431543</v>
+        <v>0.581802426343154</v>
       </c>
       <c r="O12">
-        <v>0.6726169844020797</v>
+        <v>0.67261698440208</v>
       </c>
       <c r="P12">
-        <v>0.1778162911611785</v>
+        <v>0.177816291161179</v>
       </c>
       <c r="R12" t="s">
         <v>23</v>
@@ -4573,13 +4403,13 @@
         <v>107</v>
       </c>
       <c r="AB12">
-        <v>0.5623043206011271</v>
+        <v>0.562304320601127</v>
       </c>
       <c r="AC12">
         <v>0.656856606136506</v>
       </c>
       <c r="AD12">
-        <v>0.1884783969943644</v>
+        <v>0.188478396994364</v>
       </c>
     </row>
     <row r="13" spans="1:30">
@@ -4623,13 +4453,13 @@
         <v>378</v>
       </c>
       <c r="N13">
-        <v>0.5375793069790141</v>
+        <v>0.537579306979014</v>
       </c>
       <c r="O13">
-        <v>0.6354319180087847</v>
+        <v>0.635431918008785</v>
       </c>
       <c r="P13">
-        <v>0.1971693509028795</v>
+        <v>0.197169350902879</v>
       </c>
       <c r="R13" t="s">
         <v>24</v>
@@ -4662,13 +4492,13 @@
         <v>75</v>
       </c>
       <c r="AB13">
-        <v>0.5131470829909613</v>
+        <v>0.513147082990961</v>
       </c>
       <c r="AC13">
         <v>0.6105176663927691</v>
       </c>
       <c r="AD13">
-        <v>0.2074774034511093</v>
+        <v>0.207477403451109</v>
       </c>
     </row>
     <row r="14" spans="1:30">
@@ -4712,13 +4542,13 @@
         <v>550</v>
       </c>
       <c r="N14">
-        <v>0.5683305290708544</v>
+        <v>0.568330529070854</v>
       </c>
       <c r="O14">
         <v>0.657693026733969</v>
       </c>
       <c r="P14">
-        <v>0.1962983735277622</v>
+        <v>0.196298373527762</v>
       </c>
       <c r="R14" t="s">
         <v>25</v>
@@ -4751,13 +4581,13 @@
         <v>153</v>
       </c>
       <c r="AB14">
-        <v>0.5548850574712644</v>
+        <v>0.554885057471264</v>
       </c>
       <c r="AC14">
-        <v>0.6431034482758621</v>
+        <v>0.643103448275862</v>
       </c>
       <c r="AD14">
-        <v>0.2002873563218391</v>
+        <v>0.200287356321839</v>
       </c>
     </row>
     <row r="15" spans="1:30">
@@ -4801,13 +4631,13 @@
         <v>664</v>
       </c>
       <c r="N15">
-        <v>0.5360105580693816</v>
+        <v>0.536010558069382</v>
       </c>
       <c r="O15">
-        <v>0.6255656108597285</v>
+        <v>0.6255656108597289</v>
       </c>
       <c r="P15">
-        <v>0.2245475113122172</v>
+        <v>0.224547511312217</v>
       </c>
       <c r="R15" t="s">
         <v>26</v>
@@ -4840,13 +4670,13 @@
         <v>238</v>
       </c>
       <c r="AB15">
-        <v>0.5308641975308642</v>
+        <v>0.530864197530864</v>
       </c>
       <c r="AC15">
-        <v>0.6131687242798354</v>
+        <v>0.613168724279835</v>
       </c>
       <c r="AD15">
-        <v>0.2348844571066793</v>
+        <v>0.234884457106679</v>
       </c>
     </row>
     <row r="16" spans="1:30">
@@ -4890,13 +4720,13 @@
         <v>487</v>
       </c>
       <c r="N16">
-        <v>0.5282321899736148</v>
+        <v>0.528232189973615</v>
       </c>
       <c r="O16">
         <v>0.608707124010554</v>
       </c>
       <c r="P16">
-        <v>0.2327176781002639</v>
+        <v>0.232717678100264</v>
       </c>
       <c r="R16" t="s">
         <v>27</v>
@@ -4929,13 +4759,13 @@
         <v>145</v>
       </c>
       <c r="AB16">
-        <v>0.5431989366415596</v>
+        <v>0.54319893664156</v>
       </c>
       <c r="AC16">
-        <v>0.6163048294195835</v>
+        <v>0.616304829419584</v>
       </c>
       <c r="AD16">
-        <v>0.2264067346034559</v>
+        <v>0.226406734603456</v>
       </c>
     </row>
     <row r="17" spans="1:30">
@@ -4982,10 +4812,10 @@
         <v>0.569060773480663</v>
       </c>
       <c r="O17">
-        <v>0.6551983927674535</v>
+        <v>0.655198392767454</v>
       </c>
       <c r="P17">
-        <v>0.1908588648920141</v>
+        <v>0.190858864892014</v>
       </c>
       <c r="R17" t="s">
         <v>28</v>
@@ -5018,13 +4848,13 @@
         <v>76</v>
       </c>
       <c r="AB17">
-        <v>0.5665661352865144</v>
+        <v>0.566566135286514</v>
       </c>
       <c r="AC17">
-        <v>0.6479965532098233</v>
+        <v>0.647996553209823</v>
       </c>
       <c r="AD17">
-        <v>0.2003446790176648</v>
+        <v>0.200344679017665</v>
       </c>
     </row>
     <row r="18" spans="1:30">
@@ -5071,10 +4901,10 @@
         <v>0.535280778978258</v>
       </c>
       <c r="O18">
-        <v>0.6109110310790983</v>
+        <v>0.6109110310790981</v>
       </c>
       <c r="P18">
-        <v>0.2561024409763906</v>
+        <v>0.256102440976391</v>
       </c>
       <c r="R18" t="s">
         <v>29</v>
@@ -5107,10 +4937,10 @@
         <v>575</v>
       </c>
       <c r="AB18">
-        <v>0.5345289631003917</v>
+        <v>0.534528963100392</v>
       </c>
       <c r="AC18">
-        <v>0.6050298907441765</v>
+        <v>0.605029890744176</v>
       </c>
       <c r="AD18">
         <v>0.261801690373119</v>
@@ -5157,13 +4987,13 @@
         <v>770</v>
       </c>
       <c r="N19">
-        <v>0.5339876408578699</v>
+        <v>0.53398764085787</v>
       </c>
       <c r="O19">
-        <v>0.6199563794983642</v>
+        <v>0.619956379498364</v>
       </c>
       <c r="P19">
-        <v>0.2339149400218103</v>
+        <v>0.23391494002181</v>
       </c>
       <c r="R19" t="s">
         <v>30</v>
@@ -5196,13 +5026,13 @@
         <v>252</v>
       </c>
       <c r="AB19">
-        <v>0.5188560653676932</v>
+        <v>0.518856065367693</v>
       </c>
       <c r="AC19">
-        <v>0.5974230043997486</v>
+        <v>0.597423004399749</v>
       </c>
       <c r="AD19">
-        <v>0.2407291011942175</v>
+        <v>0.240729101194218</v>
       </c>
     </row>
     <row r="20" spans="1:30">
@@ -5246,13 +5076,13 @@
         <v>462</v>
       </c>
       <c r="N20">
-        <v>0.5466266866566717</v>
+        <v>0.546626686656672</v>
       </c>
       <c r="O20">
-        <v>0.6332833583208396</v>
+        <v>0.63328335832084</v>
       </c>
       <c r="P20">
-        <v>0.2257871064467766</v>
+        <v>0.225787106446777</v>
       </c>
       <c r="R20" t="s">
         <v>31</v>
@@ -5288,10 +5118,10 @@
         <v>0.532556908417152</v>
       </c>
       <c r="AC20">
-        <v>0.6161990471148756</v>
+        <v>0.6161990471148761</v>
       </c>
       <c r="AD20">
-        <v>0.2361037586024352</v>
+        <v>0.236103758602435</v>
       </c>
     </row>
     <row r="21" spans="1:30">
@@ -5338,10 +5168,10 @@
         <v>0.529367088607595</v>
       </c>
       <c r="O21">
-        <v>0.6050632911392405</v>
+        <v>0.605063291139241</v>
       </c>
       <c r="P21">
-        <v>0.2531645569620253</v>
+        <v>0.253164556962025</v>
       </c>
       <c r="R21" t="s">
         <v>32</v>
@@ -5374,10 +5204,10 @@
         <v>234</v>
       </c>
       <c r="AB21">
-        <v>0.5174439955930958</v>
+        <v>0.517443995593096</v>
       </c>
       <c r="AC21">
-        <v>0.5960337862651487</v>
+        <v>0.596033786265149</v>
       </c>
       <c r="AD21">
         <v>0.260374586852736</v>
@@ -5424,13 +5254,13 @@
         <v>433</v>
       </c>
       <c r="N22">
-        <v>0.4901303538175046</v>
+        <v>0.490130353817505</v>
       </c>
       <c r="O22">
-        <v>0.5720670391061452</v>
+        <v>0.572067039106145</v>
       </c>
       <c r="P22">
-        <v>0.2685288640595903</v>
+        <v>0.26852886405959</v>
       </c>
       <c r="R22" t="s">
         <v>33</v>
@@ -5463,13 +5293,13 @@
         <v>96</v>
       </c>
       <c r="AB22">
-        <v>0.4635416666666667</v>
+        <v>0.463541666666667</v>
       </c>
       <c r="AC22">
-        <v>0.5514322916666666</v>
+        <v>0.551432291666667</v>
       </c>
       <c r="AD22">
-        <v>0.2825520833333333</v>
+        <v>0.282552083333333</v>
       </c>
     </row>
     <row r="23" spans="1:30">
@@ -5513,13 +5343,13 @@
         <v>560</v>
       </c>
       <c r="N23">
-        <v>0.4992627543497493</v>
+        <v>0.499262754349749</v>
       </c>
       <c r="O23">
-        <v>0.5809495723975229</v>
+        <v>0.580949572397523</v>
       </c>
       <c r="P23">
-        <v>0.2724859923326453</v>
+        <v>0.272485992332645</v>
       </c>
       <c r="R23" t="s">
         <v>34</v>
@@ -5552,13 +5382,13 @@
         <v>159</v>
       </c>
       <c r="AB23">
-        <v>0.4859862506610259</v>
+        <v>0.485986250661026</v>
       </c>
       <c r="AC23">
-        <v>0.5774722369116869</v>
+        <v>0.577472236911687</v>
       </c>
       <c r="AD23">
-        <v>0.2771020624008461</v>
+        <v>0.277102062400846</v>
       </c>
     </row>
     <row r="24" spans="1:30">
@@ -5602,10 +5432,10 @@
         <v>621</v>
       </c>
       <c r="N24">
-        <v>0.4917940011318619</v>
+        <v>0.491794001131862</v>
       </c>
       <c r="O24">
-        <v>0.5721561969439728</v>
+        <v>0.572156196943973</v>
       </c>
       <c r="P24">
         <v>0.279003961516695</v>
@@ -5641,13 +5471,13 @@
         <v>215</v>
       </c>
       <c r="AB24">
-        <v>0.4954954954954955</v>
+        <v>0.495495495495495</v>
       </c>
       <c r="AC24">
-        <v>0.5723370429252782</v>
+        <v>0.572337042925278</v>
       </c>
       <c r="AD24">
-        <v>0.2819289878113407</v>
+        <v>0.281928987811341</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -5691,10 +5521,10 @@
         <v>1606</v>
       </c>
       <c r="N25">
-        <v>0.3081892456773703</v>
+        <v>0.30818924567737</v>
       </c>
       <c r="O25">
-        <v>0.3821014630438913</v>
+        <v>0.382101463043891</v>
       </c>
       <c r="P25">
         <v>0.446703401102033</v>
@@ -5730,13 +5560,13 @@
         <v>827</v>
       </c>
       <c r="AB25">
-        <v>0.2767950052029136</v>
+        <v>0.276795005202914</v>
       </c>
       <c r="AC25">
-        <v>0.3457336108220603</v>
+        <v>0.34573361082206</v>
       </c>
       <c r="AD25">
-        <v>0.4836108220603538</v>
+        <v>0.483610822060354</v>
       </c>
     </row>
     <row r="26" spans="1:30">
@@ -5780,13 +5610,13 @@
         <v>836</v>
       </c>
       <c r="N26">
-        <v>0.4785977859778598</v>
+        <v>0.47859778597786</v>
       </c>
       <c r="O26">
-        <v>0.5699261992619926</v>
+        <v>0.5699261992619929</v>
       </c>
       <c r="P26">
-        <v>0.2706642066420664</v>
+        <v>0.270664206642066</v>
       </c>
       <c r="R26" t="s">
         <v>37</v>
@@ -5819,13 +5649,13 @@
         <v>199</v>
       </c>
       <c r="AB26">
-        <v>0.4838595246541327</v>
+        <v>0.483859524654133</v>
       </c>
       <c r="AC26">
-        <v>0.5714792479602696</v>
+        <v>0.5714792479602701</v>
       </c>
       <c r="AD26">
-        <v>0.2688896771904931</v>
+        <v>0.268889677190493</v>
       </c>
     </row>
     <row r="27" spans="1:30">
@@ -5869,13 +5699,13 @@
         <v>540</v>
       </c>
       <c r="N27">
-        <v>0.5077764976958525</v>
+        <v>0.507776497695853</v>
       </c>
       <c r="O27">
-        <v>0.5938940092165899</v>
+        <v>0.59389400921659</v>
       </c>
       <c r="P27">
-        <v>0.2638248847926267</v>
+        <v>0.263824884792627</v>
       </c>
       <c r="R27" t="s">
         <v>38</v>
@@ -5908,13 +5738,13 @@
         <v>178</v>
       </c>
       <c r="AB27">
-        <v>0.4796149490373726</v>
+        <v>0.479614949037373</v>
       </c>
       <c r="AC27">
-        <v>0.5656851642129105</v>
+        <v>0.56568516421291</v>
       </c>
       <c r="AD27">
-        <v>0.2876557191392978</v>
+        <v>0.287655719139298</v>
       </c>
     </row>
     <row r="28" spans="1:30">
@@ -5958,13 +5788,13 @@
         <v>547</v>
       </c>
       <c r="N28">
-        <v>0.5063465783664459</v>
+        <v>0.506346578366446</v>
       </c>
       <c r="O28">
-        <v>0.5902317880794702</v>
+        <v>0.59023178807947</v>
       </c>
       <c r="P28">
-        <v>0.2431015452538631</v>
+        <v>0.243101545253863</v>
       </c>
       <c r="R28" t="s">
         <v>39</v>
@@ -5997,13 +5827,13 @@
         <v>152</v>
       </c>
       <c r="AB28">
-        <v>0.4995769881556684</v>
+        <v>0.499576988155668</v>
       </c>
       <c r="AC28">
-        <v>0.5786802030456852</v>
+        <v>0.578680203045685</v>
       </c>
       <c r="AD28">
-        <v>0.2538071065989848</v>
+        <v>0.253807106598985</v>
       </c>
     </row>
     <row r="29" spans="1:30">
@@ -6047,13 +5877,13 @@
         <v>764</v>
       </c>
       <c r="N29">
-        <v>0.4822908816880181</v>
+        <v>0.482290881688018</v>
       </c>
       <c r="O29">
-        <v>0.5666917859834213</v>
+        <v>0.566691785983421</v>
       </c>
       <c r="P29">
-        <v>0.2853554383320774</v>
+        <v>0.285355438332077</v>
       </c>
       <c r="R29" t="s">
         <v>40</v>
@@ -6086,13 +5916,13 @@
         <v>282</v>
       </c>
       <c r="AB29">
-        <v>0.4783978397839784</v>
+        <v>0.478397839783978</v>
       </c>
       <c r="AC29">
-        <v>0.5639063906390639</v>
+        <v>0.563906390639064</v>
       </c>
       <c r="AD29">
-        <v>0.2875787578757876</v>
+        <v>0.287578757875788</v>
       </c>
     </row>
     <row r="30" spans="1:30">
@@ -6136,13 +5966,13 @@
         <v>786</v>
       </c>
       <c r="N30">
-        <v>0.4882323485227842</v>
+        <v>0.488232348522784</v>
       </c>
       <c r="O30">
-        <v>0.5668502754131197</v>
+        <v>0.5668502754131201</v>
       </c>
       <c r="P30">
-        <v>0.2979469203805709</v>
+        <v>0.297946920380571</v>
       </c>
       <c r="R30" t="s">
         <v>41</v>
@@ -6175,13 +6005,13 @@
         <v>240</v>
       </c>
       <c r="AB30">
-        <v>0.4826629680998613</v>
+        <v>0.482662968099861</v>
       </c>
       <c r="AC30">
-        <v>0.5635691169671753</v>
+        <v>0.563569116967175</v>
       </c>
       <c r="AD30">
-        <v>0.2991215903837263</v>
+        <v>0.299121590383726</v>
       </c>
     </row>
     <row r="31" spans="1:30">
@@ -6225,13 +6055,13 @@
         <v>349</v>
       </c>
       <c r="N31">
-        <v>0.5086782376502003</v>
+        <v>0.5086782376502</v>
       </c>
       <c r="O31">
-        <v>0.6008010680907877</v>
+        <v>0.600801068090788</v>
       </c>
       <c r="P31">
-        <v>0.2554517133956386</v>
+        <v>0.255451713395639</v>
       </c>
       <c r="R31" t="s">
         <v>42</v>
@@ -6264,13 +6094,13 @@
         <v>128</v>
       </c>
       <c r="AB31">
-        <v>0.4879751745539178</v>
+        <v>0.487975174553918</v>
       </c>
       <c r="AC31">
-        <v>0.5764158262218774</v>
+        <v>0.576415826221877</v>
       </c>
       <c r="AD31">
-        <v>0.2808378588052754</v>
+        <v>0.280837858805275</v>
       </c>
     </row>
     <row r="32" spans="1:30">
@@ -6314,13 +6144,13 @@
         <v>842</v>
       </c>
       <c r="N32">
-        <v>0.4958777397948924</v>
+        <v>0.495877739794892</v>
       </c>
       <c r="O32">
-        <v>0.5771164287150613</v>
+        <v>0.577116428715061</v>
       </c>
       <c r="P32">
-        <v>0.2758898049467122</v>
+        <v>0.275889804946712</v>
       </c>
       <c r="R32" t="s">
         <v>43</v>
@@ -6353,13 +6183,13 @@
         <v>373</v>
       </c>
       <c r="AB32">
-        <v>0.4767811704834606</v>
+        <v>0.476781170483461</v>
       </c>
       <c r="AC32">
-        <v>0.5597964376590331</v>
+        <v>0.559796437659033</v>
       </c>
       <c r="AD32">
-        <v>0.2967557251908397</v>
+        <v>0.29675572519084</v>
       </c>
     </row>
     <row r="33" spans="1:30">
@@ -6403,13 +6233,13 @@
         <v>502</v>
       </c>
       <c r="N33">
-        <v>0.4823459006582885</v>
+        <v>0.482345900658288</v>
       </c>
       <c r="O33">
-        <v>0.5754039497307002</v>
+        <v>0.5754039497307</v>
       </c>
       <c r="P33">
-        <v>0.2639138240574506</v>
+        <v>0.263913824057451</v>
       </c>
       <c r="R33" t="s">
         <v>44</v>
@@ -6442,13 +6272,13 @@
         <v>72</v>
       </c>
       <c r="AB33">
-        <v>0.4657762938230384</v>
+        <v>0.465776293823038</v>
       </c>
       <c r="AC33">
         <v>0.555370061213133</v>
       </c>
       <c r="AD33">
-        <v>0.2771285475792988</v>
+        <v>0.277128547579299</v>
       </c>
     </row>
     <row r="34" spans="1:30">
@@ -6492,13 +6322,13 @@
         <v>413</v>
       </c>
       <c r="N34">
-        <v>0.4781441717791411</v>
+        <v>0.478144171779141</v>
       </c>
       <c r="O34">
-        <v>0.5640337423312883</v>
+        <v>0.564033742331288</v>
       </c>
       <c r="P34">
-        <v>0.2733895705521472</v>
+        <v>0.273389570552147</v>
       </c>
       <c r="R34" t="s">
         <v>45</v>
@@ -6531,13 +6361,13 @@
         <v>138</v>
       </c>
       <c r="AB34">
-        <v>0.4727520435967302</v>
+        <v>0.47275204359673</v>
       </c>
       <c r="AC34">
         <v>0.555858310626703</v>
       </c>
       <c r="AD34">
-        <v>0.2840599455040872</v>
+        <v>0.284059945504087</v>
       </c>
     </row>
     <row r="35" spans="1:30">
@@ -6581,13 +6411,13 @@
         <v>577</v>
       </c>
       <c r="N35">
-        <v>0.5232318608377203</v>
+        <v>0.52323186083772</v>
       </c>
       <c r="O35">
-        <v>0.6168459601739529</v>
+        <v>0.616845960173953</v>
       </c>
       <c r="P35">
-        <v>0.2275120164797436</v>
+        <v>0.227512016479744</v>
       </c>
       <c r="R35" t="s">
         <v>46</v>
@@ -6623,10 +6453,10 @@
         <v>0.5231105559025609</v>
       </c>
       <c r="AC35">
-        <v>0.6164896939412867</v>
+        <v>0.6164896939412871</v>
       </c>
       <c r="AD35">
-        <v>0.2292317301686446</v>
+        <v>0.229231730168645</v>
       </c>
     </row>
     <row r="36" spans="1:30">
@@ -6670,13 +6500,13 @@
         <v>215</v>
       </c>
       <c r="N36">
-        <v>0.6577736890524379</v>
+        <v>0.657773689052438</v>
       </c>
       <c r="O36">
-        <v>0.7667893284268629</v>
+        <v>0.766789328426863</v>
       </c>
       <c r="P36">
-        <v>0.1338546458141674</v>
+        <v>0.133854645814167</v>
       </c>
       <c r="R36" t="s">
         <v>47</v>
@@ -6712,7 +6542,7 @@
         <v>0.656047197640118</v>
       </c>
       <c r="AC36">
-        <v>0.7651917404129793</v>
+        <v>0.765191740412979</v>
       </c>
       <c r="AD36">
         <v>0.128023598820059</v>
@@ -6759,13 +6589,13 @@
         <v>261</v>
       </c>
       <c r="N37">
-        <v>0.5656125045438023</v>
+        <v>0.565612504543802</v>
       </c>
       <c r="O37">
         <v>0.668120683387859</v>
       </c>
       <c r="P37">
-        <v>0.1690294438386041</v>
+        <v>0.169029443838604</v>
       </c>
       <c r="R37" t="s">
         <v>48</v>
@@ -6798,13 +6628,13 @@
         <v>87</v>
       </c>
       <c r="AB37">
-        <v>0.5715990453460621</v>
+        <v>0.571599045346062</v>
       </c>
       <c r="AC37">
-        <v>0.6730310262529833</v>
+        <v>0.6730310262529829</v>
       </c>
       <c r="AD37">
-        <v>0.1628878281622912</v>
+        <v>0.162887828162291</v>
       </c>
     </row>
     <row r="38" spans="1:30">
@@ -6848,13 +6678,13 @@
         <v>228</v>
       </c>
       <c r="N38">
-        <v>0.6502828854314003</v>
+        <v>0.6502828854314</v>
       </c>
       <c r="O38">
-        <v>0.7595473833097596</v>
+        <v>0.75954738330976</v>
       </c>
       <c r="P38">
-        <v>0.1368458274398869</v>
+        <v>0.136845827439887</v>
       </c>
       <c r="R38" t="s">
         <v>49</v>
@@ -6887,13 +6717,13 @@
         <v>66</v>
       </c>
       <c r="AB38">
-        <v>0.6639150943396226</v>
+        <v>0.663915094339623</v>
       </c>
       <c r="AC38">
-        <v>0.7700471698113207</v>
+        <v>0.770047169811321</v>
       </c>
       <c r="AD38">
-        <v>0.1308962264150944</v>
+        <v>0.130896226415094</v>
       </c>
     </row>
     <row r="39" spans="1:30">
@@ -6937,13 +6767,13 @@
         <v>337</v>
       </c>
       <c r="N39">
-        <v>0.6037781545168321</v>
+        <v>0.603778154516832</v>
       </c>
       <c r="O39">
-        <v>0.6887866311455558</v>
+        <v>0.688786631145556</v>
       </c>
       <c r="P39">
-        <v>0.1491886655364495</v>
+        <v>0.149188665536449</v>
       </c>
       <c r="R39" t="s">
         <v>50</v>
@@ -6976,13 +6806,13 @@
         <v>152</v>
       </c>
       <c r="AB39">
-        <v>0.5957602339181286</v>
+        <v>0.595760233918129</v>
       </c>
       <c r="AC39">
-        <v>0.6827485380116959</v>
+        <v>0.682748538011696</v>
       </c>
       <c r="AD39">
-        <v>0.1593567251461988</v>
+        <v>0.159356725146199</v>
       </c>
     </row>
     <row r="40" spans="1:30">
@@ -7029,10 +6859,10 @@
         <v>0.591348890153671</v>
       </c>
       <c r="O40">
-        <v>0.6733067729083665</v>
+        <v>0.673306772908366</v>
       </c>
       <c r="P40">
-        <v>0.1869664200341491</v>
+        <v>0.186966420034149</v>
       </c>
       <c r="R40" t="s">
         <v>51</v>
@@ -7065,1437 +6895,1081 @@
         <v>122</v>
       </c>
       <c r="AB40">
-        <v>0.5861723446893787</v>
+        <v>0.586172344689379</v>
       </c>
       <c r="AC40">
-        <v>0.6708416833667334</v>
+        <v>0.670841683366733</v>
       </c>
       <c r="AD40">
-        <v>0.1848697394789579</v>
+        <v>0.184869739478958</v>
       </c>
     </row>
     <row r="41" spans="1:30">
       <c r="A41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B41">
-        <v>3514</v>
+        <v>5394</v>
       </c>
       <c r="C41">
-        <v>1284</v>
+        <v>2290</v>
       </c>
       <c r="D41">
-        <v>794</v>
+        <v>1091</v>
       </c>
       <c r="E41">
-        <v>288</v>
+        <v>417</v>
       </c>
       <c r="F41">
-        <v>321</v>
+        <v>452</v>
       </c>
       <c r="G41">
-        <v>170</v>
+        <v>267</v>
       </c>
       <c r="H41">
-        <v>259</v>
+        <v>443</v>
       </c>
       <c r="I41">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="J41">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="K41">
-        <v>2078</v>
+        <v>3381</v>
       </c>
       <c r="L41">
-        <v>657</v>
+        <v>877</v>
       </c>
       <c r="M41">
-        <v>398</v>
+        <v>434</v>
       </c>
       <c r="N41">
-        <v>0.591348890153671</v>
+        <v>0.626807563959956</v>
       </c>
       <c r="O41">
-        <v>0.6733067729083665</v>
+        <v>0.7041156840934371</v>
       </c>
       <c r="P41">
-        <v>0.1869664200341491</v>
+        <v>0.162588060808306</v>
       </c>
       <c r="R41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="S41">
-        <v>1996</v>
+        <v>4111</v>
       </c>
       <c r="T41">
-        <v>752</v>
+        <v>1772</v>
       </c>
       <c r="U41">
-        <v>418</v>
+        <v>820</v>
       </c>
       <c r="V41">
-        <v>169</v>
+        <v>317</v>
       </c>
       <c r="W41">
-        <v>191</v>
+        <v>343</v>
       </c>
       <c r="X41">
-        <v>97</v>
+        <v>196</v>
       </c>
       <c r="Y41">
-        <v>135</v>
+        <v>331</v>
       </c>
       <c r="Z41">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="AA41">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="AB41">
-        <v>0.5861723446893787</v>
+        <v>0.630503527122355</v>
       </c>
       <c r="AC41">
-        <v>0.6708416833667334</v>
+        <v>0.707613719289711</v>
       </c>
       <c r="AD41">
-        <v>0.1848697394789579</v>
+        <v>0.161274629044028</v>
       </c>
     </row>
     <row r="42" spans="1:30">
       <c r="A42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B42">
-        <v>3514</v>
+        <v>1859</v>
       </c>
       <c r="C42">
-        <v>1284</v>
+        <v>445</v>
       </c>
       <c r="D42">
-        <v>794</v>
+        <v>321</v>
       </c>
       <c r="E42">
-        <v>288</v>
+        <v>161</v>
       </c>
       <c r="F42">
-        <v>321</v>
+        <v>177</v>
       </c>
       <c r="G42">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="H42">
-        <v>259</v>
+        <v>331</v>
       </c>
       <c r="I42">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="J42">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="K42">
-        <v>2078</v>
+        <v>766</v>
       </c>
       <c r="L42">
-        <v>657</v>
+        <v>620</v>
       </c>
       <c r="M42">
-        <v>398</v>
+        <v>289</v>
       </c>
       <c r="N42">
-        <v>0.591348890153671</v>
+        <v>0.412049488972566</v>
       </c>
       <c r="O42">
-        <v>0.6733067729083665</v>
+        <v>0.498655190962883</v>
       </c>
       <c r="P42">
-        <v>0.1869664200341491</v>
+        <v>0.333512641204949</v>
       </c>
       <c r="R42" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S42">
-        <v>1996</v>
+        <v>1290</v>
       </c>
       <c r="T42">
-        <v>752</v>
+        <v>283</v>
       </c>
       <c r="U42">
-        <v>418</v>
+        <v>204</v>
       </c>
       <c r="V42">
-        <v>169</v>
+        <v>108</v>
       </c>
       <c r="W42">
-        <v>191</v>
+        <v>124</v>
       </c>
       <c r="X42">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Y42">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="Z42">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="AA42">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="AB42">
-        <v>0.5861723446893787</v>
+        <v>0.377519379844961</v>
       </c>
       <c r="AC42">
-        <v>0.6708416833667334</v>
+        <v>0.461240310077519</v>
       </c>
       <c r="AD42">
-        <v>0.1848697394789579</v>
+        <v>0.366666666666667</v>
       </c>
     </row>
     <row r="43" spans="1:30">
       <c r="A43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B43">
-        <v>3514</v>
+        <v>2446</v>
       </c>
       <c r="C43">
-        <v>1284</v>
+        <v>459</v>
       </c>
       <c r="D43">
-        <v>794</v>
+        <v>517</v>
       </c>
       <c r="E43">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="F43">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="G43">
-        <v>170</v>
+        <v>205</v>
       </c>
       <c r="H43">
-        <v>259</v>
+        <v>458</v>
       </c>
       <c r="I43">
+        <v>101</v>
+      </c>
+      <c r="J43">
+        <v>82</v>
+      </c>
+      <c r="K43">
+        <v>976</v>
+      </c>
+      <c r="L43">
+        <v>641</v>
+      </c>
+      <c r="M43">
         <v>183</v>
       </c>
-      <c r="J43">
-        <v>215</v>
-      </c>
-      <c r="K43">
-        <v>2078</v>
-      </c>
-      <c r="L43">
-        <v>657</v>
-      </c>
-      <c r="M43">
-        <v>398</v>
-      </c>
       <c r="N43">
-        <v>0.591348890153671</v>
+        <v>0.399018806214227</v>
       </c>
       <c r="O43">
-        <v>0.6733067729083665</v>
+        <v>0.513900245298446</v>
       </c>
       <c r="P43">
-        <v>0.1869664200341491</v>
+        <v>0.262060506950123</v>
       </c>
       <c r="R43" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="S43">
-        <v>1996</v>
+        <v>1574</v>
       </c>
       <c r="T43">
-        <v>752</v>
+        <v>278</v>
       </c>
       <c r="U43">
-        <v>418</v>
+        <v>306</v>
       </c>
       <c r="V43">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="W43">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="X43">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="Y43">
-        <v>135</v>
+        <v>324</v>
       </c>
       <c r="Z43">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="AA43">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="AB43">
-        <v>0.5861723446893787</v>
+        <v>0.371029224904701</v>
       </c>
       <c r="AC43">
-        <v>0.6708416833667334</v>
+        <v>0.485387547649301</v>
       </c>
       <c r="AD43">
-        <v>0.1848697394789579</v>
+        <v>0.283354510800508</v>
       </c>
     </row>
     <row r="44" spans="1:30">
       <c r="A44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B44">
-        <v>5394</v>
+        <v>2642</v>
       </c>
       <c r="C44">
-        <v>2290</v>
+        <v>833</v>
       </c>
       <c r="D44">
-        <v>1091</v>
+        <v>635</v>
       </c>
       <c r="E44">
-        <v>417</v>
+        <v>271</v>
       </c>
       <c r="F44">
-        <v>452</v>
+        <v>294</v>
       </c>
       <c r="G44">
-        <v>267</v>
+        <v>173</v>
       </c>
       <c r="H44">
-        <v>443</v>
+        <v>227</v>
       </c>
       <c r="I44">
-        <v>204</v>
+        <v>85</v>
       </c>
       <c r="J44">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="K44">
-        <v>3381</v>
+        <v>1468</v>
       </c>
       <c r="L44">
-        <v>877</v>
+        <v>436</v>
       </c>
       <c r="M44">
-        <v>434</v>
+        <v>209</v>
       </c>
       <c r="N44">
-        <v>0.6268075639599555</v>
+        <v>0.555639666919001</v>
       </c>
       <c r="O44">
-        <v>0.7041156840934372</v>
+        <v>0.658213474640424</v>
       </c>
       <c r="P44">
-        <v>0.1625880608083055</v>
+        <v>0.165026495079485</v>
       </c>
       <c r="R44" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="S44">
-        <v>4111</v>
+        <v>1544</v>
       </c>
       <c r="T44">
-        <v>1772</v>
+        <v>472</v>
       </c>
       <c r="U44">
-        <v>820</v>
+        <v>361</v>
       </c>
       <c r="V44">
-        <v>317</v>
+        <v>176</v>
       </c>
       <c r="W44">
-        <v>343</v>
+        <v>185</v>
       </c>
       <c r="X44">
-        <v>196</v>
+        <v>103</v>
       </c>
       <c r="Y44">
-        <v>331</v>
+        <v>128</v>
       </c>
       <c r="Z44">
-        <v>156</v>
+        <v>50</v>
       </c>
       <c r="AA44">
-        <v>176</v>
+        <v>69</v>
       </c>
       <c r="AB44">
-        <v>0.6305035271223547</v>
+        <v>0.539507772020725</v>
       </c>
       <c r="AC44">
-        <v>0.7076137192897105</v>
+        <v>0.653497409326425</v>
       </c>
       <c r="AD44">
-        <v>0.1612746290440282</v>
+        <v>0.159974093264249</v>
       </c>
     </row>
     <row r="45" spans="1:30">
       <c r="A45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B45">
-        <v>1859</v>
+        <v>3847</v>
       </c>
       <c r="C45">
-        <v>445</v>
+        <v>1530</v>
       </c>
       <c r="D45">
-        <v>321</v>
+        <v>827</v>
       </c>
       <c r="E45">
-        <v>161</v>
+        <v>328</v>
       </c>
       <c r="F45">
-        <v>177</v>
+        <v>334</v>
       </c>
       <c r="G45">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="H45">
-        <v>331</v>
+        <v>250</v>
       </c>
       <c r="I45">
-        <v>83</v>
+        <v>178</v>
       </c>
       <c r="J45">
-        <v>206</v>
+        <v>225</v>
       </c>
       <c r="K45">
-        <v>766</v>
+        <v>2357</v>
       </c>
       <c r="L45">
-        <v>620</v>
+        <v>653</v>
       </c>
       <c r="M45">
-        <v>289</v>
+        <v>403</v>
       </c>
       <c r="N45">
-        <v>0.4120494889725659</v>
+        <v>0.612685209253964</v>
       </c>
       <c r="O45">
-        <v>0.4986551909628832</v>
+        <v>0.697946451780608</v>
       </c>
       <c r="P45">
-        <v>0.3335126412049489</v>
+        <v>0.169742656615545</v>
       </c>
       <c r="R45" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="S45">
-        <v>1290</v>
+        <v>2286</v>
       </c>
       <c r="T45">
-        <v>283</v>
+        <v>886</v>
       </c>
       <c r="U45">
-        <v>204</v>
+        <v>453</v>
       </c>
       <c r="V45">
-        <v>108</v>
+        <v>182</v>
       </c>
       <c r="W45">
-        <v>124</v>
+        <v>219</v>
       </c>
       <c r="X45">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="Y45">
-        <v>267</v>
+        <v>167</v>
       </c>
       <c r="Z45">
-        <v>69</v>
+        <v>123</v>
       </c>
       <c r="AA45">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AB45">
-        <v>0.3775193798449613</v>
+        <v>0.585739282589676</v>
       </c>
       <c r="AC45">
-        <v>0.4612403100775194</v>
+        <v>0.665354330708661</v>
       </c>
       <c r="AD45">
-        <v>0.3666666666666666</v>
+        <v>0.187226596675416</v>
       </c>
     </row>
     <row r="46" spans="1:30">
       <c r="A46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B46">
-        <v>2446</v>
+        <v>2492</v>
       </c>
       <c r="C46">
-        <v>459</v>
+        <v>887</v>
       </c>
       <c r="D46">
-        <v>517</v>
+        <v>561</v>
       </c>
       <c r="E46">
-        <v>281</v>
+        <v>214</v>
       </c>
       <c r="F46">
-        <v>343</v>
+        <v>235</v>
       </c>
       <c r="G46">
-        <v>205</v>
+        <v>106</v>
       </c>
       <c r="H46">
-        <v>458</v>
+        <v>180</v>
       </c>
       <c r="I46">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="J46">
-        <v>82</v>
+        <v>188</v>
       </c>
       <c r="K46">
-        <v>976</v>
+        <v>1448</v>
       </c>
       <c r="L46">
-        <v>641</v>
+        <v>489</v>
       </c>
       <c r="M46">
-        <v>183</v>
+        <v>309</v>
       </c>
       <c r="N46">
-        <v>0.3990188062142273</v>
+        <v>0.581059390048154</v>
       </c>
       <c r="O46">
-        <v>0.5139002452984465</v>
+        <v>0.6669341894060991</v>
       </c>
       <c r="P46">
-        <v>0.2620605069501227</v>
+        <v>0.196227929373997</v>
       </c>
       <c r="R46" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="S46">
-        <v>1574</v>
+        <v>1381</v>
       </c>
       <c r="T46">
+        <v>474</v>
+      </c>
+      <c r="U46">
         <v>278</v>
       </c>
-      <c r="U46">
-        <v>306</v>
-      </c>
       <c r="V46">
-        <v>180</v>
+        <v>108</v>
       </c>
       <c r="W46">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="X46">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="Y46">
-        <v>324</v>
+        <v>119</v>
       </c>
       <c r="Z46">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="AA46">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="AB46">
-        <v>0.3710292249047014</v>
+        <v>0.544532947139754</v>
       </c>
       <c r="AC46">
-        <v>0.4853875476493011</v>
+        <v>0.622737146994931</v>
       </c>
       <c r="AD46">
-        <v>0.2833545108005083</v>
+        <v>0.227371469949312</v>
       </c>
     </row>
     <row r="47" spans="1:30">
       <c r="A47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B47">
-        <v>2642</v>
+        <v>2215</v>
       </c>
       <c r="C47">
-        <v>833</v>
+        <v>635</v>
       </c>
       <c r="D47">
-        <v>635</v>
+        <v>446</v>
       </c>
       <c r="E47">
-        <v>271</v>
+        <v>200</v>
       </c>
       <c r="F47">
-        <v>294</v>
+        <v>252</v>
       </c>
       <c r="G47">
-        <v>173</v>
+        <v>133</v>
       </c>
       <c r="H47">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="I47">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="J47">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="K47">
-        <v>1468</v>
+        <v>1081</v>
       </c>
       <c r="L47">
-        <v>436</v>
+        <v>549</v>
       </c>
       <c r="M47">
-        <v>209</v>
+        <v>293</v>
       </c>
       <c r="N47">
-        <v>0.5556396669190008</v>
+        <v>0.48803611738149</v>
       </c>
       <c r="O47">
-        <v>0.6582134746404239</v>
+        <v>0.578329571106095</v>
       </c>
       <c r="P47">
-        <v>0.1650264950794852</v>
+        <v>0.247855530474041</v>
       </c>
       <c r="R47" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="S47">
-        <v>1544</v>
+        <v>1264</v>
       </c>
       <c r="T47">
-        <v>472</v>
+        <v>364</v>
       </c>
       <c r="U47">
-        <v>361</v>
+        <v>253</v>
       </c>
       <c r="V47">
-        <v>176</v>
+        <v>106</v>
       </c>
       <c r="W47">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="X47">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="Y47">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="Z47">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="AA47">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AB47">
-        <v>0.5395077720207254</v>
+        <v>0.488132911392405</v>
       </c>
       <c r="AC47">
-        <v>0.6534974093264249</v>
+        <v>0.571993670886076</v>
       </c>
       <c r="AD47">
-        <v>0.1599740932642487</v>
+        <v>0.253955696202532</v>
       </c>
     </row>
     <row r="48" spans="1:30">
       <c r="A48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B48">
-        <v>3847</v>
+        <v>2508</v>
       </c>
       <c r="C48">
-        <v>1530</v>
+        <v>678</v>
       </c>
       <c r="D48">
-        <v>827</v>
+        <v>494</v>
       </c>
       <c r="E48">
-        <v>328</v>
+        <v>232</v>
       </c>
       <c r="F48">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="G48">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="H48">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="I48">
         <v>178</v>
       </c>
       <c r="J48">
-        <v>225</v>
+        <v>162</v>
       </c>
       <c r="K48">
-        <v>2357</v>
+        <v>1172</v>
       </c>
       <c r="L48">
-        <v>653</v>
+        <v>622</v>
       </c>
       <c r="M48">
-        <v>403</v>
+        <v>340</v>
       </c>
       <c r="N48">
-        <v>0.6126852092539641</v>
+        <v>0.467304625199362</v>
       </c>
       <c r="O48">
-        <v>0.6979464517806082</v>
+        <v>0.559808612440191</v>
       </c>
       <c r="P48">
-        <v>0.1697426566155446</v>
+        <v>0.248006379585327</v>
       </c>
       <c r="R48" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="S48">
-        <v>2286</v>
+        <v>1413</v>
       </c>
       <c r="T48">
-        <v>886</v>
+        <v>384</v>
       </c>
       <c r="U48">
-        <v>453</v>
+        <v>275</v>
       </c>
       <c r="V48">
-        <v>182</v>
+        <v>118</v>
       </c>
       <c r="W48">
-        <v>219</v>
+        <v>177</v>
       </c>
       <c r="X48">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="Y48">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="Z48">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="AA48">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="AB48">
-        <v>0.5857392825896763</v>
+        <v>0.466383581033263</v>
       </c>
       <c r="AC48">
-        <v>0.6653543307086615</v>
+        <v>0.549893842887473</v>
       </c>
       <c r="AD48">
-        <v>0.1872265966754156</v>
+        <v>0.253361641896674</v>
       </c>
     </row>
     <row r="49" spans="1:30">
       <c r="A49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B49">
-        <v>2492</v>
+        <v>1440</v>
       </c>
       <c r="C49">
-        <v>887</v>
+        <v>541</v>
       </c>
       <c r="D49">
-        <v>561</v>
+        <v>349</v>
       </c>
       <c r="E49">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="F49">
-        <v>235</v>
+        <v>112</v>
       </c>
       <c r="G49">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="H49">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="I49">
-        <v>121</v>
+        <v>66</v>
       </c>
       <c r="J49">
-        <v>188</v>
+        <v>37</v>
       </c>
       <c r="K49">
-        <v>1448</v>
+        <v>890</v>
       </c>
       <c r="L49">
-        <v>489</v>
+        <v>237</v>
       </c>
       <c r="M49">
-        <v>309</v>
+        <v>103</v>
       </c>
       <c r="N49">
-        <v>0.5810593900481541</v>
+        <v>0.618055555555556</v>
       </c>
       <c r="O49">
-        <v>0.6669341894060995</v>
+        <v>0.706944444444444</v>
       </c>
       <c r="P49">
-        <v>0.1962279293739968</v>
+        <v>0.164583333333333</v>
       </c>
       <c r="R49" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="S49">
-        <v>1381</v>
+        <v>902</v>
       </c>
       <c r="T49">
-        <v>474</v>
+        <v>362</v>
       </c>
       <c r="U49">
-        <v>278</v>
+        <v>200</v>
       </c>
       <c r="V49">
-        <v>108</v>
+        <v>89</v>
       </c>
       <c r="W49">
-        <v>135</v>
+        <v>66</v>
       </c>
       <c r="X49">
-        <v>72</v>
+        <v>46</v>
       </c>
       <c r="Y49">
-        <v>119</v>
+        <v>84</v>
       </c>
       <c r="Z49">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="AA49">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="AB49">
-        <v>0.5445329471397538</v>
+        <v>0.623059866962306</v>
       </c>
       <c r="AC49">
-        <v>0.6227371469949312</v>
+        <v>0.721729490022173</v>
       </c>
       <c r="AD49">
-        <v>0.2273714699493121</v>
+        <v>0.15410199556541</v>
       </c>
     </row>
     <row r="50" spans="1:30">
       <c r="A50" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50">
+        <v>1948</v>
+      </c>
+      <c r="C50">
+        <v>640</v>
+      </c>
+      <c r="D50">
+        <v>400</v>
+      </c>
+      <c r="E50">
+        <v>171</v>
+      </c>
+      <c r="F50">
+        <v>203</v>
+      </c>
+      <c r="G50">
+        <v>97</v>
+      </c>
+      <c r="H50">
+        <v>162</v>
+      </c>
+      <c r="I50">
+        <v>95</v>
+      </c>
+      <c r="J50">
+        <v>180</v>
+      </c>
+      <c r="K50">
+        <v>1040</v>
+      </c>
+      <c r="L50">
+        <v>437</v>
+      </c>
+      <c r="M50">
+        <v>275</v>
+      </c>
+      <c r="N50">
+        <v>0.53388090349076</v>
+      </c>
+      <c r="O50">
+        <v>0.621663244353183</v>
+      </c>
+      <c r="P50">
+        <v>0.224332648870637</v>
+      </c>
+      <c r="R50" t="s">
+        <v>61</v>
+      </c>
+      <c r="S50">
+        <v>1140</v>
+      </c>
+      <c r="T50">
+        <v>366</v>
+      </c>
+      <c r="U50">
+        <v>215</v>
+      </c>
+      <c r="V50">
+        <v>110</v>
+      </c>
+      <c r="W50">
+        <v>132</v>
+      </c>
+      <c r="X50">
+        <v>59</v>
+      </c>
+      <c r="Y50">
+        <v>95</v>
+      </c>
+      <c r="Z50">
         <v>58</v>
       </c>
-      <c r="B50">
-        <v>2215</v>
-      </c>
-      <c r="C50">
-        <v>635</v>
-      </c>
-      <c r="D50">
-        <v>446</v>
-      </c>
-      <c r="E50">
-        <v>200</v>
-      </c>
-      <c r="F50">
-        <v>252</v>
-      </c>
-      <c r="G50">
-        <v>133</v>
-      </c>
-      <c r="H50">
-        <v>256</v>
-      </c>
-      <c r="I50">
-        <v>152</v>
-      </c>
-      <c r="J50">
-        <v>141</v>
-      </c>
-      <c r="K50">
-        <v>1081</v>
-      </c>
-      <c r="L50">
-        <v>549</v>
-      </c>
-      <c r="M50">
-        <v>293</v>
-      </c>
-      <c r="N50">
-        <v>0.4880361173814898</v>
-      </c>
-      <c r="O50">
-        <v>0.5783295711060948</v>
-      </c>
-      <c r="P50">
-        <v>0.2478555304740406</v>
-      </c>
-      <c r="R50" t="s">
-        <v>58</v>
-      </c>
-      <c r="S50">
-        <v>1264</v>
-      </c>
-      <c r="T50">
-        <v>364</v>
-      </c>
-      <c r="U50">
-        <v>253</v>
-      </c>
-      <c r="V50">
-        <v>106</v>
-      </c>
-      <c r="W50">
-        <v>146</v>
-      </c>
-      <c r="X50">
-        <v>74</v>
-      </c>
-      <c r="Y50">
-        <v>159</v>
-      </c>
-      <c r="Z50">
-        <v>89</v>
-      </c>
       <c r="AA50">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="AB50">
-        <v>0.4881329113924051</v>
+        <v>0.509649122807018</v>
       </c>
       <c r="AC50">
-        <v>0.571993670886076</v>
+        <v>0.606140350877193</v>
       </c>
       <c r="AD50">
-        <v>0.2539556962025317</v>
+        <v>0.226315789473684</v>
       </c>
     </row>
     <row r="51" spans="1:30">
       <c r="A51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B51">
-        <v>2508</v>
+        <v>1239</v>
       </c>
       <c r="C51">
-        <v>678</v>
+        <v>419</v>
       </c>
       <c r="D51">
-        <v>494</v>
+        <v>248</v>
       </c>
       <c r="E51">
-        <v>232</v>
+        <v>89</v>
       </c>
       <c r="F51">
-        <v>301</v>
+        <v>96</v>
       </c>
       <c r="G51">
-        <v>181</v>
+        <v>60</v>
       </c>
       <c r="H51">
-        <v>282</v>
+        <v>118</v>
       </c>
       <c r="I51">
-        <v>178</v>
+        <v>95</v>
       </c>
       <c r="J51">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="K51">
-        <v>1172</v>
+        <v>667</v>
       </c>
       <c r="L51">
-        <v>622</v>
+        <v>327</v>
       </c>
       <c r="M51">
-        <v>340</v>
+        <v>209</v>
       </c>
       <c r="N51">
-        <v>0.4673046251993621</v>
+        <v>0.538337368845843</v>
       </c>
       <c r="O51">
-        <v>0.5598086124401914</v>
+        <v>0.610169491525424</v>
       </c>
       <c r="P51">
-        <v>0.248006379585327</v>
+        <v>0.263922518159806</v>
       </c>
       <c r="R51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="S51">
-        <v>1413</v>
+        <v>659</v>
       </c>
       <c r="T51">
-        <v>384</v>
+        <v>226</v>
       </c>
       <c r="U51">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="V51">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="W51">
-        <v>177</v>
+        <v>52</v>
       </c>
       <c r="X51">
-        <v>101</v>
+        <v>40</v>
       </c>
       <c r="Y51">
-        <v>180</v>
+        <v>65</v>
       </c>
       <c r="Z51">
-        <v>97</v>
+        <v>46</v>
       </c>
       <c r="AA51">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="AB51">
-        <v>0.4663835810332626</v>
+        <v>0.537177541729894</v>
       </c>
       <c r="AC51">
-        <v>0.5498938428874734</v>
+        <v>0.61608497723824</v>
       </c>
       <c r="AD51">
-        <v>0.2533616418966738</v>
+        <v>0.244309559939302</v>
       </c>
     </row>
     <row r="52" spans="1:30">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B52">
-        <v>1440</v>
+        <v>2847</v>
       </c>
       <c r="C52">
-        <v>541</v>
+        <v>1126</v>
       </c>
       <c r="D52">
-        <v>349</v>
+        <v>585</v>
       </c>
       <c r="E52">
-        <v>128</v>
+        <v>235</v>
       </c>
       <c r="F52">
+        <v>279</v>
+      </c>
+      <c r="G52">
+        <v>124</v>
+      </c>
+      <c r="H52">
+        <v>183</v>
+      </c>
+      <c r="I52">
+        <v>125</v>
+      </c>
+      <c r="J52">
+        <v>190</v>
+      </c>
+      <c r="K52">
+        <v>1711</v>
+      </c>
+      <c r="L52">
+        <v>498</v>
+      </c>
+      <c r="M52">
+        <v>315</v>
+      </c>
+      <c r="N52">
+        <v>0.60098349139445</v>
+      </c>
+      <c r="O52">
+        <v>0.683526519142957</v>
+      </c>
+      <c r="P52">
+        <v>0.174920969441517</v>
+      </c>
+      <c r="R52" t="s">
+        <v>63</v>
+      </c>
+      <c r="S52">
+        <v>1657</v>
+      </c>
+      <c r="T52">
+        <v>643</v>
+      </c>
+      <c r="U52">
+        <v>315</v>
+      </c>
+      <c r="V52">
+        <v>126</v>
+      </c>
+      <c r="W52">
+        <v>171</v>
+      </c>
+      <c r="X52">
+        <v>78</v>
+      </c>
+      <c r="Y52">
         <v>112</v>
       </c>
-      <c r="G52">
-        <v>73</v>
-      </c>
-      <c r="H52">
-        <v>134</v>
-      </c>
-      <c r="I52">
-        <v>66</v>
-      </c>
-      <c r="J52">
-        <v>37</v>
-      </c>
-      <c r="K52">
-        <v>890</v>
-      </c>
-      <c r="L52">
-        <v>237</v>
-      </c>
-      <c r="M52">
-        <v>103</v>
-      </c>
-      <c r="N52">
-        <v>0.6180555555555556</v>
-      </c>
-      <c r="O52">
-        <v>0.7069444444444445</v>
-      </c>
-      <c r="P52">
-        <v>0.1645833333333333</v>
-      </c>
-      <c r="R52" t="s">
-        <v>60</v>
-      </c>
-      <c r="S52">
-        <v>902</v>
-      </c>
-      <c r="T52">
-        <v>362</v>
-      </c>
-      <c r="U52">
-        <v>200</v>
-      </c>
-      <c r="V52">
-        <v>89</v>
-      </c>
-      <c r="W52">
-        <v>66</v>
-      </c>
-      <c r="X52">
-        <v>46</v>
-      </c>
-      <c r="Y52">
-        <v>84</v>
-      </c>
       <c r="Z52">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="AA52">
-        <v>18</v>
+        <v>130</v>
       </c>
       <c r="AB52">
-        <v>0.623059866962306</v>
+        <v>0.578153289076645</v>
       </c>
       <c r="AC52">
-        <v>0.7217294900221729</v>
+        <v>0.654194327097164</v>
       </c>
       <c r="AD52">
-        <v>0.1541019955654102</v>
-      </c>
-    </row>
-    <row r="53" spans="1:30">
-      <c r="A53" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53">
-        <v>1948</v>
-      </c>
-      <c r="C53">
-        <v>640</v>
-      </c>
-      <c r="D53">
-        <v>400</v>
-      </c>
-      <c r="E53">
-        <v>171</v>
-      </c>
-      <c r="F53">
-        <v>203</v>
-      </c>
-      <c r="G53">
-        <v>97</v>
-      </c>
-      <c r="H53">
-        <v>162</v>
-      </c>
-      <c r="I53">
-        <v>95</v>
-      </c>
-      <c r="J53">
-        <v>180</v>
-      </c>
-      <c r="K53">
-        <v>1040</v>
-      </c>
-      <c r="L53">
-        <v>437</v>
-      </c>
-      <c r="M53">
-        <v>275</v>
-      </c>
-      <c r="N53">
-        <v>0.5338809034907598</v>
-      </c>
-      <c r="O53">
-        <v>0.6216632443531828</v>
-      </c>
-      <c r="P53">
-        <v>0.2243326488706366</v>
-      </c>
-      <c r="R53" t="s">
-        <v>61</v>
-      </c>
-      <c r="S53">
-        <v>1140</v>
-      </c>
-      <c r="T53">
-        <v>366</v>
-      </c>
-      <c r="U53">
-        <v>215</v>
-      </c>
-      <c r="V53">
-        <v>110</v>
-      </c>
-      <c r="W53">
-        <v>132</v>
-      </c>
-      <c r="X53">
-        <v>59</v>
-      </c>
-      <c r="Y53">
-        <v>95</v>
-      </c>
-      <c r="Z53">
-        <v>58</v>
-      </c>
-      <c r="AA53">
-        <v>105</v>
-      </c>
-      <c r="AB53">
-        <v>0.5096491228070176</v>
-      </c>
-      <c r="AC53">
-        <v>0.606140350877193</v>
-      </c>
-      <c r="AD53">
-        <v>0.2263157894736842</v>
-      </c>
-    </row>
-    <row r="54" spans="1:30">
-      <c r="A54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54">
-        <v>1239</v>
-      </c>
-      <c r="C54">
-        <v>419</v>
-      </c>
-      <c r="D54">
-        <v>248</v>
-      </c>
-      <c r="E54">
-        <v>89</v>
-      </c>
-      <c r="F54">
-        <v>96</v>
-      </c>
-      <c r="G54">
-        <v>60</v>
-      </c>
-      <c r="H54">
-        <v>118</v>
-      </c>
-      <c r="I54">
-        <v>95</v>
-      </c>
-      <c r="J54">
-        <v>114</v>
-      </c>
-      <c r="K54">
-        <v>667</v>
-      </c>
-      <c r="L54">
-        <v>327</v>
-      </c>
-      <c r="M54">
-        <v>209</v>
-      </c>
-      <c r="N54">
-        <v>0.5383373688458434</v>
-      </c>
-      <c r="O54">
-        <v>0.6101694915254238</v>
-      </c>
-      <c r="P54">
-        <v>0.2639225181598063</v>
-      </c>
-      <c r="R54" t="s">
-        <v>62</v>
-      </c>
-      <c r="S54">
-        <v>659</v>
-      </c>
-      <c r="T54">
-        <v>226</v>
-      </c>
-      <c r="U54">
-        <v>128</v>
-      </c>
-      <c r="V54">
-        <v>52</v>
-      </c>
-      <c r="W54">
-        <v>52</v>
-      </c>
-      <c r="X54">
-        <v>40</v>
-      </c>
-      <c r="Y54">
-        <v>65</v>
-      </c>
-      <c r="Z54">
-        <v>46</v>
-      </c>
-      <c r="AA54">
-        <v>50</v>
-      </c>
-      <c r="AB54">
-        <v>0.5371775417298937</v>
-      </c>
-      <c r="AC54">
-        <v>0.6160849772382397</v>
-      </c>
-      <c r="AD54">
-        <v>0.244309559939302</v>
-      </c>
-    </row>
-    <row r="55" spans="1:30">
-      <c r="A55" t="s">
-        <v>63</v>
-      </c>
-      <c r="B55">
-        <v>2847</v>
-      </c>
-      <c r="C55">
-        <v>1126</v>
-      </c>
-      <c r="D55">
-        <v>585</v>
-      </c>
-      <c r="E55">
-        <v>235</v>
-      </c>
-      <c r="F55">
-        <v>279</v>
-      </c>
-      <c r="G55">
-        <v>124</v>
-      </c>
-      <c r="H55">
-        <v>183</v>
-      </c>
-      <c r="I55">
-        <v>125</v>
-      </c>
-      <c r="J55">
-        <v>190</v>
-      </c>
-      <c r="K55">
-        <v>1711</v>
-      </c>
-      <c r="L55">
-        <v>498</v>
-      </c>
-      <c r="M55">
-        <v>315</v>
-      </c>
-      <c r="N55">
-        <v>0.6009834913944503</v>
-      </c>
-      <c r="O55">
-        <v>0.6835265191429575</v>
-      </c>
-      <c r="P55">
-        <v>0.1749209694415174</v>
-      </c>
-      <c r="R55" t="s">
-        <v>63</v>
-      </c>
-      <c r="S55">
-        <v>1657</v>
-      </c>
-      <c r="T55">
-        <v>643</v>
-      </c>
-      <c r="U55">
-        <v>315</v>
-      </c>
-      <c r="V55">
-        <v>126</v>
-      </c>
-      <c r="W55">
-        <v>171</v>
-      </c>
-      <c r="X55">
-        <v>78</v>
-      </c>
-      <c r="Y55">
-        <v>112</v>
-      </c>
-      <c r="Z55">
-        <v>82</v>
-      </c>
-      <c r="AA55">
-        <v>130</v>
-      </c>
-      <c r="AB55">
-        <v>0.5781532890766445</v>
-      </c>
-      <c r="AC55">
-        <v>0.6541943270971635</v>
-      </c>
-      <c r="AD55">
-        <v>0.1955340977670489</v>
-      </c>
-    </row>
-    <row r="56" spans="1:30">
-      <c r="A56" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56">
-        <v>3826</v>
-      </c>
-      <c r="C56">
-        <v>1368</v>
-      </c>
-      <c r="D56">
-        <v>732</v>
-      </c>
-      <c r="E56">
-        <v>301</v>
-      </c>
-      <c r="F56">
-        <v>373</v>
-      </c>
-      <c r="G56">
-        <v>220</v>
-      </c>
-      <c r="H56">
-        <v>362</v>
-      </c>
-      <c r="I56">
-        <v>187</v>
-      </c>
-      <c r="J56">
-        <v>283</v>
-      </c>
-      <c r="K56">
-        <v>2100</v>
-      </c>
-      <c r="L56">
-        <v>832</v>
-      </c>
-      <c r="M56">
-        <v>470</v>
-      </c>
-      <c r="N56">
-        <v>0.5488761108207004</v>
-      </c>
-      <c r="O56">
-        <v>0.6275483533716676</v>
-      </c>
-      <c r="P56">
-        <v>0.2174594877156299</v>
-      </c>
-      <c r="R56" t="s">
-        <v>63</v>
-      </c>
-      <c r="S56">
-        <v>2209</v>
-      </c>
-      <c r="T56">
-        <v>771</v>
-      </c>
-      <c r="U56">
-        <v>372</v>
-      </c>
-      <c r="V56">
-        <v>155</v>
-      </c>
-      <c r="W56">
-        <v>223</v>
-      </c>
-      <c r="X56">
-        <v>143</v>
-      </c>
-      <c r="Y56">
-        <v>228</v>
-      </c>
-      <c r="Z56">
-        <v>121</v>
-      </c>
-      <c r="AA56">
-        <v>196</v>
-      </c>
-      <c r="AB56">
-        <v>0.517428700769579</v>
-      </c>
-      <c r="AC56">
-        <v>0.5875961973743775</v>
-      </c>
-      <c r="AD56">
-        <v>0.2467179719330014</v>
+        <v>0.195534097767049</v>
       </c>
     </row>
   </sheetData>
@@ -8505,13 +7979,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -8524,68 +7998,56 @@
       <c r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
+      <c r="B3">
+        <v>4371</v>
+      </c>
+      <c r="C3">
+        <v>649</v>
+      </c>
+      <c r="D3">
+        <v>315</v>
+      </c>
+      <c r="E3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B3">
-        <v>3109</v>
-      </c>
-      <c r="C3">
-        <v>2309</v>
-      </c>
-      <c r="D3">
-        <v>486</v>
-      </c>
-      <c r="E3">
-        <v>260</v>
-      </c>
-      <c r="F3">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="B4">
-        <v>0.4873804671578617</v>
+        <v>0.7875675675675675</v>
       </c>
       <c r="C4">
-        <v>0.3619689606521398</v>
+        <v>0.1169369369369369</v>
       </c>
       <c r="D4">
-        <v>0.07618749020222605</v>
+        <v>0.05675675675675676</v>
       </c>
       <c r="E4">
-        <v>0.04075873961435962</v>
-      </c>
-      <c r="F4">
-        <v>0.03370434237341276</v>
+        <v>0.03873873873873874</v>
       </c>
     </row>
   </sheetData>
@@ -8609,43 +8071,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>155</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>160</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -8653,13 +8115,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -8692,10 +8154,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="P2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -8706,10 +8168,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E3">
         <v>3307</v>
@@ -8742,10 +8204,10 @@
         <v>195</v>
       </c>
       <c r="O3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P3" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -8756,10 +8218,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E4">
         <v>4295</v>
@@ -8792,10 +8254,10 @@
         <v>246</v>
       </c>
       <c r="O4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P4" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -8806,10 +8268,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D5" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E5">
         <v>5625</v>
@@ -8842,10 +8304,10 @@
         <v>265</v>
       </c>
       <c r="O5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P5" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -8856,10 +8318,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E6">
         <v>3550</v>
@@ -8892,10 +8354,10 @@
         <v>192</v>
       </c>
       <c r="O6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="P6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -8906,10 +8368,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E7">
         <v>3895</v>
@@ -8942,10 +8404,10 @@
         <v>312</v>
       </c>
       <c r="O7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="P7" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -8956,10 +8418,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E8">
         <v>3749</v>
@@ -8992,10 +8454,10 @@
         <v>266</v>
       </c>
       <c r="O8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="P8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -9006,10 +8468,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E9">
         <v>5763</v>
@@ -9042,10 +8504,10 @@
         <v>233</v>
       </c>
       <c r="O9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="P9" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -9056,10 +8518,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E10">
         <v>5808</v>
@@ -9092,10 +8554,10 @@
         <v>441</v>
       </c>
       <c r="O10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="P10" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -9106,10 +8568,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D11" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E11">
         <v>5342</v>
@@ -9142,10 +8604,10 @@
         <v>367</v>
       </c>
       <c r="O11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="P11" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -9156,10 +8618,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E12">
         <v>5840</v>
@@ -9192,10 +8654,10 @@
         <v>1069</v>
       </c>
       <c r="O12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P12" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -9206,10 +8668,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E13">
         <v>5721</v>
@@ -9242,10 +8704,10 @@
         <v>419</v>
       </c>
       <c r="O13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="P13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -9256,10 +8718,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E14">
         <v>4098</v>
@@ -9292,10 +8754,10 @@
         <v>98</v>
       </c>
       <c r="O14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="P14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -9306,10 +8768,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E15">
         <v>5349</v>
@@ -9342,10 +8804,10 @@
         <v>360</v>
       </c>
       <c r="O15" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="P15" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -9356,10 +8818,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E16">
         <v>5304</v>
@@ -9392,10 +8854,10 @@
         <v>369</v>
       </c>
       <c r="O16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P16" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -9406,10 +8868,10 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D17" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E17">
         <v>3790</v>
@@ -9442,10 +8904,10 @@
         <v>205</v>
       </c>
       <c r="O17" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P17" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -9456,10 +8918,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E18">
         <v>3982</v>
@@ -9492,10 +8954,10 @@
         <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="P18" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -9506,10 +8968,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D19" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E19">
         <v>7497</v>
@@ -9542,10 +9004,10 @@
         <v>1250</v>
       </c>
       <c r="O19" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="P19" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -9556,10 +9018,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D20" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E20">
         <v>5502</v>
@@ -9592,10 +9054,10 @@
         <v>337</v>
       </c>
       <c r="O20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="P20" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -9606,10 +9068,10 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D21" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E21">
         <v>3335</v>
@@ -9642,10 +9104,10 @@
         <v>260</v>
       </c>
       <c r="O21" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="P21" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -9656,10 +9118,10 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D22" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E22">
         <v>3950</v>
@@ -9692,10 +9154,10 @@
         <v>89</v>
       </c>
       <c r="O22" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="P22" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -9706,10 +9168,10 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E23">
         <v>2685</v>
@@ -9742,10 +9204,10 @@
         <v>162</v>
       </c>
       <c r="O23" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="P23" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -9756,10 +9218,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D24" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E24">
         <v>3391</v>
@@ -9792,10 +9254,10 @@
         <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="P24" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -9806,10 +9268,10 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E25">
         <v>5265</v>
@@ -9842,10 +9304,10 @@
         <v>674</v>
       </c>
       <c r="O25" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="P25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -9856,10 +9318,10 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D26" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E26">
         <v>5461</v>
@@ -9892,10 +9354,10 @@
         <v>574</v>
       </c>
       <c r="O26" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="P26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -9906,10 +9368,10 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E27">
         <v>3472</v>
@@ -9942,10 +9404,10 @@
         <v>76</v>
       </c>
       <c r="O27" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="P27" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -9956,10 +9418,10 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E28">
         <v>3624</v>
@@ -9992,10 +9454,10 @@
         <v>119</v>
       </c>
       <c r="O28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="P28" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -10006,10 +9468,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D29" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E29">
         <v>3981</v>
@@ -10042,10 +9504,10 @@
         <v>115</v>
       </c>
       <c r="O29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P29" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -10056,10 +9518,10 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D30" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E30">
         <v>3994</v>
@@ -10092,10 +9554,10 @@
         <v>233</v>
       </c>
       <c r="O30" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="P30" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -10106,10 +9568,10 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D31" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E31">
         <v>2247</v>
@@ -10142,10 +9604,10 @@
         <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="P31" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -10156,10 +9618,10 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D32" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E32">
         <v>4975</v>
@@ -10192,10 +9654,10 @@
         <v>554</v>
       </c>
       <c r="O32" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="P32" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -10206,10 +9668,10 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D33" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E33">
         <v>3343</v>
@@ -10242,10 +9704,10 @@
         <v>107</v>
       </c>
       <c r="O33" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="P33" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -10256,10 +9718,10 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D34" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E34">
         <v>2609</v>
@@ -10292,10 +9754,10 @@
         <v>52</v>
       </c>
       <c r="O34" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="P34" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -10306,10 +9768,10 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D35" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E35">
         <v>4369</v>
@@ -10342,10 +9804,10 @@
         <v>447</v>
       </c>
       <c r="O35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="P35" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -10356,10 +9818,10 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D36" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E36">
         <v>2174</v>
@@ -10392,10 +9854,10 @@
         <v>101</v>
       </c>
       <c r="O36" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="P36" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -10406,10 +9868,10 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D37" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E37">
         <v>2751</v>
@@ -10442,10 +9904,10 @@
         <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="P37" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -10456,10 +9918,10 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E38">
         <v>2828</v>
@@ -10492,10 +9954,10 @@
         <v>75</v>
       </c>
       <c r="O38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="P38" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -10506,10 +9968,10 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D39" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E39">
         <v>400</v>
@@ -10542,10 +10004,10 @@
         <v>20</v>
       </c>
       <c r="O39" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="P39" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -10556,10 +10018,10 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E40">
         <v>4130</v>
@@ -10592,10 +10054,10 @@
         <v>338</v>
       </c>
       <c r="O40" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="P40" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -10606,10 +10068,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D41" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E41">
         <v>3514</v>
@@ -10642,10 +10104,10 @@
         <v>431</v>
       </c>
       <c r="O41" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="P41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -10656,10 +10118,10 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E42">
         <v>5394</v>
@@ -10692,10 +10154,10 @@
         <v>368</v>
       </c>
       <c r="O42" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="P42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -10706,10 +10168,10 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D43" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E43">
         <v>1862</v>
@@ -10742,10 +10204,10 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="P43" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -10756,10 +10218,10 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D44" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E44">
         <v>2447</v>
@@ -10792,10 +10254,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P44" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -10806,10 +10268,10 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E45">
         <v>3847</v>
@@ -10842,10 +10304,10 @@
         <v>458</v>
       </c>
       <c r="O45" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="P45" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -10856,10 +10318,10 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E46">
         <v>2492</v>
@@ -10892,10 +10354,10 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P46" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -10906,10 +10368,10 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D47" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E47">
         <v>2215</v>
@@ -10942,10 +10404,10 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P47" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -10956,10 +10418,10 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D48" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E48">
         <v>1948</v>
@@ -10992,10 +10454,10 @@
         <v>21</v>
       </c>
       <c r="O48" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -11006,10 +10468,10 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
+        <v>207</v>
+      </c>
+      <c r="D49" t="s">
         <v>209</v>
-      </c>
-      <c r="D49" t="s">
-        <v>211</v>
       </c>
       <c r="E49">
         <v>1240</v>
@@ -11042,10 +10504,10 @@
         <v>18</v>
       </c>
       <c r="O49" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P49" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -11056,10 +10518,10 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D50" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E50">
         <v>2847</v>
@@ -11092,10 +10554,10 @@
         <v>169</v>
       </c>
       <c r="O50" t="s">
+        <v>255</v>
+      </c>
+      <c r="P50" t="s">
         <v>257</v>
-      </c>
-      <c r="P50" t="s">
-        <v>259</v>
       </c>
     </row>
   </sheetData>

--- a/多人讨论-区分付费/58天区分付费统计结果.xlsx
+++ b/多人讨论-区分付费/58天区分付费统计结果.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="272">
   <si>
     <t>日期</t>
   </si>
@@ -211,6 +211,9 @@
     <t>2020-03-25</t>
   </si>
   <si>
+    <t>2020-03-28</t>
+  </si>
+  <si>
     <t>【58天互动学习场】疫情对你的工作生活产生了哪些问题和挑战？</t>
   </si>
   <si>
@@ -460,12 +463,6 @@
     <t>2.0天</t>
   </si>
   <si>
-    <t>3.0天</t>
-  </si>
-  <si>
-    <t>4.0天</t>
-  </si>
-  <si>
     <t>分社</t>
   </si>
   <si>
@@ -760,12 +757,12 @@
     <t>1.56%</t>
   </si>
   <si>
+    <t>4.16%</t>
+  </si>
+  <si>
     <t>2.00%</t>
   </si>
   <si>
-    <t>4.16%</t>
-  </si>
-  <si>
     <t>3.87%</t>
   </si>
   <si>
@@ -785,6 +782,9 @@
   </si>
   <si>
     <t>3.09%</t>
+  </si>
+  <si>
+    <t>3.83%</t>
   </si>
   <si>
     <t>0.09</t>
@@ -1190,7 +1190,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,7 +1242,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C2">
         <v>3307</v>
@@ -1283,7 +1283,7 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C3">
         <v>4295</v>
@@ -1324,7 +1324,7 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C4">
         <v>5620</v>
@@ -1365,7 +1365,7 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C5">
         <v>3504</v>
@@ -1406,7 +1406,7 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C6">
         <v>3895</v>
@@ -1447,7 +1447,7 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C7">
         <v>3749</v>
@@ -1488,7 +1488,7 @@
         <v>19</v>
       </c>
       <c r="B8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C8">
         <v>5763</v>
@@ -1529,7 +1529,7 @@
         <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C9">
         <v>5804</v>
@@ -1570,7 +1570,7 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10">
         <v>5338</v>
@@ -1611,7 +1611,7 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C11">
         <v>5840</v>
@@ -1652,7 +1652,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C12">
         <v>5770</v>
@@ -1693,7 +1693,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C13">
         <v>4098</v>
@@ -1734,7 +1734,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C14">
         <v>5349</v>
@@ -1775,7 +1775,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C15">
         <v>5304</v>
@@ -1816,7 +1816,7 @@
         <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C16">
         <v>3790</v>
@@ -1857,7 +1857,7 @@
         <v>28</v>
       </c>
       <c r="B17" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>3982</v>
@@ -1898,7 +1898,7 @@
         <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C18">
         <v>7497</v>
@@ -1939,7 +1939,7 @@
         <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C19">
         <v>5502</v>
@@ -1980,7 +1980,7 @@
         <v>31</v>
       </c>
       <c r="B20" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C20">
         <v>3335</v>
@@ -2021,7 +2021,7 @@
         <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C21">
         <v>3950</v>
@@ -2062,7 +2062,7 @@
         <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22">
         <v>2685</v>
@@ -2103,7 +2103,7 @@
         <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>3391</v>
@@ -2144,7 +2144,7 @@
         <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C24">
         <v>3534</v>
@@ -2185,7 +2185,7 @@
         <v>36</v>
       </c>
       <c r="B25" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C25">
         <v>5263</v>
@@ -2226,7 +2226,7 @@
         <v>37</v>
       </c>
       <c r="B26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C26">
         <v>5420</v>
@@ -2267,7 +2267,7 @@
         <v>38</v>
       </c>
       <c r="B27" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C27">
         <v>3472</v>
@@ -2308,7 +2308,7 @@
         <v>39</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C28">
         <v>3624</v>
@@ -2349,7 +2349,7 @@
         <v>40</v>
       </c>
       <c r="B29" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C29">
         <v>3981</v>
@@ -2390,7 +2390,7 @@
         <v>41</v>
       </c>
       <c r="B30" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>3994</v>
@@ -2431,7 +2431,7 @@
         <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C31">
         <v>2247</v>
@@ -2472,7 +2472,7 @@
         <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C32">
         <v>4973</v>
@@ -2513,7 +2513,7 @@
         <v>44</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C33">
         <v>3342</v>
@@ -2554,7 +2554,7 @@
         <v>45</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C34">
         <v>2608</v>
@@ -2595,7 +2595,7 @@
         <v>46</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C35">
         <v>4369</v>
@@ -2636,7 +2636,7 @@
         <v>47</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C36">
         <v>2174</v>
@@ -2677,7 +2677,7 @@
         <v>48</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37">
         <v>2751</v>
@@ -2718,7 +2718,7 @@
         <v>49</v>
       </c>
       <c r="B38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C38">
         <v>2828</v>
@@ -2759,7 +2759,7 @@
         <v>50</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C39">
         <v>4129</v>
@@ -2800,7 +2800,7 @@
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40">
         <v>3514</v>
@@ -2841,7 +2841,7 @@
         <v>52</v>
       </c>
       <c r="B41" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C41">
         <v>5394</v>
@@ -2882,7 +2882,7 @@
         <v>53</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C42">
         <v>1859</v>
@@ -2923,7 +2923,7 @@
         <v>54</v>
       </c>
       <c r="B43" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C43">
         <v>2446</v>
@@ -2964,7 +2964,7 @@
         <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C44">
         <v>2642</v>
@@ -3005,7 +3005,7 @@
         <v>56</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45">
         <v>3847</v>
@@ -3046,7 +3046,7 @@
         <v>57</v>
       </c>
       <c r="B46" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C46">
         <v>2492</v>
@@ -3087,7 +3087,7 @@
         <v>58</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C47">
         <v>2215</v>
@@ -3128,7 +3128,7 @@
         <v>59</v>
       </c>
       <c r="B48" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C48">
         <v>2508</v>
@@ -3169,7 +3169,7 @@
         <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C49">
         <v>1440</v>
@@ -3210,7 +3210,7 @@
         <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C50">
         <v>1948</v>
@@ -3251,7 +3251,7 @@
         <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C51">
         <v>1239</v>
@@ -3292,7 +3292,7 @@
         <v>63</v>
       </c>
       <c r="B52" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C52">
         <v>2847</v>
@@ -3325,6 +3325,47 @@
         <v>0</v>
       </c>
       <c r="M52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+      <c r="C53">
+        <v>2765</v>
+      </c>
+      <c r="D53">
+        <v>1797</v>
+      </c>
+      <c r="E53">
+        <v>598</v>
+      </c>
+      <c r="F53">
+        <v>370</v>
+      </c>
+      <c r="G53">
+        <v>33.57</v>
+      </c>
+      <c r="H53">
+        <v>33.56</v>
+      </c>
+      <c r="I53">
+        <v>32.53</v>
+      </c>
+      <c r="J53">
+        <v>35.28</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
         <v>0</v>
       </c>
     </row>
@@ -3335,7 +3376,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD52"/>
+  <dimension ref="A1:AD53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3349,88 +3390,88 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:30">
@@ -7970,6 +8011,95 @@
       </c>
       <c r="AD52">
         <v>0.195534097767049</v>
+      </c>
+    </row>
+    <row r="53" spans="1:30">
+      <c r="A53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53">
+        <v>2765</v>
+      </c>
+      <c r="C53">
+        <v>1063</v>
+      </c>
+      <c r="D53">
+        <v>563</v>
+      </c>
+      <c r="E53">
+        <v>214</v>
+      </c>
+      <c r="F53">
+        <v>261</v>
+      </c>
+      <c r="G53">
+        <v>161</v>
+      </c>
+      <c r="H53">
+        <v>249</v>
+      </c>
+      <c r="I53">
+        <v>181</v>
+      </c>
+      <c r="J53">
+        <v>73</v>
+      </c>
+      <c r="K53">
+        <v>1626</v>
+      </c>
+      <c r="L53">
+        <v>503</v>
+      </c>
+      <c r="M53">
+        <v>254</v>
+      </c>
+      <c r="N53">
+        <v>0.5880650994575045</v>
+      </c>
+      <c r="O53">
+        <v>0.6654611211573237</v>
+      </c>
+      <c r="P53">
+        <v>0.1819168173598553</v>
+      </c>
+      <c r="R53" t="s">
+        <v>64</v>
+      </c>
+      <c r="S53">
+        <v>1797</v>
+      </c>
+      <c r="T53">
+        <v>691</v>
+      </c>
+      <c r="U53">
+        <v>337</v>
+      </c>
+      <c r="V53">
+        <v>148</v>
+      </c>
+      <c r="W53">
+        <v>171</v>
+      </c>
+      <c r="X53">
+        <v>101</v>
+      </c>
+      <c r="Y53">
+        <v>159</v>
+      </c>
+      <c r="Z53">
+        <v>134</v>
+      </c>
+      <c r="AA53">
+        <v>56</v>
+      </c>
+      <c r="AB53">
+        <v>0.572064552031163</v>
+      </c>
+      <c r="AC53">
+        <v>0.654424040066778</v>
+      </c>
+      <c r="AD53">
+        <v>0.1942125765164162</v>
       </c>
     </row>
   </sheetData>
@@ -7979,75 +8109,51 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
       <c r="C1" s="1">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3">
+        <v>4558</v>
+      </c>
+      <c r="C3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D2" t="s">
-        <v>147</v>
-      </c>
-      <c r="E2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3">
-        <v>4371</v>
-      </c>
-      <c r="C3">
-        <v>649</v>
-      </c>
-      <c r="D3">
-        <v>315</v>
-      </c>
-      <c r="E3">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="B4">
-        <v>0.7875675675675675</v>
+        <v>0.896361848574238</v>
       </c>
       <c r="C4">
-        <v>0.1169369369369369</v>
-      </c>
-      <c r="D4">
-        <v>0.05675675675675676</v>
-      </c>
-      <c r="E4">
-        <v>0.03873873873873874</v>
+        <v>0.103638151425762</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8163,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -8071,43 +8177,43 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>159</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:16">
@@ -8115,13 +8221,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" t="s">
         <v>161</v>
       </c>
-      <c r="C2" t="s">
-        <v>162</v>
-      </c>
       <c r="D2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E2">
         <v>33</v>
@@ -8154,7 +8260,7 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="P2" t="s">
         <v>256</v>
@@ -8168,10 +8274,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E3">
         <v>3307</v>
@@ -8204,7 +8310,7 @@
         <v>195</v>
       </c>
       <c r="O3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P3" t="s">
         <v>257</v>
@@ -8218,10 +8324,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E4">
         <v>4295</v>
@@ -8254,7 +8360,7 @@
         <v>246</v>
       </c>
       <c r="O4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="P4" t="s">
         <v>257</v>
@@ -8268,10 +8374,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E5">
         <v>5625</v>
@@ -8304,7 +8410,7 @@
         <v>265</v>
       </c>
       <c r="O5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="P5" t="s">
         <v>258</v>
@@ -8318,10 +8424,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E6">
         <v>3550</v>
@@ -8354,7 +8460,7 @@
         <v>192</v>
       </c>
       <c r="O6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="P6" t="s">
         <v>258</v>
@@ -8368,10 +8474,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E7">
         <v>3895</v>
@@ -8404,7 +8510,7 @@
         <v>312</v>
       </c>
       <c r="O7" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="P7" t="s">
         <v>259</v>
@@ -8418,10 +8524,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D8" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E8">
         <v>3749</v>
@@ -8454,7 +8560,7 @@
         <v>266</v>
       </c>
       <c r="O8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="P8" t="s">
         <v>260</v>
@@ -8468,10 +8574,10 @@
         <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9">
         <v>5763</v>
@@ -8504,7 +8610,7 @@
         <v>233</v>
       </c>
       <c r="O9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="P9" t="s">
         <v>261</v>
@@ -8518,10 +8624,10 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E10">
         <v>5808</v>
@@ -8554,7 +8660,7 @@
         <v>441</v>
       </c>
       <c r="O10" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="P10" t="s">
         <v>259</v>
@@ -8568,10 +8674,10 @@
         <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E11">
         <v>5342</v>
@@ -8604,7 +8710,7 @@
         <v>367</v>
       </c>
       <c r="O11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="P11" t="s">
         <v>260</v>
@@ -8618,10 +8724,10 @@
         <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E12">
         <v>5840</v>
@@ -8654,7 +8760,7 @@
         <v>1069</v>
       </c>
       <c r="O12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="P12" t="s">
         <v>262</v>
@@ -8668,10 +8774,10 @@
         <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E13">
         <v>5721</v>
@@ -8704,7 +8810,7 @@
         <v>419</v>
       </c>
       <c r="O13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="P13" t="s">
         <v>260</v>
@@ -8718,10 +8824,10 @@
         <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E14">
         <v>4098</v>
@@ -8754,7 +8860,7 @@
         <v>98</v>
       </c>
       <c r="O14" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="P14" t="s">
         <v>263</v>
@@ -8768,10 +8874,10 @@
         <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E15">
         <v>5349</v>
@@ -8804,7 +8910,7 @@
         <v>360</v>
       </c>
       <c r="O15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="P15" t="s">
         <v>260</v>
@@ -8818,10 +8924,10 @@
         <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E16">
         <v>5304</v>
@@ -8854,7 +8960,7 @@
         <v>369</v>
       </c>
       <c r="O16" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="P16" t="s">
         <v>260</v>
@@ -8868,10 +8974,10 @@
         <v>27</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D17" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E17">
         <v>3790</v>
@@ -8904,7 +9010,7 @@
         <v>205</v>
       </c>
       <c r="O17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P17" t="s">
         <v>258</v>
@@ -8918,10 +9024,10 @@
         <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E18">
         <v>3982</v>
@@ -8954,7 +9060,7 @@
         <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="P18" t="s">
         <v>261</v>
@@ -8968,10 +9074,10 @@
         <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E19">
         <v>7497</v>
@@ -9004,7 +9110,7 @@
         <v>1250</v>
       </c>
       <c r="O19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="P19" t="s">
         <v>264</v>
@@ -9018,10 +9124,10 @@
         <v>30</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E20">
         <v>5502</v>
@@ -9054,7 +9160,7 @@
         <v>337</v>
       </c>
       <c r="O20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="P20" t="s">
         <v>257</v>
@@ -9068,10 +9174,10 @@
         <v>31</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E21">
         <v>3335</v>
@@ -9104,7 +9210,7 @@
         <v>260</v>
       </c>
       <c r="O21" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="P21" t="s">
         <v>259</v>
@@ -9118,10 +9224,10 @@
         <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E22">
         <v>3950</v>
@@ -9154,7 +9260,7 @@
         <v>89</v>
       </c>
       <c r="O22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="P22" t="s">
         <v>263</v>
@@ -9168,10 +9274,10 @@
         <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D23" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E23">
         <v>2685</v>
@@ -9204,7 +9310,7 @@
         <v>162</v>
       </c>
       <c r="O23" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="P23" t="s">
         <v>257</v>
@@ -9218,10 +9324,10 @@
         <v>34</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D24" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E24">
         <v>3391</v>
@@ -9254,7 +9360,7 @@
         <v>44</v>
       </c>
       <c r="O24" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P24" t="s">
         <v>265</v>
@@ -9268,10 +9374,10 @@
         <v>36</v>
       </c>
       <c r="C25" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D25" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25">
         <v>5265</v>
@@ -9304,7 +9410,7 @@
         <v>674</v>
       </c>
       <c r="O25" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="P25" t="s">
         <v>266</v>
@@ -9318,10 +9424,10 @@
         <v>37</v>
       </c>
       <c r="C26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26">
         <v>5461</v>
@@ -9354,7 +9460,7 @@
         <v>574</v>
       </c>
       <c r="O26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="P26" t="s">
         <v>267</v>
@@ -9368,10 +9474,10 @@
         <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E27">
         <v>3472</v>
@@ -9404,7 +9510,7 @@
         <v>76</v>
       </c>
       <c r="O27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="P27" t="s">
         <v>263</v>
@@ -9418,10 +9524,10 @@
         <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E28">
         <v>3624</v>
@@ -9454,7 +9560,7 @@
         <v>119</v>
       </c>
       <c r="O28" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="P28" t="s">
         <v>268</v>
@@ -9468,10 +9574,10 @@
         <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D29" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E29">
         <v>3981</v>
@@ -9504,7 +9610,7 @@
         <v>115</v>
       </c>
       <c r="O29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="P29" t="s">
         <v>268</v>
@@ -9518,10 +9624,10 @@
         <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D30" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E30">
         <v>3994</v>
@@ -9554,7 +9660,7 @@
         <v>233</v>
       </c>
       <c r="O30" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P30" t="s">
         <v>257</v>
@@ -9568,10 +9674,10 @@
         <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E31">
         <v>2247</v>
@@ -9604,7 +9710,7 @@
         <v>26</v>
       </c>
       <c r="O31" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="P31" t="s">
         <v>265</v>
@@ -9618,10 +9724,10 @@
         <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D32" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E32">
         <v>4975</v>
@@ -9654,7 +9760,7 @@
         <v>554</v>
       </c>
       <c r="O32" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="P32" t="s">
         <v>267</v>
@@ -9668,10 +9774,10 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D33" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E33">
         <v>3343</v>
@@ -9704,7 +9810,7 @@
         <v>107</v>
       </c>
       <c r="O33" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P33" t="s">
         <v>268</v>
@@ -9718,10 +9824,10 @@
         <v>45</v>
       </c>
       <c r="C34" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D34" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E34">
         <v>2609</v>
@@ -9754,7 +9860,7 @@
         <v>52</v>
       </c>
       <c r="O34" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P34" t="s">
         <v>263</v>
@@ -9768,10 +9874,10 @@
         <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D35" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E35">
         <v>4369</v>
@@ -9804,7 +9910,7 @@
         <v>447</v>
       </c>
       <c r="O35" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P35" t="s">
         <v>269</v>
@@ -9818,10 +9924,10 @@
         <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E36">
         <v>2174</v>
@@ -9854,7 +9960,7 @@
         <v>101</v>
       </c>
       <c r="O36" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P36" t="s">
         <v>258</v>
@@ -9868,10 +9974,10 @@
         <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E37">
         <v>2751</v>
@@ -9904,7 +10010,7 @@
         <v>64</v>
       </c>
       <c r="O37" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P37" t="s">
         <v>263</v>
@@ -9918,10 +10024,10 @@
         <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D38" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E38">
         <v>2828</v>
@@ -9954,7 +10060,7 @@
         <v>75</v>
       </c>
       <c r="O38" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P38" t="s">
         <v>268</v>
@@ -9968,46 +10074,46 @@
         <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>185</v>
+        <v>197</v>
       </c>
       <c r="D39" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E39">
-        <v>400</v>
+        <v>4130</v>
       </c>
       <c r="F39">
-        <v>11.25</v>
+        <v>43.48</v>
       </c>
       <c r="G39">
-        <v>182</v>
+        <v>1964</v>
       </c>
       <c r="H39">
-        <v>156</v>
+        <v>1792</v>
       </c>
       <c r="I39">
-        <v>239</v>
+        <v>2660</v>
       </c>
       <c r="J39">
-        <v>12.12</v>
+        <v>45.43</v>
       </c>
       <c r="K39">
-        <v>161</v>
+        <v>1470</v>
       </c>
       <c r="L39">
-        <v>9.970000000000001</v>
+        <v>39.95</v>
       </c>
       <c r="M39">
-        <v>8</v>
+        <v>172</v>
       </c>
       <c r="N39">
-        <v>20</v>
+        <v>338</v>
       </c>
       <c r="O39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P39" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -10018,46 +10124,46 @@
         <v>50</v>
       </c>
       <c r="C40" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D40" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E40">
-        <v>4130</v>
+        <v>400</v>
       </c>
       <c r="F40">
-        <v>43.48</v>
+        <v>11.25</v>
       </c>
       <c r="G40">
-        <v>1964</v>
+        <v>182</v>
       </c>
       <c r="H40">
-        <v>1792</v>
+        <v>156</v>
       </c>
       <c r="I40">
-        <v>2660</v>
+        <v>239</v>
       </c>
       <c r="J40">
-        <v>45.43</v>
+        <v>12.12</v>
       </c>
       <c r="K40">
-        <v>1470</v>
+        <v>161</v>
       </c>
       <c r="L40">
-        <v>39.95</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="M40">
-        <v>172</v>
+        <v>8</v>
       </c>
       <c r="N40">
-        <v>338</v>
+        <v>20</v>
       </c>
       <c r="O40" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -10068,10 +10174,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E41">
         <v>3514</v>
@@ -10104,7 +10210,7 @@
         <v>431</v>
       </c>
       <c r="O41" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="P41" t="s">
         <v>270</v>
@@ -10118,10 +10224,10 @@
         <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E42">
         <v>5394</v>
@@ -10154,7 +10260,7 @@
         <v>368</v>
       </c>
       <c r="O42" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P42" t="s">
         <v>260</v>
@@ -10168,10 +10274,10 @@
         <v>53</v>
       </c>
       <c r="C43" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D43" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E43">
         <v>1862</v>
@@ -10204,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P43" t="s">
         <v>271</v>
@@ -10218,10 +10324,10 @@
         <v>54</v>
       </c>
       <c r="C44" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D44" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E44">
         <v>2447</v>
@@ -10254,7 +10360,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P44" t="s">
         <v>271</v>
@@ -10268,10 +10374,10 @@
         <v>56</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E45">
         <v>3847</v>
@@ -10304,7 +10410,7 @@
         <v>458</v>
       </c>
       <c r="O45" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P45" t="s">
         <v>270</v>
@@ -10318,10 +10424,10 @@
         <v>57</v>
       </c>
       <c r="C46" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D46" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E46">
         <v>2492</v>
@@ -10354,7 +10460,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P46" t="s">
         <v>271</v>
@@ -10368,10 +10474,10 @@
         <v>58</v>
       </c>
       <c r="C47" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E47">
         <v>2215</v>
@@ -10404,7 +10510,7 @@
         <v>0</v>
       </c>
       <c r="O47" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P47" t="s">
         <v>271</v>
@@ -10418,10 +10524,10 @@
         <v>61</v>
       </c>
       <c r="C48" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D48" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E48">
         <v>1948</v>
@@ -10454,7 +10560,7 @@
         <v>21</v>
       </c>
       <c r="O48" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P48" t="s">
         <v>265</v>
@@ -10468,10 +10574,10 @@
         <v>62</v>
       </c>
       <c r="C49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D49" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E49">
         <v>1240</v>
@@ -10504,7 +10610,7 @@
         <v>18</v>
       </c>
       <c r="O49" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P49" t="s">
         <v>265</v>
@@ -10518,10 +10624,10 @@
         <v>63</v>
       </c>
       <c r="C50" t="s">
+        <v>207</v>
+      </c>
+      <c r="D50" t="s">
         <v>208</v>
-      </c>
-      <c r="D50" t="s">
-        <v>209</v>
       </c>
       <c r="E50">
         <v>2847</v>
@@ -10554,10 +10660,60 @@
         <v>169</v>
       </c>
       <c r="O50" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P50" t="s">
         <v>257</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" t="s">
+        <v>178</v>
+      </c>
+      <c r="D51" t="s">
+        <v>208</v>
+      </c>
+      <c r="E51">
+        <v>2765</v>
+      </c>
+      <c r="F51">
+        <v>33.57</v>
+      </c>
+      <c r="G51">
+        <v>1431</v>
+      </c>
+      <c r="H51">
+        <v>980</v>
+      </c>
+      <c r="I51">
+        <v>1731</v>
+      </c>
+      <c r="J51">
+        <v>36.11</v>
+      </c>
+      <c r="K51">
+        <v>1036</v>
+      </c>
+      <c r="L51">
+        <v>29.25</v>
+      </c>
+      <c r="M51">
+        <v>106</v>
+      </c>
+      <c r="N51">
+        <v>196</v>
+      </c>
+      <c r="O51" t="s">
+        <v>255</v>
+      </c>
+      <c r="P51" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
